--- a/conversion_calc.xlsx
+++ b/conversion_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanrosser/Documents/Grad_School_Stuff/S20/digital/ECE725/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4ECC9E-BDF5-D242-9C1A-ABC27B5E4258}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70E015-C627-6249-B6E8-7A8966553621}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680" xr2:uid="{A4E9A5AE-FB66-8E4F-A084-579C757CC6BA}"/>
   </bookViews>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -201,6 +201,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F87CA0-A1C5-1C45-BFB1-528DDB127829}">
-  <dimension ref="A1:N1031"/>
+  <dimension ref="A1:Y1031"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H24" sqref="H24:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +528,7 @@
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -540,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F1" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H1" s="1">
         <v>0</v>
@@ -555,10 +557,20 @@
         <v>0.9</v>
       </c>
       <c r="J1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -593,8 +605,18 @@
         <f>COUNT(A1:J1)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2*A1</f>
         <v>0</v>
@@ -613,15 +635,15 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -633,25 +655,67 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <f>(SUM(A3:J3)-511*0.9)/(0.9*1024)</f>
-        <v>-0.4970703125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.44140625</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -682,8 +746,18 @@
       <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -716,10 +790,20 @@
       </c>
       <c r="N8" s="1">
         <f>J13</f>
-        <v>-0.39960937500000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38961914062500003</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,10 +836,20 @@
       </c>
       <c r="N9" s="1">
         <f>N8+$J$11</f>
-        <v>-0.39882812500000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38885742187500005</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +872,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="6">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="L10" s="1">
         <v>2</v>
@@ -789,10 +883,20 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" ref="N10:N73" si="4">N9+$J$11</f>
-        <v>-0.39804687500000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38809570312500008</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -816,7 +920,7 @@
       </c>
       <c r="J11" s="5">
         <f>J10/J8</f>
-        <v>7.8125000000000004E-4</v>
+        <v>7.6171875000000003E-4</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
@@ -827,10 +931,10 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39726562500000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38733398437500011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,7 +958,7 @@
       </c>
       <c r="J12" s="5">
         <f>J10-J11</f>
-        <v>0.79921875000000009</v>
+        <v>0.77923828125000005</v>
       </c>
       <c r="L12" s="1">
         <v>4</v>
@@ -865,10 +969,10 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="4"/>
-        <v>-0.396484375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38657226562500013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,7 +996,7 @@
       </c>
       <c r="J13" s="5">
         <f>-J12/2</f>
-        <v>-0.39960937500000004</v>
+        <v>-0.38961914062500003</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
@@ -903,16 +1007,16 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39570312499999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38581054687500016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1">
         <f>SUM(A3:J3)</f>
-        <v>1.8</v>
+        <v>53.1</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -930,7 +1034,7 @@
       </c>
       <c r="J14" s="5">
         <f>J12/2</f>
-        <v>0.39960937500000004</v>
+        <v>0.38961914062500003</v>
       </c>
       <c r="L14" s="1">
         <v>6</v>
@@ -941,16 +1045,16 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39492187499999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38504882812500019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1">
         <f>B14/B7</f>
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -968,7 +1072,7 @@
       </c>
       <c r="J15" s="5">
         <f>SUM(A3:J3)</f>
-        <v>1.8</v>
+        <v>53.1</v>
       </c>
       <c r="L15" s="1">
         <v>7</v>
@@ -979,16 +1083,16 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39414062499999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-0.38428710937500021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f>B15/1023</f>
-        <v>1.9550342130987292E-3</v>
+        <v>5.767350928641251E-2</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
@@ -1006,7 +1110,7 @@
       </c>
       <c r="J16" s="5">
         <f>J15/J7</f>
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="L16" s="1">
         <v>8</v>
@@ -1017,7 +1121,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39335937499999996</v>
+        <v>-0.38352539062500024</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1026,7 +1130,7 @@
       </c>
       <c r="B17" s="1">
         <f>B16*B11</f>
-        <v>1.7578125E-3</v>
+        <v>5.1855468750000001E-2</v>
       </c>
       <c r="D17" s="1">
         <v>9</v>
@@ -1044,7 +1148,7 @@
       </c>
       <c r="J17" s="5">
         <f>J16/1023</f>
-        <v>1.9550342130987292E-3</v>
+        <v>5.767350928641251E-2</v>
       </c>
       <c r="L17" s="1">
         <v>9</v>
@@ -1054,8 +1158,8 @@
         <v>0000001001</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.39257812499999994</v>
+        <f>N16+$J$11</f>
+        <v>-0.38276367187500027</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1064,7 +1168,7 @@
       </c>
       <c r="B18" s="1">
         <f>B17-B11/2</f>
-        <v>-0.44780273437500001</v>
+        <v>-0.397705078125</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -1082,7 +1186,7 @@
       </c>
       <c r="J18" s="5">
         <f>J17*J12</f>
-        <v>1.5625000000000001E-3</v>
+        <v>4.4941406250000003E-2</v>
       </c>
       <c r="L18" s="1">
         <v>10</v>
@@ -1093,7 +1197,7 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39179687499999993</v>
+        <v>-0.38200195312500029</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1113,7 +1217,7 @@
       </c>
       <c r="J19" s="5">
         <f>J18-J12/2</f>
-        <v>-0.39804687500000002</v>
+        <v>-0.34467773437500004</v>
       </c>
       <c r="L19" s="1">
         <v>11</v>
@@ -1124,7 +1228,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39101562499999992</v>
+        <v>-0.38124023437500032</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1133,7 +1237,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(A3:J3)*B11/(1023*B7)-B11/2</f>
-        <v>-0.44780273437500001</v>
+        <v>-0.397705078125</v>
       </c>
       <c r="D20" s="1">
         <v>12</v>
@@ -1155,7 +1259,7 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.39023437499999991</v>
+        <v>-0.38047851562500035</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1174,8 +1278,8 @@
         <v>15</v>
       </c>
       <c r="J21" s="4">
-        <f>SUM(I3:R3)*J12/(1023*J7)-J12/2</f>
-        <v>-0.39804687500000002</v>
+        <f>SUM(A3:J3)*J12/(1023*J7)-J12/2</f>
+        <v>-0.34467773437500004</v>
       </c>
       <c r="L21" s="1">
         <v>13</v>
@@ -1186,7 +1290,7 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.3894531249999999</v>
+        <v>-0.37971679687500037</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1210,7 +1314,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38867187499999989</v>
+        <v>-0.3789550781250004</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1234,7 +1338,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38789062499999988</v>
+        <v>-0.37819335937500043</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1258,7 +1362,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38710937499999987</v>
+        <v>-0.37743164062500045</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1273,6 +1377,7 @@
         <f t="shared" si="3"/>
         <v>-0.4346191406250004</v>
       </c>
+      <c r="J25" s="9"/>
       <c r="L25" s="1">
         <v>17</v>
       </c>
@@ -1282,7 +1387,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38632812499999986</v>
+        <v>-0.37666992187500048</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1306,7 +1411,7 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38554687499999984</v>
+        <v>-0.37590820312500051</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1330,7 +1435,7 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38476562499999983</v>
+        <v>-0.37514648437500053</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1354,7 +1459,7 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38398437499999982</v>
+        <v>-0.37438476562500056</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1378,7 +1483,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38320312499999981</v>
+        <v>-0.37362304687500059</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1402,7 +1507,7 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" si="4"/>
-        <v>-0.3824218749999998</v>
+        <v>-0.37286132812500061</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1426,7 +1531,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38164062499999979</v>
+        <v>-0.37209960937500064</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1450,7 +1555,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38085937499999978</v>
+        <v>-0.37133789062500067</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.2">
@@ -1474,7 +1579,7 @@
       </c>
       <c r="N33" s="1">
         <f t="shared" si="4"/>
-        <v>-0.38007812499999977</v>
+        <v>-0.37057617187500069</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.2">
@@ -1498,7 +1603,7 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37929687499999976</v>
+        <v>-0.36981445312500072</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.2">
@@ -1522,7 +1627,7 @@
       </c>
       <c r="N35" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37851562499999974</v>
+        <v>-0.36905273437500075</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.2">
@@ -1546,7 +1651,7 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37773437499999973</v>
+        <v>-0.36829101562500077</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.2">
@@ -1570,7 +1675,7 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37695312499999972</v>
+        <v>-0.3675292968750008</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.2">
@@ -1594,7 +1699,7 @@
       </c>
       <c r="N38" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37617187499999971</v>
+        <v>-0.36676757812500083</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.2">
@@ -1618,7 +1723,7 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" si="4"/>
-        <v>-0.3753906249999997</v>
+        <v>-0.36600585937500085</v>
       </c>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.2">
@@ -1642,7 +1747,7 @@
       </c>
       <c r="N40" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37460937499999969</v>
+        <v>-0.36524414062500088</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.2">
@@ -1666,7 +1771,7 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37382812499999968</v>
+        <v>-0.36448242187500091</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.2">
@@ -1690,7 +1795,7 @@
       </c>
       <c r="N42" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37304687499999967</v>
+        <v>-0.36372070312500093</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.2">
@@ -1714,7 +1819,7 @@
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37226562499999966</v>
+        <v>-0.36295898437500096</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.2">
@@ -1738,7 +1843,7 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37148437499999964</v>
+        <v>-0.36219726562500099</v>
       </c>
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.2">
@@ -1762,7 +1867,7 @@
       </c>
       <c r="N45" s="1">
         <f t="shared" si="4"/>
-        <v>-0.37070312499999963</v>
+        <v>-0.36143554687500101</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.2">
@@ -1786,7 +1891,7 @@
       </c>
       <c r="N46" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36992187499999962</v>
+        <v>-0.36067382812500104</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.2">
@@ -1810,7 +1915,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36914062499999961</v>
+        <v>-0.35991210937500107</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.2">
@@ -1834,7 +1939,7 @@
       </c>
       <c r="N48" s="1">
         <f t="shared" si="4"/>
-        <v>-0.3683593749999996</v>
+        <v>-0.35915039062500109</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.2">
@@ -1858,7 +1963,7 @@
       </c>
       <c r="N49" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36757812499999959</v>
+        <v>-0.35838867187500112</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.2">
@@ -1882,7 +1987,7 @@
       </c>
       <c r="N50" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36679687499999958</v>
+        <v>-0.35762695312500115</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.2">
@@ -1906,7 +2011,7 @@
       </c>
       <c r="N51" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36601562499999957</v>
+        <v>-0.35686523437500117</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.2">
@@ -1930,7 +2035,7 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36523437499999956</v>
+        <v>-0.3561035156250012</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.2">
@@ -1954,7 +2059,7 @@
       </c>
       <c r="N53" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36445312499999954</v>
+        <v>-0.35534179687500123</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.2">
@@ -1978,7 +2083,7 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36367187499999953</v>
+        <v>-0.35458007812500125</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.2">
@@ -2002,7 +2107,7 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36289062499999952</v>
+        <v>-0.35381835937500128</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.2">
@@ -2026,7 +2131,7 @@
       </c>
       <c r="N56" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36210937499999951</v>
+        <v>-0.35305664062500131</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.2">
@@ -2050,7 +2155,7 @@
       </c>
       <c r="N57" s="1">
         <f t="shared" si="4"/>
-        <v>-0.3613281249999995</v>
+        <v>-0.35229492187500133</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.2">
@@ -2074,7 +2179,7 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36054687499999949</v>
+        <v>-0.35153320312500136</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.2">
@@ -2098,7 +2203,7 @@
       </c>
       <c r="N59" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35976562499999948</v>
+        <v>-0.35077148437500139</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.2">
@@ -2122,7 +2227,7 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35898437499999947</v>
+        <v>-0.35000976562500141</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.2">
@@ -2146,7 +2251,7 @@
       </c>
       <c r="N61" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35820312499999946</v>
+        <v>-0.34924804687500144</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.2">
@@ -2170,7 +2275,7 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35742187499999944</v>
+        <v>-0.34848632812500147</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.2">
@@ -2194,7 +2299,7 @@
       </c>
       <c r="N63" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35664062499999943</v>
+        <v>-0.34772460937500149</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.2">
@@ -2218,7 +2323,7 @@
       </c>
       <c r="N64" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35585937499999942</v>
+        <v>-0.34696289062500152</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.2">
@@ -2242,7 +2347,7 @@
       </c>
       <c r="N65" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35507812499999941</v>
+        <v>-0.34620117187500155</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.2">
@@ -2266,7 +2371,7 @@
       </c>
       <c r="N66" s="1">
         <f t="shared" si="4"/>
-        <v>-0.3542968749999994</v>
+        <v>-0.34543945312500157</v>
       </c>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.2">
@@ -2290,7 +2395,7 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35351562499999939</v>
+        <v>-0.3446777343750016</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.2">
@@ -2314,7 +2419,7 @@
       </c>
       <c r="N68" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35273437499999938</v>
+        <v>-0.34391601562500163</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.2">
@@ -2338,7 +2443,7 @@
       </c>
       <c r="N69" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35195312499999937</v>
+        <v>-0.34315429687500165</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.2">
@@ -2362,7 +2467,7 @@
       </c>
       <c r="N70" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35117187499999936</v>
+        <v>-0.34239257812500168</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.2">
@@ -2386,7 +2491,7 @@
       </c>
       <c r="N71" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35039062499999934</v>
+        <v>-0.34163085937500171</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.2">
@@ -2410,7 +2515,7 @@
       </c>
       <c r="N72" s="1">
         <f t="shared" si="4"/>
-        <v>-0.34960937499999933</v>
+        <v>-0.34086914062500173</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.2">
@@ -2434,7 +2539,7 @@
       </c>
       <c r="N73" s="1">
         <f t="shared" si="4"/>
-        <v>-0.34882812499999932</v>
+        <v>-0.34010742187500176</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.2">
@@ -2458,7 +2563,7 @@
       </c>
       <c r="N74" s="1">
         <f t="shared" ref="N74:N137" si="8">N73+$J$11</f>
-        <v>-0.34804687499999931</v>
+        <v>-0.33934570312500179</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.2">
@@ -2482,7 +2587,7 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" si="8"/>
-        <v>-0.3472656249999993</v>
+        <v>-0.33858398437500181</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.2">
@@ -2506,7 +2611,7 @@
       </c>
       <c r="N76" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34648437499999929</v>
+        <v>-0.33782226562500184</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.2">
@@ -2530,7 +2635,7 @@
       </c>
       <c r="N77" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34570312499999928</v>
+        <v>-0.33706054687500187</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.2">
@@ -2554,7 +2659,7 @@
       </c>
       <c r="N78" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34492187499999927</v>
+        <v>-0.33629882812500189</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.2">
@@ -2578,7 +2683,7 @@
       </c>
       <c r="N79" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34414062499999926</v>
+        <v>-0.33553710937500192</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.2">
@@ -2602,7 +2707,7 @@
       </c>
       <c r="N80" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34335937499999925</v>
+        <v>-0.33477539062500195</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.2">
@@ -2626,7 +2731,7 @@
       </c>
       <c r="N81" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34257812499999923</v>
+        <v>-0.33401367187500197</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.2">
@@ -2650,7 +2755,7 @@
       </c>
       <c r="N82" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34179687499999922</v>
+        <v>-0.333251953125002</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.2">
@@ -2674,7 +2779,7 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" si="8"/>
-        <v>-0.34101562499999921</v>
+        <v>-0.33249023437500203</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.2">
@@ -2698,7 +2803,7 @@
       </c>
       <c r="N84" s="1">
         <f t="shared" si="8"/>
-        <v>-0.3402343749999992</v>
+        <v>-0.33172851562500205</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.2">
@@ -2722,7 +2827,7 @@
       </c>
       <c r="N85" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33945312499999919</v>
+        <v>-0.33096679687500208</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.2">
@@ -2746,7 +2851,7 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33867187499999918</v>
+        <v>-0.3302050781250021</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.2">
@@ -2770,7 +2875,7 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33789062499999917</v>
+        <v>-0.32944335937500213</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.2">
@@ -2794,7 +2899,7 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33710937499999916</v>
+        <v>-0.32868164062500216</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.2">
@@ -2818,7 +2923,7 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33632812499999915</v>
+        <v>-0.32791992187500218</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.2">
@@ -2842,7 +2947,7 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33554687499999913</v>
+        <v>-0.32715820312500221</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.2">
@@ -2866,7 +2971,7 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33476562499999912</v>
+        <v>-0.32639648437500224</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.2">
@@ -2890,7 +2995,7 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33398437499999911</v>
+        <v>-0.32563476562500226</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.2">
@@ -2914,7 +3019,7 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" si="8"/>
-        <v>-0.3332031249999991</v>
+        <v>-0.32487304687500229</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.2">
@@ -2938,7 +3043,7 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33242187499999909</v>
+        <v>-0.32411132812500232</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.2">
@@ -2962,7 +3067,7 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33164062499999908</v>
+        <v>-0.32334960937500234</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.2">
@@ -2986,7 +3091,7 @@
       </c>
       <c r="N96" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33085937499999907</v>
+        <v>-0.32258789062500237</v>
       </c>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.2">
@@ -3010,7 +3115,7 @@
       </c>
       <c r="N97" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33007812499999906</v>
+        <v>-0.3218261718750024</v>
       </c>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.2">
@@ -3034,7 +3139,7 @@
       </c>
       <c r="N98" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32929687499999905</v>
+        <v>-0.32106445312500242</v>
       </c>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.2">
@@ -3058,7 +3163,7 @@
       </c>
       <c r="N99" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32851562499999903</v>
+        <v>-0.32030273437500245</v>
       </c>
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.2">
@@ -3082,7 +3187,7 @@
       </c>
       <c r="N100" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32773437499999902</v>
+        <v>-0.31954101562500248</v>
       </c>
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.2">
@@ -3106,7 +3211,7 @@
       </c>
       <c r="N101" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32695312499999901</v>
+        <v>-0.3187792968750025</v>
       </c>
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.2">
@@ -3130,7 +3235,7 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" si="8"/>
-        <v>-0.326171874999999</v>
+        <v>-0.31801757812500253</v>
       </c>
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.2">
@@ -3154,7 +3259,7 @@
       </c>
       <c r="N103" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32539062499999899</v>
+        <v>-0.31725585937500256</v>
       </c>
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.2">
@@ -3178,7 +3283,7 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32460937499999898</v>
+        <v>-0.31649414062500258</v>
       </c>
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.2">
@@ -3202,7 +3307,7 @@
       </c>
       <c r="N105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32382812499999897</v>
+        <v>-0.31573242187500261</v>
       </c>
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.2">
@@ -3226,7 +3331,7 @@
       </c>
       <c r="N106" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32304687499999896</v>
+        <v>-0.31497070312500264</v>
       </c>
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.2">
@@ -3250,7 +3355,7 @@
       </c>
       <c r="N107" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32226562499999895</v>
+        <v>-0.31420898437500266</v>
       </c>
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.2">
@@ -3274,7 +3379,7 @@
       </c>
       <c r="N108" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32148437499999893</v>
+        <v>-0.31344726562500269</v>
       </c>
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.2">
@@ -3298,7 +3403,7 @@
       </c>
       <c r="N109" s="1">
         <f t="shared" si="8"/>
-        <v>-0.32070312499999892</v>
+        <v>-0.31268554687500272</v>
       </c>
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.2">
@@ -3322,7 +3427,7 @@
       </c>
       <c r="N110" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31992187499999891</v>
+        <v>-0.31192382812500274</v>
       </c>
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.2">
@@ -3346,7 +3451,7 @@
       </c>
       <c r="N111" s="1">
         <f t="shared" si="8"/>
-        <v>-0.3191406249999989</v>
+        <v>-0.31116210937500277</v>
       </c>
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.2">
@@ -3370,7 +3475,7 @@
       </c>
       <c r="N112" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31835937499999889</v>
+        <v>-0.3104003906250028</v>
       </c>
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.2">
@@ -3394,7 +3499,7 @@
       </c>
       <c r="N113" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31757812499999888</v>
+        <v>-0.30963867187500282</v>
       </c>
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.2">
@@ -3418,7 +3523,7 @@
       </c>
       <c r="N114" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31679687499999887</v>
+        <v>-0.30887695312500285</v>
       </c>
     </row>
     <row r="115" spans="4:14" x14ac:dyDescent="0.2">
@@ -3442,7 +3547,7 @@
       </c>
       <c r="N115" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31601562499999886</v>
+        <v>-0.30811523437500288</v>
       </c>
     </row>
     <row r="116" spans="4:14" x14ac:dyDescent="0.2">
@@ -3466,7 +3571,7 @@
       </c>
       <c r="N116" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31523437499999885</v>
+        <v>-0.3073535156250029</v>
       </c>
     </row>
     <row r="117" spans="4:14" x14ac:dyDescent="0.2">
@@ -3490,7 +3595,7 @@
       </c>
       <c r="N117" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31445312499999883</v>
+        <v>-0.30659179687500293</v>
       </c>
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.2">
@@ -3514,7 +3619,7 @@
       </c>
       <c r="N118" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31367187499999882</v>
+        <v>-0.30583007812500296</v>
       </c>
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.2">
@@ -3538,7 +3643,7 @@
       </c>
       <c r="N119" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31289062499999881</v>
+        <v>-0.30506835937500298</v>
       </c>
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.2">
@@ -3562,7 +3667,7 @@
       </c>
       <c r="N120" s="1">
         <f t="shared" si="8"/>
-        <v>-0.3121093749999988</v>
+        <v>-0.30430664062500301</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.2">
@@ -3586,7 +3691,7 @@
       </c>
       <c r="N121" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31132812499999879</v>
+        <v>-0.30354492187500304</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.2">
@@ -3610,7 +3715,7 @@
       </c>
       <c r="N122" s="1">
         <f t="shared" si="8"/>
-        <v>-0.31054687499999878</v>
+        <v>-0.30278320312500306</v>
       </c>
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.2">
@@ -3634,7 +3739,7 @@
       </c>
       <c r="N123" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30976562499999877</v>
+        <v>-0.30202148437500309</v>
       </c>
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.2">
@@ -3658,7 +3763,7 @@
       </c>
       <c r="N124" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30898437499999876</v>
+        <v>-0.30125976562500312</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.2">
@@ -3682,7 +3787,7 @@
       </c>
       <c r="N125" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30820312499999875</v>
+        <v>-0.30049804687500314</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.2">
@@ -3706,7 +3811,7 @@
       </c>
       <c r="N126" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30742187499999873</v>
+        <v>-0.29973632812500317</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.2">
@@ -3730,7 +3835,7 @@
       </c>
       <c r="N127" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30664062499999872</v>
+        <v>-0.2989746093750032</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.2">
@@ -3754,7 +3859,7 @@
       </c>
       <c r="N128" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30585937499999871</v>
+        <v>-0.29821289062500322</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.2">
@@ -3778,7 +3883,7 @@
       </c>
       <c r="N129" s="1">
         <f t="shared" si="8"/>
-        <v>-0.3050781249999987</v>
+        <v>-0.29745117187500325</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.2">
@@ -3802,7 +3907,7 @@
       </c>
       <c r="N130" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30429687499999869</v>
+        <v>-0.29668945312500328</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.2">
@@ -3826,7 +3931,7 @@
       </c>
       <c r="N131" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30351562499999868</v>
+        <v>-0.2959277343750033</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.2">
@@ -3850,7 +3955,7 @@
       </c>
       <c r="N132" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30273437499999867</v>
+        <v>-0.29516601562500333</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.2">
@@ -3874,7 +3979,7 @@
       </c>
       <c r="N133" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30195312499999866</v>
+        <v>-0.29440429687500336</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.2">
@@ -3898,7 +4003,7 @@
       </c>
       <c r="N134" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30117187499999865</v>
+        <v>-0.29364257812500338</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.2">
@@ -3922,7 +4027,7 @@
       </c>
       <c r="N135" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30039062499999863</v>
+        <v>-0.29288085937500341</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.2">
@@ -3946,7 +4051,7 @@
       </c>
       <c r="N136" s="1">
         <f t="shared" si="8"/>
-        <v>-0.29960937499999862</v>
+        <v>-0.29211914062500344</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.2">
@@ -3970,7 +4075,7 @@
       </c>
       <c r="N137" s="1">
         <f t="shared" si="8"/>
-        <v>-0.29882812499999861</v>
+        <v>-0.29135742187500346</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.2">
@@ -3994,7 +4099,7 @@
       </c>
       <c r="N138" s="1">
         <f t="shared" ref="N138:N201" si="12">N137+$J$11</f>
-        <v>-0.2980468749999986</v>
+        <v>-0.29059570312500349</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.2">
@@ -4018,7 +4123,7 @@
       </c>
       <c r="N139" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29726562499999859</v>
+        <v>-0.28983398437500352</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.2">
@@ -4042,7 +4147,7 @@
       </c>
       <c r="N140" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29648437499999858</v>
+        <v>-0.28907226562500354</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.2">
@@ -4066,7 +4171,7 @@
       </c>
       <c r="N141" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29570312499999857</v>
+        <v>-0.28831054687500357</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.2">
@@ -4090,7 +4195,7 @@
       </c>
       <c r="N142" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29492187499999856</v>
+        <v>-0.2875488281250036</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.2">
@@ -4114,7 +4219,7 @@
       </c>
       <c r="N143" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29414062499999855</v>
+        <v>-0.28678710937500362</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.2">
@@ -4138,7 +4243,7 @@
       </c>
       <c r="N144" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29335937499999853</v>
+        <v>-0.28602539062500365</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.2">
@@ -4162,7 +4267,7 @@
       </c>
       <c r="N145" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29257812499999852</v>
+        <v>-0.28526367187500368</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.2">
@@ -4186,7 +4291,7 @@
       </c>
       <c r="N146" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29179687499999851</v>
+        <v>-0.2845019531250037</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.2">
@@ -4210,7 +4315,7 @@
       </c>
       <c r="N147" s="1">
         <f t="shared" si="12"/>
-        <v>-0.2910156249999985</v>
+        <v>-0.28374023437500373</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.2">
@@ -4234,7 +4339,7 @@
       </c>
       <c r="N148" s="1">
         <f t="shared" si="12"/>
-        <v>-0.29023437499999849</v>
+        <v>-0.28297851562500376</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.2">
@@ -4258,7 +4363,7 @@
       </c>
       <c r="N149" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28945312499999848</v>
+        <v>-0.28221679687500378</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.2">
@@ -4282,7 +4387,7 @@
       </c>
       <c r="N150" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28867187499999847</v>
+        <v>-0.28145507812500381</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.2">
@@ -4306,7 +4411,7 @@
       </c>
       <c r="N151" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28789062499999846</v>
+        <v>-0.28069335937500384</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.2">
@@ -4330,7 +4435,7 @@
       </c>
       <c r="N152" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28710937499999845</v>
+        <v>-0.27993164062500386</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.2">
@@ -4354,7 +4459,7 @@
       </c>
       <c r="N153" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28632812499999843</v>
+        <v>-0.27916992187500389</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.2">
@@ -4378,7 +4483,7 @@
       </c>
       <c r="N154" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28554687499999842</v>
+        <v>-0.27840820312500392</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.2">
@@ -4402,7 +4507,7 @@
       </c>
       <c r="N155" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28476562499999841</v>
+        <v>-0.27764648437500394</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.2">
@@ -4426,7 +4531,7 @@
       </c>
       <c r="N156" s="1">
         <f t="shared" si="12"/>
-        <v>-0.2839843749999984</v>
+        <v>-0.27688476562500397</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.2">
@@ -4450,7 +4555,7 @@
       </c>
       <c r="N157" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28320312499999839</v>
+        <v>-0.276123046875004</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.2">
@@ -4474,7 +4579,7 @@
       </c>
       <c r="N158" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28242187499999838</v>
+        <v>-0.27536132812500402</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.2">
@@ -4498,7 +4603,7 @@
       </c>
       <c r="N159" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28164062499999837</v>
+        <v>-0.27459960937500405</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.2">
@@ -4522,7 +4627,7 @@
       </c>
       <c r="N160" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28085937499999836</v>
+        <v>-0.27383789062500408</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.2">
@@ -4546,7 +4651,7 @@
       </c>
       <c r="N161" s="1">
         <f t="shared" si="12"/>
-        <v>-0.28007812499999835</v>
+        <v>-0.2730761718750041</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.2">
@@ -4570,7 +4675,7 @@
       </c>
       <c r="N162" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27929687499999833</v>
+        <v>-0.27231445312500413</v>
       </c>
     </row>
     <row r="163" spans="4:14" x14ac:dyDescent="0.2">
@@ -4594,7 +4699,7 @@
       </c>
       <c r="N163" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27851562499999832</v>
+        <v>-0.27155273437500416</v>
       </c>
     </row>
     <row r="164" spans="4:14" x14ac:dyDescent="0.2">
@@ -4618,7 +4723,7 @@
       </c>
       <c r="N164" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27773437499999831</v>
+        <v>-0.27079101562500418</v>
       </c>
     </row>
     <row r="165" spans="4:14" x14ac:dyDescent="0.2">
@@ -4642,7 +4747,7 @@
       </c>
       <c r="N165" s="1">
         <f t="shared" si="12"/>
-        <v>-0.2769531249999983</v>
+        <v>-0.27002929687500421</v>
       </c>
     </row>
     <row r="166" spans="4:14" x14ac:dyDescent="0.2">
@@ -4666,7 +4771,7 @@
       </c>
       <c r="N166" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27617187499999829</v>
+        <v>-0.26926757812500424</v>
       </c>
     </row>
     <row r="167" spans="4:14" x14ac:dyDescent="0.2">
@@ -4690,7 +4795,7 @@
       </c>
       <c r="N167" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27539062499999828</v>
+        <v>-0.26850585937500426</v>
       </c>
     </row>
     <row r="168" spans="4:14" x14ac:dyDescent="0.2">
@@ -4714,7 +4819,7 @@
       </c>
       <c r="N168" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27460937499999827</v>
+        <v>-0.26774414062500429</v>
       </c>
     </row>
     <row r="169" spans="4:14" x14ac:dyDescent="0.2">
@@ -4738,7 +4843,7 @@
       </c>
       <c r="N169" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27382812499999826</v>
+        <v>-0.26698242187500432</v>
       </c>
     </row>
     <row r="170" spans="4:14" x14ac:dyDescent="0.2">
@@ -4762,7 +4867,7 @@
       </c>
       <c r="N170" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27304687499999825</v>
+        <v>-0.26622070312500434</v>
       </c>
     </row>
     <row r="171" spans="4:14" x14ac:dyDescent="0.2">
@@ -4786,7 +4891,7 @@
       </c>
       <c r="N171" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27226562499999823</v>
+        <v>-0.26545898437500437</v>
       </c>
     </row>
     <row r="172" spans="4:14" x14ac:dyDescent="0.2">
@@ -4810,7 +4915,7 @@
       </c>
       <c r="N172" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27148437499999822</v>
+        <v>-0.2646972656250044</v>
       </c>
     </row>
     <row r="173" spans="4:14" x14ac:dyDescent="0.2">
@@ -4834,7 +4939,7 @@
       </c>
       <c r="N173" s="1">
         <f t="shared" si="12"/>
-        <v>-0.27070312499999821</v>
+        <v>-0.26393554687500442</v>
       </c>
     </row>
     <row r="174" spans="4:14" x14ac:dyDescent="0.2">
@@ -4858,7 +4963,7 @@
       </c>
       <c r="N174" s="1">
         <f t="shared" si="12"/>
-        <v>-0.2699218749999982</v>
+        <v>-0.26317382812500445</v>
       </c>
     </row>
     <row r="175" spans="4:14" x14ac:dyDescent="0.2">
@@ -4882,7 +4987,7 @@
       </c>
       <c r="N175" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26914062499999819</v>
+        <v>-0.26241210937500448</v>
       </c>
     </row>
     <row r="176" spans="4:14" x14ac:dyDescent="0.2">
@@ -4906,7 +5011,7 @@
       </c>
       <c r="N176" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26835937499999818</v>
+        <v>-0.2616503906250045</v>
       </c>
     </row>
     <row r="177" spans="4:14" x14ac:dyDescent="0.2">
@@ -4930,7 +5035,7 @@
       </c>
       <c r="N177" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26757812499999817</v>
+        <v>-0.26088867187500453</v>
       </c>
     </row>
     <row r="178" spans="4:14" x14ac:dyDescent="0.2">
@@ -4954,7 +5059,7 @@
       </c>
       <c r="N178" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26679687499999816</v>
+        <v>-0.26012695312500456</v>
       </c>
     </row>
     <row r="179" spans="4:14" x14ac:dyDescent="0.2">
@@ -4978,7 +5083,7 @@
       </c>
       <c r="N179" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26601562499999815</v>
+        <v>-0.25936523437500458</v>
       </c>
     </row>
     <row r="180" spans="4:14" x14ac:dyDescent="0.2">
@@ -5002,7 +5107,7 @@
       </c>
       <c r="N180" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26523437499999813</v>
+        <v>-0.25860351562500461</v>
       </c>
     </row>
     <row r="181" spans="4:14" x14ac:dyDescent="0.2">
@@ -5026,7 +5131,7 @@
       </c>
       <c r="N181" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26445312499999812</v>
+        <v>-0.25784179687500464</v>
       </c>
     </row>
     <row r="182" spans="4:14" x14ac:dyDescent="0.2">
@@ -5050,7 +5155,7 @@
       </c>
       <c r="N182" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26367187499999811</v>
+        <v>-0.25708007812500466</v>
       </c>
     </row>
     <row r="183" spans="4:14" x14ac:dyDescent="0.2">
@@ -5074,7 +5179,7 @@
       </c>
       <c r="N183" s="1">
         <f t="shared" si="12"/>
-        <v>-0.2628906249999981</v>
+        <v>-0.25631835937500469</v>
       </c>
     </row>
     <row r="184" spans="4:14" x14ac:dyDescent="0.2">
@@ -5098,7 +5203,7 @@
       </c>
       <c r="N184" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26210937499999809</v>
+        <v>-0.25555664062500472</v>
       </c>
     </row>
     <row r="185" spans="4:14" x14ac:dyDescent="0.2">
@@ -5122,7 +5227,7 @@
       </c>
       <c r="N185" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26132812499999808</v>
+        <v>-0.25479492187500474</v>
       </c>
     </row>
     <row r="186" spans="4:14" x14ac:dyDescent="0.2">
@@ -5146,7 +5251,7 @@
       </c>
       <c r="N186" s="1">
         <f t="shared" si="12"/>
-        <v>-0.26054687499999807</v>
+        <v>-0.25403320312500477</v>
       </c>
     </row>
     <row r="187" spans="4:14" x14ac:dyDescent="0.2">
@@ -5170,7 +5275,7 @@
       </c>
       <c r="N187" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25976562499999806</v>
+        <v>-0.2532714843750048</v>
       </c>
     </row>
     <row r="188" spans="4:14" x14ac:dyDescent="0.2">
@@ -5194,7 +5299,7 @@
       </c>
       <c r="N188" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25898437499999805</v>
+        <v>-0.25250976562500482</v>
       </c>
     </row>
     <row r="189" spans="4:14" x14ac:dyDescent="0.2">
@@ -5218,7 +5323,7 @@
       </c>
       <c r="N189" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25820312499999803</v>
+        <v>-0.25174804687500485</v>
       </c>
     </row>
     <row r="190" spans="4:14" x14ac:dyDescent="0.2">
@@ -5242,7 +5347,7 @@
       </c>
       <c r="N190" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25742187499999802</v>
+        <v>-0.25098632812500488</v>
       </c>
     </row>
     <row r="191" spans="4:14" x14ac:dyDescent="0.2">
@@ -5266,7 +5371,7 @@
       </c>
       <c r="N191" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25664062499999801</v>
+        <v>-0.2502246093750049</v>
       </c>
     </row>
     <row r="192" spans="4:14" x14ac:dyDescent="0.2">
@@ -5290,7 +5395,7 @@
       </c>
       <c r="N192" s="1">
         <f t="shared" si="12"/>
-        <v>-0.255859374999998</v>
+        <v>-0.2494628906250049</v>
       </c>
     </row>
     <row r="193" spans="4:14" x14ac:dyDescent="0.2">
@@ -5314,7 +5419,7 @@
       </c>
       <c r="N193" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25507812499999799</v>
+        <v>-0.2487011718750049</v>
       </c>
     </row>
     <row r="194" spans="4:14" x14ac:dyDescent="0.2">
@@ -5338,7 +5443,7 @@
       </c>
       <c r="N194" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25429687499999798</v>
+        <v>-0.2479394531250049</v>
       </c>
     </row>
     <row r="195" spans="4:14" x14ac:dyDescent="0.2">
@@ -5362,7 +5467,7 @@
       </c>
       <c r="N195" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25351562499999797</v>
+        <v>-0.2471777343750049</v>
       </c>
     </row>
     <row r="196" spans="4:14" x14ac:dyDescent="0.2">
@@ -5386,7 +5491,7 @@
       </c>
       <c r="N196" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25273437499999796</v>
+        <v>-0.2464160156250049</v>
       </c>
     </row>
     <row r="197" spans="4:14" x14ac:dyDescent="0.2">
@@ -5410,7 +5515,7 @@
       </c>
       <c r="N197" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25195312499999795</v>
+        <v>-0.2456542968750049</v>
       </c>
     </row>
     <row r="198" spans="4:14" x14ac:dyDescent="0.2">
@@ -5434,7 +5539,7 @@
       </c>
       <c r="N198" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25117187499999793</v>
+        <v>-0.24489257812500489</v>
       </c>
     </row>
     <row r="199" spans="4:14" x14ac:dyDescent="0.2">
@@ -5458,7 +5563,7 @@
       </c>
       <c r="N199" s="1">
         <f t="shared" si="12"/>
-        <v>-0.25039062499999792</v>
+        <v>-0.24413085937500489</v>
       </c>
     </row>
     <row r="200" spans="4:14" x14ac:dyDescent="0.2">
@@ -5482,7 +5587,7 @@
       </c>
       <c r="N200" s="1">
         <f t="shared" si="12"/>
-        <v>-0.24960937499999791</v>
+        <v>-0.24336914062500489</v>
       </c>
     </row>
     <row r="201" spans="4:14" x14ac:dyDescent="0.2">
@@ -5506,7 +5611,7 @@
       </c>
       <c r="N201" s="1">
         <f t="shared" si="12"/>
-        <v>-0.2488281249999979</v>
+        <v>-0.24260742187500489</v>
       </c>
     </row>
     <row r="202" spans="4:14" x14ac:dyDescent="0.2">
@@ -5530,7 +5635,7 @@
       </c>
       <c r="N202" s="1">
         <f t="shared" ref="N202:N265" si="16">N201+$J$11</f>
-        <v>-0.24804687499999789</v>
+        <v>-0.24184570312500489</v>
       </c>
     </row>
     <row r="203" spans="4:14" x14ac:dyDescent="0.2">
@@ -5554,7 +5659,7 @@
       </c>
       <c r="N203" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24726562499999788</v>
+        <v>-0.24108398437500489</v>
       </c>
     </row>
     <row r="204" spans="4:14" x14ac:dyDescent="0.2">
@@ -5578,7 +5683,7 @@
       </c>
       <c r="N204" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24648437499999787</v>
+        <v>-0.24032226562500489</v>
       </c>
     </row>
     <row r="205" spans="4:14" x14ac:dyDescent="0.2">
@@ -5602,7 +5707,7 @@
       </c>
       <c r="N205" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24570312499999786</v>
+        <v>-0.23956054687500489</v>
       </c>
     </row>
     <row r="206" spans="4:14" x14ac:dyDescent="0.2">
@@ -5626,7 +5731,7 @@
       </c>
       <c r="N206" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24492187499999785</v>
+        <v>-0.23879882812500489</v>
       </c>
     </row>
     <row r="207" spans="4:14" x14ac:dyDescent="0.2">
@@ -5650,7 +5755,7 @@
       </c>
       <c r="N207" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24414062499999784</v>
+        <v>-0.23803710937500488</v>
       </c>
     </row>
     <row r="208" spans="4:14" x14ac:dyDescent="0.2">
@@ -5674,7 +5779,7 @@
       </c>
       <c r="N208" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24335937499999782</v>
+        <v>-0.23727539062500488</v>
       </c>
     </row>
     <row r="209" spans="4:14" x14ac:dyDescent="0.2">
@@ -5698,7 +5803,7 @@
       </c>
       <c r="N209" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24257812499999781</v>
+        <v>-0.23651367187500488</v>
       </c>
     </row>
     <row r="210" spans="4:14" x14ac:dyDescent="0.2">
@@ -5722,7 +5827,7 @@
       </c>
       <c r="N210" s="1">
         <f t="shared" si="16"/>
-        <v>-0.2417968749999978</v>
+        <v>-0.23575195312500488</v>
       </c>
     </row>
     <row r="211" spans="4:14" x14ac:dyDescent="0.2">
@@ -5746,7 +5851,7 @@
       </c>
       <c r="N211" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24101562499999779</v>
+        <v>-0.23499023437500488</v>
       </c>
     </row>
     <row r="212" spans="4:14" x14ac:dyDescent="0.2">
@@ -5770,7 +5875,7 @@
       </c>
       <c r="N212" s="1">
         <f t="shared" si="16"/>
-        <v>-0.24023437499999778</v>
+        <v>-0.23422851562500488</v>
       </c>
     </row>
     <row r="213" spans="4:14" x14ac:dyDescent="0.2">
@@ -5794,7 +5899,7 @@
       </c>
       <c r="N213" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23945312499999777</v>
+        <v>-0.23346679687500488</v>
       </c>
     </row>
     <row r="214" spans="4:14" x14ac:dyDescent="0.2">
@@ -5818,7 +5923,7 @@
       </c>
       <c r="N214" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23867187499999776</v>
+        <v>-0.23270507812500488</v>
       </c>
     </row>
     <row r="215" spans="4:14" x14ac:dyDescent="0.2">
@@ -5842,7 +5947,7 @@
       </c>
       <c r="N215" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23789062499999775</v>
+        <v>-0.23194335937500488</v>
       </c>
     </row>
     <row r="216" spans="4:14" x14ac:dyDescent="0.2">
@@ -5866,7 +5971,7 @@
       </c>
       <c r="N216" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23710937499999774</v>
+        <v>-0.23118164062500487</v>
       </c>
     </row>
     <row r="217" spans="4:14" x14ac:dyDescent="0.2">
@@ -5890,7 +5995,7 @@
       </c>
       <c r="N217" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23632812499999772</v>
+        <v>-0.23041992187500487</v>
       </c>
     </row>
     <row r="218" spans="4:14" x14ac:dyDescent="0.2">
@@ -5914,7 +6019,7 @@
       </c>
       <c r="N218" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23554687499999771</v>
+        <v>-0.22965820312500487</v>
       </c>
     </row>
     <row r="219" spans="4:14" x14ac:dyDescent="0.2">
@@ -5938,7 +6043,7 @@
       </c>
       <c r="N219" s="1">
         <f t="shared" si="16"/>
-        <v>-0.2347656249999977</v>
+        <v>-0.22889648437500487</v>
       </c>
     </row>
     <row r="220" spans="4:14" x14ac:dyDescent="0.2">
@@ -5962,7 +6067,7 @@
       </c>
       <c r="N220" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23398437499999769</v>
+        <v>-0.22813476562500487</v>
       </c>
     </row>
     <row r="221" spans="4:14" x14ac:dyDescent="0.2">
@@ -5986,7 +6091,7 @@
       </c>
       <c r="N221" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23320312499999768</v>
+        <v>-0.22737304687500487</v>
       </c>
     </row>
     <row r="222" spans="4:14" x14ac:dyDescent="0.2">
@@ -6010,7 +6115,7 @@
       </c>
       <c r="N222" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23242187499999767</v>
+        <v>-0.22661132812500487</v>
       </c>
     </row>
     <row r="223" spans="4:14" x14ac:dyDescent="0.2">
@@ -6034,7 +6139,7 @@
       </c>
       <c r="N223" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23164062499999766</v>
+        <v>-0.22584960937500487</v>
       </c>
     </row>
     <row r="224" spans="4:14" x14ac:dyDescent="0.2">
@@ -6058,7 +6163,7 @@
       </c>
       <c r="N224" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23085937499999765</v>
+        <v>-0.22508789062500487</v>
       </c>
     </row>
     <row r="225" spans="4:14" x14ac:dyDescent="0.2">
@@ -6082,7 +6187,7 @@
       </c>
       <c r="N225" s="1">
         <f t="shared" si="16"/>
-        <v>-0.23007812499999764</v>
+        <v>-0.22432617187500486</v>
       </c>
     </row>
     <row r="226" spans="4:14" x14ac:dyDescent="0.2">
@@ -6106,7 +6211,7 @@
       </c>
       <c r="N226" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22929687499999762</v>
+        <v>-0.22356445312500486</v>
       </c>
     </row>
     <row r="227" spans="4:14" x14ac:dyDescent="0.2">
@@ -6130,7 +6235,7 @@
       </c>
       <c r="N227" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22851562499999761</v>
+        <v>-0.22280273437500486</v>
       </c>
     </row>
     <row r="228" spans="4:14" x14ac:dyDescent="0.2">
@@ -6154,7 +6259,7 @@
       </c>
       <c r="N228" s="1">
         <f t="shared" si="16"/>
-        <v>-0.2277343749999976</v>
+        <v>-0.22204101562500486</v>
       </c>
     </row>
     <row r="229" spans="4:14" x14ac:dyDescent="0.2">
@@ -6178,7 +6283,7 @@
       </c>
       <c r="N229" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22695312499999759</v>
+        <v>-0.22127929687500486</v>
       </c>
     </row>
     <row r="230" spans="4:14" x14ac:dyDescent="0.2">
@@ -6202,7 +6307,7 @@
       </c>
       <c r="N230" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22617187499999758</v>
+        <v>-0.22051757812500486</v>
       </c>
     </row>
     <row r="231" spans="4:14" x14ac:dyDescent="0.2">
@@ -6226,7 +6331,7 @@
       </c>
       <c r="N231" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22539062499999757</v>
+        <v>-0.21975585937500486</v>
       </c>
     </row>
     <row r="232" spans="4:14" x14ac:dyDescent="0.2">
@@ -6250,7 +6355,7 @@
       </c>
       <c r="N232" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22460937499999756</v>
+        <v>-0.21899414062500486</v>
       </c>
     </row>
     <row r="233" spans="4:14" x14ac:dyDescent="0.2">
@@ -6274,7 +6379,7 @@
       </c>
       <c r="N233" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22382812499999755</v>
+        <v>-0.21823242187500486</v>
       </c>
     </row>
     <row r="234" spans="4:14" x14ac:dyDescent="0.2">
@@ -6298,7 +6403,7 @@
       </c>
       <c r="N234" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22304687499999754</v>
+        <v>-0.21747070312500486</v>
       </c>
     </row>
     <row r="235" spans="4:14" x14ac:dyDescent="0.2">
@@ -6322,7 +6427,7 @@
       </c>
       <c r="N235" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22226562499999752</v>
+        <v>-0.21670898437500485</v>
       </c>
     </row>
     <row r="236" spans="4:14" x14ac:dyDescent="0.2">
@@ -6346,7 +6451,7 @@
       </c>
       <c r="N236" s="1">
         <f t="shared" si="16"/>
-        <v>-0.22148437499999751</v>
+        <v>-0.21594726562500485</v>
       </c>
     </row>
     <row r="237" spans="4:14" x14ac:dyDescent="0.2">
@@ -6370,7 +6475,7 @@
       </c>
       <c r="N237" s="1">
         <f t="shared" si="16"/>
-        <v>-0.2207031249999975</v>
+        <v>-0.21518554687500485</v>
       </c>
     </row>
     <row r="238" spans="4:14" x14ac:dyDescent="0.2">
@@ -6394,7 +6499,7 @@
       </c>
       <c r="N238" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21992187499999749</v>
+        <v>-0.21442382812500485</v>
       </c>
     </row>
     <row r="239" spans="4:14" x14ac:dyDescent="0.2">
@@ -6418,7 +6523,7 @@
       </c>
       <c r="N239" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21914062499999748</v>
+        <v>-0.21366210937500485</v>
       </c>
     </row>
     <row r="240" spans="4:14" x14ac:dyDescent="0.2">
@@ -6442,7 +6547,7 @@
       </c>
       <c r="N240" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21835937499999747</v>
+        <v>-0.21290039062500485</v>
       </c>
     </row>
     <row r="241" spans="4:14" x14ac:dyDescent="0.2">
@@ -6466,7 +6571,7 @@
       </c>
       <c r="N241" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21757812499999746</v>
+        <v>-0.21213867187500485</v>
       </c>
     </row>
     <row r="242" spans="4:14" x14ac:dyDescent="0.2">
@@ -6490,7 +6595,7 @@
       </c>
       <c r="N242" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21679687499999745</v>
+        <v>-0.21137695312500485</v>
       </c>
     </row>
     <row r="243" spans="4:14" x14ac:dyDescent="0.2">
@@ -6514,7 +6619,7 @@
       </c>
       <c r="N243" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21601562499999744</v>
+        <v>-0.21061523437500485</v>
       </c>
     </row>
     <row r="244" spans="4:14" x14ac:dyDescent="0.2">
@@ -6538,7 +6643,7 @@
       </c>
       <c r="N244" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21523437499999742</v>
+        <v>-0.20985351562500484</v>
       </c>
     </row>
     <row r="245" spans="4:14" x14ac:dyDescent="0.2">
@@ -6562,7 +6667,7 @@
       </c>
       <c r="N245" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21445312499999741</v>
+        <v>-0.20909179687500484</v>
       </c>
     </row>
     <row r="246" spans="4:14" x14ac:dyDescent="0.2">
@@ -6586,7 +6691,7 @@
       </c>
       <c r="N246" s="1">
         <f t="shared" si="16"/>
-        <v>-0.2136718749999974</v>
+        <v>-0.20833007812500484</v>
       </c>
     </row>
     <row r="247" spans="4:14" x14ac:dyDescent="0.2">
@@ -6610,7 +6715,7 @@
       </c>
       <c r="N247" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21289062499999739</v>
+        <v>-0.20756835937500484</v>
       </c>
     </row>
     <row r="248" spans="4:14" x14ac:dyDescent="0.2">
@@ -6634,7 +6739,7 @@
       </c>
       <c r="N248" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21210937499999738</v>
+        <v>-0.20680664062500484</v>
       </c>
     </row>
     <row r="249" spans="4:14" x14ac:dyDescent="0.2">
@@ -6658,7 +6763,7 @@
       </c>
       <c r="N249" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21132812499999737</v>
+        <v>-0.20604492187500484</v>
       </c>
     </row>
     <row r="250" spans="4:14" x14ac:dyDescent="0.2">
@@ -6682,7 +6787,7 @@
       </c>
       <c r="N250" s="1">
         <f t="shared" si="16"/>
-        <v>-0.21054687499999736</v>
+        <v>-0.20528320312500484</v>
       </c>
     </row>
     <row r="251" spans="4:14" x14ac:dyDescent="0.2">
@@ -6706,7 +6811,7 @@
       </c>
       <c r="N251" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20976562499999735</v>
+        <v>-0.20452148437500484</v>
       </c>
     </row>
     <row r="252" spans="4:14" x14ac:dyDescent="0.2">
@@ -6730,7 +6835,7 @@
       </c>
       <c r="N252" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20898437499999734</v>
+        <v>-0.20375976562500484</v>
       </c>
     </row>
     <row r="253" spans="4:14" x14ac:dyDescent="0.2">
@@ -6754,7 +6859,7 @@
       </c>
       <c r="N253" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20820312499999732</v>
+        <v>-0.20299804687500483</v>
       </c>
     </row>
     <row r="254" spans="4:14" x14ac:dyDescent="0.2">
@@ -6778,7 +6883,7 @@
       </c>
       <c r="N254" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20742187499999731</v>
+        <v>-0.20223632812500483</v>
       </c>
     </row>
     <row r="255" spans="4:14" x14ac:dyDescent="0.2">
@@ -6802,7 +6907,7 @@
       </c>
       <c r="N255" s="1">
         <f t="shared" si="16"/>
-        <v>-0.2066406249999973</v>
+        <v>-0.20147460937500483</v>
       </c>
     </row>
     <row r="256" spans="4:14" x14ac:dyDescent="0.2">
@@ -6826,7 +6931,7 @@
       </c>
       <c r="N256" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20585937499999729</v>
+        <v>-0.20071289062500483</v>
       </c>
     </row>
     <row r="257" spans="4:14" x14ac:dyDescent="0.2">
@@ -6850,7 +6955,7 @@
       </c>
       <c r="N257" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20507812499999728</v>
+        <v>-0.19995117187500483</v>
       </c>
     </row>
     <row r="258" spans="4:14" x14ac:dyDescent="0.2">
@@ -6874,7 +6979,7 @@
       </c>
       <c r="N258" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20429687499999727</v>
+        <v>-0.19918945312500483</v>
       </c>
     </row>
     <row r="259" spans="4:14" x14ac:dyDescent="0.2">
@@ -6898,7 +7003,7 @@
       </c>
       <c r="N259" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20351562499999726</v>
+        <v>-0.19842773437500483</v>
       </c>
     </row>
     <row r="260" spans="4:14" x14ac:dyDescent="0.2">
@@ -6922,7 +7027,7 @@
       </c>
       <c r="N260" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20273437499999725</v>
+        <v>-0.19766601562500483</v>
       </c>
     </row>
     <row r="261" spans="4:14" x14ac:dyDescent="0.2">
@@ -6946,7 +7051,7 @@
       </c>
       <c r="N261" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20195312499999724</v>
+        <v>-0.19690429687500483</v>
       </c>
     </row>
     <row r="262" spans="4:14" x14ac:dyDescent="0.2">
@@ -6970,7 +7075,7 @@
       </c>
       <c r="N262" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20117187499999722</v>
+        <v>-0.19614257812500482</v>
       </c>
     </row>
     <row r="263" spans="4:14" x14ac:dyDescent="0.2">
@@ -6994,7 +7099,7 @@
       </c>
       <c r="N263" s="1">
         <f t="shared" si="16"/>
-        <v>-0.20039062499999721</v>
+        <v>-0.19538085937500482</v>
       </c>
     </row>
     <row r="264" spans="4:14" x14ac:dyDescent="0.2">
@@ -7018,7 +7123,7 @@
       </c>
       <c r="N264" s="1">
         <f t="shared" si="16"/>
-        <v>-0.1996093749999972</v>
+        <v>-0.19461914062500482</v>
       </c>
     </row>
     <row r="265" spans="4:14" x14ac:dyDescent="0.2">
@@ -7042,7 +7147,7 @@
       </c>
       <c r="N265" s="1">
         <f t="shared" si="16"/>
-        <v>-0.19882812499999719</v>
+        <v>-0.19385742187500482</v>
       </c>
     </row>
     <row r="266" spans="4:14" x14ac:dyDescent="0.2">
@@ -7066,7 +7171,7 @@
       </c>
       <c r="N266" s="1">
         <f t="shared" ref="N266:N329" si="20">N265+$J$11</f>
-        <v>-0.19804687499999718</v>
+        <v>-0.19309570312500482</v>
       </c>
     </row>
     <row r="267" spans="4:14" x14ac:dyDescent="0.2">
@@ -7090,7 +7195,7 @@
       </c>
       <c r="N267" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19726562499999717</v>
+        <v>-0.19233398437500482</v>
       </c>
     </row>
     <row r="268" spans="4:14" x14ac:dyDescent="0.2">
@@ -7114,7 +7219,7 @@
       </c>
       <c r="N268" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19648437499999716</v>
+        <v>-0.19157226562500482</v>
       </c>
     </row>
     <row r="269" spans="4:14" x14ac:dyDescent="0.2">
@@ -7138,7 +7243,7 @@
       </c>
       <c r="N269" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19570312499999715</v>
+        <v>-0.19081054687500482</v>
       </c>
     </row>
     <row r="270" spans="4:14" x14ac:dyDescent="0.2">
@@ -7162,7 +7267,7 @@
       </c>
       <c r="N270" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19492187499999714</v>
+        <v>-0.19004882812500482</v>
       </c>
     </row>
     <row r="271" spans="4:14" x14ac:dyDescent="0.2">
@@ -7186,7 +7291,7 @@
       </c>
       <c r="N271" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19414062499999712</v>
+        <v>-0.18928710937500481</v>
       </c>
     </row>
     <row r="272" spans="4:14" x14ac:dyDescent="0.2">
@@ -7210,7 +7315,7 @@
       </c>
       <c r="N272" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19335937499999711</v>
+        <v>-0.18852539062500481</v>
       </c>
     </row>
     <row r="273" spans="4:14" x14ac:dyDescent="0.2">
@@ -7234,7 +7339,7 @@
       </c>
       <c r="N273" s="1">
         <f t="shared" si="20"/>
-        <v>-0.1925781249999971</v>
+        <v>-0.18776367187500481</v>
       </c>
     </row>
     <row r="274" spans="4:14" x14ac:dyDescent="0.2">
@@ -7258,7 +7363,7 @@
       </c>
       <c r="N274" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19179687499999709</v>
+        <v>-0.18700195312500481</v>
       </c>
     </row>
     <row r="275" spans="4:14" x14ac:dyDescent="0.2">
@@ -7282,7 +7387,7 @@
       </c>
       <c r="N275" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19101562499999708</v>
+        <v>-0.18624023437500481</v>
       </c>
     </row>
     <row r="276" spans="4:14" x14ac:dyDescent="0.2">
@@ -7306,7 +7411,7 @@
       </c>
       <c r="N276" s="1">
         <f t="shared" si="20"/>
-        <v>-0.19023437499999707</v>
+        <v>-0.18547851562500481</v>
       </c>
     </row>
     <row r="277" spans="4:14" x14ac:dyDescent="0.2">
@@ -7330,7 +7435,7 @@
       </c>
       <c r="N277" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18945312499999706</v>
+        <v>-0.18471679687500481</v>
       </c>
     </row>
     <row r="278" spans="4:14" x14ac:dyDescent="0.2">
@@ -7354,7 +7459,7 @@
       </c>
       <c r="N278" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18867187499999705</v>
+        <v>-0.18395507812500481</v>
       </c>
     </row>
     <row r="279" spans="4:14" x14ac:dyDescent="0.2">
@@ -7378,7 +7483,7 @@
       </c>
       <c r="N279" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18789062499999704</v>
+        <v>-0.18319335937500481</v>
       </c>
     </row>
     <row r="280" spans="4:14" x14ac:dyDescent="0.2">
@@ -7402,7 +7507,7 @@
       </c>
       <c r="N280" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18710937499999702</v>
+        <v>-0.1824316406250048</v>
       </c>
     </row>
     <row r="281" spans="4:14" x14ac:dyDescent="0.2">
@@ -7426,7 +7531,7 @@
       </c>
       <c r="N281" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18632812499999701</v>
+        <v>-0.1816699218750048</v>
       </c>
     </row>
     <row r="282" spans="4:14" x14ac:dyDescent="0.2">
@@ -7450,7 +7555,7 @@
       </c>
       <c r="N282" s="1">
         <f t="shared" si="20"/>
-        <v>-0.185546874999997</v>
+        <v>-0.1809082031250048</v>
       </c>
     </row>
     <row r="283" spans="4:14" x14ac:dyDescent="0.2">
@@ -7474,7 +7579,7 @@
       </c>
       <c r="N283" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18476562499999699</v>
+        <v>-0.1801464843750048</v>
       </c>
     </row>
     <row r="284" spans="4:14" x14ac:dyDescent="0.2">
@@ -7498,7 +7603,7 @@
       </c>
       <c r="N284" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18398437499999698</v>
+        <v>-0.1793847656250048</v>
       </c>
     </row>
     <row r="285" spans="4:14" x14ac:dyDescent="0.2">
@@ -7522,7 +7627,7 @@
       </c>
       <c r="N285" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18320312499999697</v>
+        <v>-0.1786230468750048</v>
       </c>
     </row>
     <row r="286" spans="4:14" x14ac:dyDescent="0.2">
@@ -7546,7 +7651,7 @@
       </c>
       <c r="N286" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18242187499999696</v>
+        <v>-0.1778613281250048</v>
       </c>
     </row>
     <row r="287" spans="4:14" x14ac:dyDescent="0.2">
@@ -7570,7 +7675,7 @@
       </c>
       <c r="N287" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18164062499999695</v>
+        <v>-0.1770996093750048</v>
       </c>
     </row>
     <row r="288" spans="4:14" x14ac:dyDescent="0.2">
@@ -7594,7 +7699,7 @@
       </c>
       <c r="N288" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18085937499999694</v>
+        <v>-0.1763378906250048</v>
       </c>
     </row>
     <row r="289" spans="4:14" x14ac:dyDescent="0.2">
@@ -7618,7 +7723,7 @@
       </c>
       <c r="N289" s="1">
         <f t="shared" si="20"/>
-        <v>-0.18007812499999692</v>
+        <v>-0.17557617187500479</v>
       </c>
     </row>
     <row r="290" spans="4:14" x14ac:dyDescent="0.2">
@@ -7642,7 +7747,7 @@
       </c>
       <c r="N290" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17929687499999691</v>
+        <v>-0.17481445312500479</v>
       </c>
     </row>
     <row r="291" spans="4:14" x14ac:dyDescent="0.2">
@@ -7666,7 +7771,7 @@
       </c>
       <c r="N291" s="1">
         <f t="shared" si="20"/>
-        <v>-0.1785156249999969</v>
+        <v>-0.17405273437500479</v>
       </c>
     </row>
     <row r="292" spans="4:14" x14ac:dyDescent="0.2">
@@ -7690,7 +7795,7 @@
       </c>
       <c r="N292" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17773437499999689</v>
+        <v>-0.17329101562500479</v>
       </c>
     </row>
     <row r="293" spans="4:14" x14ac:dyDescent="0.2">
@@ -7714,7 +7819,7 @@
       </c>
       <c r="N293" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17695312499999688</v>
+        <v>-0.17252929687500479</v>
       </c>
     </row>
     <row r="294" spans="4:14" x14ac:dyDescent="0.2">
@@ -7738,7 +7843,7 @@
       </c>
       <c r="N294" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17617187499999687</v>
+        <v>-0.17176757812500479</v>
       </c>
     </row>
     <row r="295" spans="4:14" x14ac:dyDescent="0.2">
@@ -7762,7 +7867,7 @@
       </c>
       <c r="N295" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17539062499999686</v>
+        <v>-0.17100585937500479</v>
       </c>
     </row>
     <row r="296" spans="4:14" x14ac:dyDescent="0.2">
@@ -7786,7 +7891,7 @@
       </c>
       <c r="N296" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17460937499999685</v>
+        <v>-0.17024414062500479</v>
       </c>
     </row>
     <row r="297" spans="4:14" x14ac:dyDescent="0.2">
@@ -7810,7 +7915,7 @@
       </c>
       <c r="N297" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17382812499999684</v>
+        <v>-0.16948242187500479</v>
       </c>
     </row>
     <row r="298" spans="4:14" x14ac:dyDescent="0.2">
@@ -7834,7 +7939,7 @@
       </c>
       <c r="N298" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17304687499999682</v>
+        <v>-0.16872070312500478</v>
       </c>
     </row>
     <row r="299" spans="4:14" x14ac:dyDescent="0.2">
@@ -7858,7 +7963,7 @@
       </c>
       <c r="N299" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17226562499999681</v>
+        <v>-0.16795898437500478</v>
       </c>
     </row>
     <row r="300" spans="4:14" x14ac:dyDescent="0.2">
@@ -7882,7 +7987,7 @@
       </c>
       <c r="N300" s="1">
         <f t="shared" si="20"/>
-        <v>-0.1714843749999968</v>
+        <v>-0.16719726562500478</v>
       </c>
     </row>
     <row r="301" spans="4:14" x14ac:dyDescent="0.2">
@@ -7906,7 +8011,7 @@
       </c>
       <c r="N301" s="1">
         <f t="shared" si="20"/>
-        <v>-0.17070312499999679</v>
+        <v>-0.16643554687500478</v>
       </c>
     </row>
     <row r="302" spans="4:14" x14ac:dyDescent="0.2">
@@ -7930,7 +8035,7 @@
       </c>
       <c r="N302" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16992187499999678</v>
+        <v>-0.16567382812500478</v>
       </c>
     </row>
     <row r="303" spans="4:14" x14ac:dyDescent="0.2">
@@ -7954,7 +8059,7 @@
       </c>
       <c r="N303" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16914062499999677</v>
+        <v>-0.16491210937500478</v>
       </c>
     </row>
     <row r="304" spans="4:14" x14ac:dyDescent="0.2">
@@ -7978,7 +8083,7 @@
       </c>
       <c r="N304" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16835937499999676</v>
+        <v>-0.16415039062500478</v>
       </c>
     </row>
     <row r="305" spans="4:14" x14ac:dyDescent="0.2">
@@ -8002,7 +8107,7 @@
       </c>
       <c r="N305" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16757812499999675</v>
+        <v>-0.16338867187500478</v>
       </c>
     </row>
     <row r="306" spans="4:14" x14ac:dyDescent="0.2">
@@ -8026,7 +8131,7 @@
       </c>
       <c r="N306" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16679687499999674</v>
+        <v>-0.16262695312500478</v>
       </c>
     </row>
     <row r="307" spans="4:14" x14ac:dyDescent="0.2">
@@ -8050,7 +8155,7 @@
       </c>
       <c r="N307" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16601562499999672</v>
+        <v>-0.16186523437500477</v>
       </c>
     </row>
     <row r="308" spans="4:14" x14ac:dyDescent="0.2">
@@ -8074,7 +8179,7 @@
       </c>
       <c r="N308" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16523437499999671</v>
+        <v>-0.16110351562500477</v>
       </c>
     </row>
     <row r="309" spans="4:14" x14ac:dyDescent="0.2">
@@ -8098,7 +8203,7 @@
       </c>
       <c r="N309" s="1">
         <f t="shared" si="20"/>
-        <v>-0.1644531249999967</v>
+        <v>-0.16034179687500477</v>
       </c>
     </row>
     <row r="310" spans="4:14" x14ac:dyDescent="0.2">
@@ -8122,7 +8227,7 @@
       </c>
       <c r="N310" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16367187499999669</v>
+        <v>-0.15958007812500477</v>
       </c>
     </row>
     <row r="311" spans="4:14" x14ac:dyDescent="0.2">
@@ -8146,7 +8251,7 @@
       </c>
       <c r="N311" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16289062499999668</v>
+        <v>-0.15881835937500477</v>
       </c>
     </row>
     <row r="312" spans="4:14" x14ac:dyDescent="0.2">
@@ -8170,7 +8275,7 @@
       </c>
       <c r="N312" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16210937499999667</v>
+        <v>-0.15805664062500477</v>
       </c>
     </row>
     <row r="313" spans="4:14" x14ac:dyDescent="0.2">
@@ -8194,7 +8299,7 @@
       </c>
       <c r="N313" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16132812499999666</v>
+        <v>-0.15729492187500477</v>
       </c>
     </row>
     <row r="314" spans="4:14" x14ac:dyDescent="0.2">
@@ -8218,7 +8323,7 @@
       </c>
       <c r="N314" s="1">
         <f t="shared" si="20"/>
-        <v>-0.16054687499999665</v>
+        <v>-0.15653320312500477</v>
       </c>
     </row>
     <row r="315" spans="4:14" x14ac:dyDescent="0.2">
@@ -8242,7 +8347,7 @@
       </c>
       <c r="N315" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15976562499999664</v>
+        <v>-0.15577148437500477</v>
       </c>
     </row>
     <row r="316" spans="4:14" x14ac:dyDescent="0.2">
@@ -8266,7 +8371,7 @@
       </c>
       <c r="N316" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15898437499999662</v>
+        <v>-0.15500976562500476</v>
       </c>
     </row>
     <row r="317" spans="4:14" x14ac:dyDescent="0.2">
@@ -8290,7 +8395,7 @@
       </c>
       <c r="N317" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15820312499999661</v>
+        <v>-0.15424804687500476</v>
       </c>
     </row>
     <row r="318" spans="4:14" x14ac:dyDescent="0.2">
@@ -8314,7 +8419,7 @@
       </c>
       <c r="N318" s="1">
         <f t="shared" si="20"/>
-        <v>-0.1574218749999966</v>
+        <v>-0.15348632812500476</v>
       </c>
     </row>
     <row r="319" spans="4:14" x14ac:dyDescent="0.2">
@@ -8338,7 +8443,7 @@
       </c>
       <c r="N319" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15664062499999659</v>
+        <v>-0.15272460937500476</v>
       </c>
     </row>
     <row r="320" spans="4:14" x14ac:dyDescent="0.2">
@@ -8362,7 +8467,7 @@
       </c>
       <c r="N320" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15585937499999658</v>
+        <v>-0.15196289062500476</v>
       </c>
     </row>
     <row r="321" spans="4:14" x14ac:dyDescent="0.2">
@@ -8386,7 +8491,7 @@
       </c>
       <c r="N321" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15507812499999657</v>
+        <v>-0.15120117187500476</v>
       </c>
     </row>
     <row r="322" spans="4:14" x14ac:dyDescent="0.2">
@@ -8410,7 +8515,7 @@
       </c>
       <c r="N322" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15429687499999656</v>
+        <v>-0.15043945312500476</v>
       </c>
     </row>
     <row r="323" spans="4:14" x14ac:dyDescent="0.2">
@@ -8434,7 +8539,7 @@
       </c>
       <c r="N323" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15351562499999655</v>
+        <v>-0.14967773437500476</v>
       </c>
     </row>
     <row r="324" spans="4:14" x14ac:dyDescent="0.2">
@@ -8458,7 +8563,7 @@
       </c>
       <c r="N324" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15273437499999654</v>
+        <v>-0.14891601562500476</v>
       </c>
     </row>
     <row r="325" spans="4:14" x14ac:dyDescent="0.2">
@@ -8482,7 +8587,7 @@
       </c>
       <c r="N325" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15195312499999653</v>
+        <v>-0.14815429687500475</v>
       </c>
     </row>
     <row r="326" spans="4:14" x14ac:dyDescent="0.2">
@@ -8506,7 +8611,7 @@
       </c>
       <c r="N326" s="1">
         <f t="shared" si="20"/>
-        <v>-0.15117187499999651</v>
+        <v>-0.14739257812500475</v>
       </c>
     </row>
     <row r="327" spans="4:14" x14ac:dyDescent="0.2">
@@ -8530,7 +8635,7 @@
       </c>
       <c r="N327" s="1">
         <f t="shared" si="20"/>
-        <v>-0.1503906249999965</v>
+        <v>-0.14663085937500475</v>
       </c>
     </row>
     <row r="328" spans="4:14" x14ac:dyDescent="0.2">
@@ -8554,7 +8659,7 @@
       </c>
       <c r="N328" s="1">
         <f t="shared" si="20"/>
-        <v>-0.14960937499999649</v>
+        <v>-0.14586914062500475</v>
       </c>
     </row>
     <row r="329" spans="4:14" x14ac:dyDescent="0.2">
@@ -8578,7 +8683,7 @@
       </c>
       <c r="N329" s="1">
         <f t="shared" si="20"/>
-        <v>-0.14882812499999648</v>
+        <v>-0.14510742187500475</v>
       </c>
     </row>
     <row r="330" spans="4:14" x14ac:dyDescent="0.2">
@@ -8602,7 +8707,7 @@
       </c>
       <c r="N330" s="1">
         <f t="shared" ref="N330:N393" si="24">N329+$J$11</f>
-        <v>-0.14804687499999647</v>
+        <v>-0.14434570312500475</v>
       </c>
     </row>
     <row r="331" spans="4:14" x14ac:dyDescent="0.2">
@@ -8626,7 +8731,7 @@
       </c>
       <c r="N331" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14726562499999646</v>
+        <v>-0.14358398437500475</v>
       </c>
     </row>
     <row r="332" spans="4:14" x14ac:dyDescent="0.2">
@@ -8650,7 +8755,7 @@
       </c>
       <c r="N332" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14648437499999645</v>
+        <v>-0.14282226562500475</v>
       </c>
     </row>
     <row r="333" spans="4:14" x14ac:dyDescent="0.2">
@@ -8674,7 +8779,7 @@
       </c>
       <c r="N333" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14570312499999644</v>
+        <v>-0.14206054687500475</v>
       </c>
     </row>
     <row r="334" spans="4:14" x14ac:dyDescent="0.2">
@@ -8698,7 +8803,7 @@
       </c>
       <c r="N334" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14492187499999643</v>
+        <v>-0.14129882812500474</v>
       </c>
     </row>
     <row r="335" spans="4:14" x14ac:dyDescent="0.2">
@@ -8722,7 +8827,7 @@
       </c>
       <c r="N335" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14414062499999641</v>
+        <v>-0.14053710937500474</v>
       </c>
     </row>
     <row r="336" spans="4:14" x14ac:dyDescent="0.2">
@@ -8746,7 +8851,7 @@
       </c>
       <c r="N336" s="1">
         <f t="shared" si="24"/>
-        <v>-0.1433593749999964</v>
+        <v>-0.13977539062500474</v>
       </c>
     </row>
     <row r="337" spans="4:14" x14ac:dyDescent="0.2">
@@ -8770,7 +8875,7 @@
       </c>
       <c r="N337" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14257812499999639</v>
+        <v>-0.13901367187500474</v>
       </c>
     </row>
     <row r="338" spans="4:14" x14ac:dyDescent="0.2">
@@ -8794,7 +8899,7 @@
       </c>
       <c r="N338" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14179687499999638</v>
+        <v>-0.13825195312500474</v>
       </c>
     </row>
     <row r="339" spans="4:14" x14ac:dyDescent="0.2">
@@ -8818,7 +8923,7 @@
       </c>
       <c r="N339" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14101562499999637</v>
+        <v>-0.13749023437500474</v>
       </c>
     </row>
     <row r="340" spans="4:14" x14ac:dyDescent="0.2">
@@ -8842,7 +8947,7 @@
       </c>
       <c r="N340" s="1">
         <f t="shared" si="24"/>
-        <v>-0.14023437499999636</v>
+        <v>-0.13672851562500474</v>
       </c>
     </row>
     <row r="341" spans="4:14" x14ac:dyDescent="0.2">
@@ -8866,7 +8971,7 @@
       </c>
       <c r="N341" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13945312499999635</v>
+        <v>-0.13596679687500474</v>
       </c>
     </row>
     <row r="342" spans="4:14" x14ac:dyDescent="0.2">
@@ -8890,7 +8995,7 @@
       </c>
       <c r="N342" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13867187499999634</v>
+        <v>-0.13520507812500474</v>
       </c>
     </row>
     <row r="343" spans="4:14" x14ac:dyDescent="0.2">
@@ -8914,7 +9019,7 @@
       </c>
       <c r="N343" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13789062499999633</v>
+        <v>-0.13444335937500473</v>
       </c>
     </row>
     <row r="344" spans="4:14" x14ac:dyDescent="0.2">
@@ -8938,7 +9043,7 @@
       </c>
       <c r="N344" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13710937499999631</v>
+        <v>-0.13368164062500473</v>
       </c>
     </row>
     <row r="345" spans="4:14" x14ac:dyDescent="0.2">
@@ -8962,7 +9067,7 @@
       </c>
       <c r="N345" s="1">
         <f t="shared" si="24"/>
-        <v>-0.1363281249999963</v>
+        <v>-0.13291992187500473</v>
       </c>
     </row>
     <row r="346" spans="4:14" x14ac:dyDescent="0.2">
@@ -8986,7 +9091,7 @@
       </c>
       <c r="N346" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13554687499999629</v>
+        <v>-0.13215820312500473</v>
       </c>
     </row>
     <row r="347" spans="4:14" x14ac:dyDescent="0.2">
@@ -9010,7 +9115,7 @@
       </c>
       <c r="N347" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13476562499999628</v>
+        <v>-0.13139648437500473</v>
       </c>
     </row>
     <row r="348" spans="4:14" x14ac:dyDescent="0.2">
@@ -9034,7 +9139,7 @@
       </c>
       <c r="N348" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13398437499999627</v>
+        <v>-0.13063476562500473</v>
       </c>
     </row>
     <row r="349" spans="4:14" x14ac:dyDescent="0.2">
@@ -9058,7 +9163,7 @@
       </c>
       <c r="N349" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13320312499999626</v>
+        <v>-0.12987304687500473</v>
       </c>
     </row>
     <row r="350" spans="4:14" x14ac:dyDescent="0.2">
@@ -9082,7 +9187,7 @@
       </c>
       <c r="N350" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13242187499999625</v>
+        <v>-0.12911132812500473</v>
       </c>
     </row>
     <row r="351" spans="4:14" x14ac:dyDescent="0.2">
@@ -9106,7 +9211,7 @@
       </c>
       <c r="N351" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13164062499999624</v>
+        <v>-0.12834960937500473</v>
       </c>
     </row>
     <row r="352" spans="4:14" x14ac:dyDescent="0.2">
@@ -9130,7 +9235,7 @@
       </c>
       <c r="N352" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13085937499999623</v>
+        <v>-0.12758789062500472</v>
       </c>
     </row>
     <row r="353" spans="4:14" x14ac:dyDescent="0.2">
@@ -9154,7 +9259,7 @@
       </c>
       <c r="N353" s="1">
         <f t="shared" si="24"/>
-        <v>-0.13007812499999621</v>
+        <v>-0.12682617187500472</v>
       </c>
     </row>
     <row r="354" spans="4:14" x14ac:dyDescent="0.2">
@@ -9178,7 +9283,7 @@
       </c>
       <c r="N354" s="1">
         <f t="shared" si="24"/>
-        <v>-0.1292968749999962</v>
+        <v>-0.12606445312500472</v>
       </c>
     </row>
     <row r="355" spans="4:14" x14ac:dyDescent="0.2">
@@ -9202,7 +9307,7 @@
       </c>
       <c r="N355" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12851562499999619</v>
+        <v>-0.12530273437500472</v>
       </c>
     </row>
     <row r="356" spans="4:14" x14ac:dyDescent="0.2">
@@ -9226,7 +9331,7 @@
       </c>
       <c r="N356" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12773437499999618</v>
+        <v>-0.12454101562500472</v>
       </c>
     </row>
     <row r="357" spans="4:14" x14ac:dyDescent="0.2">
@@ -9250,7 +9355,7 @@
       </c>
       <c r="N357" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12695312499999617</v>
+        <v>-0.12377929687500472</v>
       </c>
     </row>
     <row r="358" spans="4:14" x14ac:dyDescent="0.2">
@@ -9274,7 +9379,7 @@
       </c>
       <c r="N358" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12617187499999616</v>
+        <v>-0.12301757812500472</v>
       </c>
     </row>
     <row r="359" spans="4:14" x14ac:dyDescent="0.2">
@@ -9298,7 +9403,7 @@
       </c>
       <c r="N359" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12539062499999615</v>
+        <v>-0.12225585937500472</v>
       </c>
     </row>
     <row r="360" spans="4:14" x14ac:dyDescent="0.2">
@@ -9322,7 +9427,7 @@
       </c>
       <c r="N360" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12460937499999615</v>
+        <v>-0.12149414062500472</v>
       </c>
     </row>
     <row r="361" spans="4:14" x14ac:dyDescent="0.2">
@@ -9346,7 +9451,7 @@
       </c>
       <c r="N361" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12382812499999615</v>
+        <v>-0.12073242187500471</v>
       </c>
     </row>
     <row r="362" spans="4:14" x14ac:dyDescent="0.2">
@@ -9370,7 +9475,7 @@
       </c>
       <c r="N362" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12304687499999616</v>
+        <v>-0.11997070312500471</v>
       </c>
     </row>
     <row r="363" spans="4:14" x14ac:dyDescent="0.2">
@@ -9394,7 +9499,7 @@
       </c>
       <c r="N363" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12226562499999616</v>
+        <v>-0.11920898437500471</v>
       </c>
     </row>
     <row r="364" spans="4:14" x14ac:dyDescent="0.2">
@@ -9418,7 +9523,7 @@
       </c>
       <c r="N364" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12148437499999616</v>
+        <v>-0.11844726562500471</v>
       </c>
     </row>
     <row r="365" spans="4:14" x14ac:dyDescent="0.2">
@@ -9442,7 +9547,7 @@
       </c>
       <c r="N365" s="1">
         <f t="shared" si="24"/>
-        <v>-0.12070312499999616</v>
+        <v>-0.11768554687500471</v>
       </c>
     </row>
     <row r="366" spans="4:14" x14ac:dyDescent="0.2">
@@ -9466,7 +9571,7 @@
       </c>
       <c r="N366" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11992187499999617</v>
+        <v>-0.11692382812500471</v>
       </c>
     </row>
     <row r="367" spans="4:14" x14ac:dyDescent="0.2">
@@ -9490,7 +9595,7 @@
       </c>
       <c r="N367" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11914062499999617</v>
+        <v>-0.11616210937500471</v>
       </c>
     </row>
     <row r="368" spans="4:14" x14ac:dyDescent="0.2">
@@ -9514,7 +9619,7 @@
       </c>
       <c r="N368" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11835937499999617</v>
+        <v>-0.11540039062500471</v>
       </c>
     </row>
     <row r="369" spans="4:14" x14ac:dyDescent="0.2">
@@ -9538,7 +9643,7 @@
       </c>
       <c r="N369" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11757812499999618</v>
+        <v>-0.11463867187500471</v>
       </c>
     </row>
     <row r="370" spans="4:14" x14ac:dyDescent="0.2">
@@ -9562,7 +9667,7 @@
       </c>
       <c r="N370" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11679687499999618</v>
+        <v>-0.1138769531250047</v>
       </c>
     </row>
     <row r="371" spans="4:14" x14ac:dyDescent="0.2">
@@ -9586,7 +9691,7 @@
       </c>
       <c r="N371" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11601562499999618</v>
+        <v>-0.1131152343750047</v>
       </c>
     </row>
     <row r="372" spans="4:14" x14ac:dyDescent="0.2">
@@ -9610,7 +9715,7 @@
       </c>
       <c r="N372" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11523437499999618</v>
+        <v>-0.1123535156250047</v>
       </c>
     </row>
     <row r="373" spans="4:14" x14ac:dyDescent="0.2">
@@ -9634,7 +9739,7 @@
       </c>
       <c r="N373" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11445312499999619</v>
+        <v>-0.1115917968750047</v>
       </c>
     </row>
     <row r="374" spans="4:14" x14ac:dyDescent="0.2">
@@ -9658,7 +9763,7 @@
       </c>
       <c r="N374" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11367187499999619</v>
+        <v>-0.1108300781250047</v>
       </c>
     </row>
     <row r="375" spans="4:14" x14ac:dyDescent="0.2">
@@ -9682,7 +9787,7 @@
       </c>
       <c r="N375" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11289062499999619</v>
+        <v>-0.1100683593750047</v>
       </c>
     </row>
     <row r="376" spans="4:14" x14ac:dyDescent="0.2">
@@ -9706,7 +9811,7 @@
       </c>
       <c r="N376" s="1">
         <f t="shared" si="24"/>
-        <v>-0.11210937499999619</v>
+        <v>-0.1093066406250047</v>
       </c>
     </row>
     <row r="377" spans="4:14" x14ac:dyDescent="0.2">
@@ -9730,7 +9835,7 @@
       </c>
       <c r="N377" s="1">
         <f t="shared" si="24"/>
-        <v>-0.1113281249999962</v>
+        <v>-0.1085449218750047</v>
       </c>
     </row>
     <row r="378" spans="4:14" x14ac:dyDescent="0.2">
@@ -9754,7 +9859,7 @@
       </c>
       <c r="N378" s="1">
         <f t="shared" si="24"/>
-        <v>-0.1105468749999962</v>
+        <v>-0.1077832031250047</v>
       </c>
     </row>
     <row r="379" spans="4:14" x14ac:dyDescent="0.2">
@@ -9778,7 +9883,7 @@
       </c>
       <c r="N379" s="1">
         <f t="shared" si="24"/>
-        <v>-0.1097656249999962</v>
+        <v>-0.10702148437500469</v>
       </c>
     </row>
     <row r="380" spans="4:14" x14ac:dyDescent="0.2">
@@ -9802,7 +9907,7 @@
       </c>
       <c r="N380" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10898437499999621</v>
+        <v>-0.10625976562500469</v>
       </c>
     </row>
     <row r="381" spans="4:14" x14ac:dyDescent="0.2">
@@ -9826,7 +9931,7 @@
       </c>
       <c r="N381" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10820312499999621</v>
+        <v>-0.10549804687500469</v>
       </c>
     </row>
     <row r="382" spans="4:14" x14ac:dyDescent="0.2">
@@ -9850,7 +9955,7 @@
       </c>
       <c r="N382" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10742187499999621</v>
+        <v>-0.10473632812500469</v>
       </c>
     </row>
     <row r="383" spans="4:14" x14ac:dyDescent="0.2">
@@ -9874,7 +9979,7 @@
       </c>
       <c r="N383" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10664062499999621</v>
+        <v>-0.10397460937500469</v>
       </c>
     </row>
     <row r="384" spans="4:14" x14ac:dyDescent="0.2">
@@ -9898,7 +10003,7 @@
       </c>
       <c r="N384" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10585937499999622</v>
+        <v>-0.10321289062500469</v>
       </c>
     </row>
     <row r="385" spans="4:14" x14ac:dyDescent="0.2">
@@ -9922,7 +10027,7 @@
       </c>
       <c r="N385" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10507812499999622</v>
+        <v>-0.10245117187500469</v>
       </c>
     </row>
     <row r="386" spans="4:14" x14ac:dyDescent="0.2">
@@ -9946,7 +10051,7 @@
       </c>
       <c r="N386" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10429687499999622</v>
+        <v>-0.10168945312500469</v>
       </c>
     </row>
     <row r="387" spans="4:14" x14ac:dyDescent="0.2">
@@ -9970,7 +10075,7 @@
       </c>
       <c r="N387" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10351562499999623</v>
+        <v>-0.10092773437500469</v>
       </c>
     </row>
     <row r="388" spans="4:14" x14ac:dyDescent="0.2">
@@ -9994,7 +10099,7 @@
       </c>
       <c r="N388" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10273437499999623</v>
+        <v>-0.10016601562500468</v>
       </c>
     </row>
     <row r="389" spans="4:14" x14ac:dyDescent="0.2">
@@ -10018,7 +10123,7 @@
       </c>
       <c r="N389" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10195312499999623</v>
+        <v>-9.9404296875004683E-2</v>
       </c>
     </row>
     <row r="390" spans="4:14" x14ac:dyDescent="0.2">
@@ -10042,7 +10147,7 @@
       </c>
       <c r="N390" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10117187499999623</v>
+        <v>-9.8642578125004682E-2</v>
       </c>
     </row>
     <row r="391" spans="4:14" x14ac:dyDescent="0.2">
@@ -10066,7 +10171,7 @@
       </c>
       <c r="N391" s="1">
         <f t="shared" si="24"/>
-        <v>-0.10039062499999624</v>
+        <v>-9.7880859375004681E-2</v>
       </c>
     </row>
     <row r="392" spans="4:14" x14ac:dyDescent="0.2">
@@ -10090,7 +10195,7 @@
       </c>
       <c r="N392" s="1">
         <f t="shared" si="24"/>
-        <v>-9.9609374999996239E-2</v>
+        <v>-9.711914062500468E-2</v>
       </c>
     </row>
     <row r="393" spans="4:14" x14ac:dyDescent="0.2">
@@ -10114,7 +10219,7 @@
       </c>
       <c r="N393" s="1">
         <f t="shared" si="24"/>
-        <v>-9.8828124999996242E-2</v>
+        <v>-9.6357421875004678E-2</v>
       </c>
     </row>
     <row r="394" spans="4:14" x14ac:dyDescent="0.2">
@@ -10138,7 +10243,7 @@
       </c>
       <c r="N394" s="1">
         <f t="shared" ref="N394:N457" si="28">N393+$J$11</f>
-        <v>-9.8046874999996245E-2</v>
+        <v>-9.5595703125004677E-2</v>
       </c>
     </row>
     <row r="395" spans="4:14" x14ac:dyDescent="0.2">
@@ -10162,7 +10267,7 @@
       </c>
       <c r="N395" s="1">
         <f t="shared" si="28"/>
-        <v>-9.7265624999996247E-2</v>
+        <v>-9.4833984375004676E-2</v>
       </c>
     </row>
     <row r="396" spans="4:14" x14ac:dyDescent="0.2">
@@ -10186,7 +10291,7 @@
       </c>
       <c r="N396" s="1">
         <f t="shared" si="28"/>
-        <v>-9.648437499999625E-2</v>
+        <v>-9.4072265625004675E-2</v>
       </c>
     </row>
     <row r="397" spans="4:14" x14ac:dyDescent="0.2">
@@ -10210,7 +10315,7 @@
       </c>
       <c r="N397" s="1">
         <f t="shared" si="28"/>
-        <v>-9.5703124999996253E-2</v>
+        <v>-9.3310546875004674E-2</v>
       </c>
     </row>
     <row r="398" spans="4:14" x14ac:dyDescent="0.2">
@@ -10234,7 +10339,7 @@
       </c>
       <c r="N398" s="1">
         <f t="shared" si="28"/>
-        <v>-9.4921874999996256E-2</v>
+        <v>-9.2548828125004673E-2</v>
       </c>
     </row>
     <row r="399" spans="4:14" x14ac:dyDescent="0.2">
@@ -10258,7 +10363,7 @@
       </c>
       <c r="N399" s="1">
         <f t="shared" si="28"/>
-        <v>-9.4140624999996259E-2</v>
+        <v>-9.1787109375004672E-2</v>
       </c>
     </row>
     <row r="400" spans="4:14" x14ac:dyDescent="0.2">
@@ -10282,7 +10387,7 @@
       </c>
       <c r="N400" s="1">
         <f t="shared" si="28"/>
-        <v>-9.3359374999996261E-2</v>
+        <v>-9.1025390625004671E-2</v>
       </c>
     </row>
     <row r="401" spans="4:14" x14ac:dyDescent="0.2">
@@ -10306,7 +10411,7 @@
       </c>
       <c r="N401" s="1">
         <f t="shared" si="28"/>
-        <v>-9.2578124999996264E-2</v>
+        <v>-9.026367187500467E-2</v>
       </c>
     </row>
     <row r="402" spans="4:14" x14ac:dyDescent="0.2">
@@ -10330,7 +10435,7 @@
       </c>
       <c r="N402" s="1">
         <f t="shared" si="28"/>
-        <v>-9.1796874999996267E-2</v>
+        <v>-8.9501953125004668E-2</v>
       </c>
     </row>
     <row r="403" spans="4:14" x14ac:dyDescent="0.2">
@@ -10354,7 +10459,7 @@
       </c>
       <c r="N403" s="1">
         <f t="shared" si="28"/>
-        <v>-9.101562499999627E-2</v>
+        <v>-8.8740234375004667E-2</v>
       </c>
     </row>
     <row r="404" spans="4:14" x14ac:dyDescent="0.2">
@@ -10378,7 +10483,7 @@
       </c>
       <c r="N404" s="1">
         <f t="shared" si="28"/>
-        <v>-9.0234374999996272E-2</v>
+        <v>-8.7978515625004666E-2</v>
       </c>
     </row>
     <row r="405" spans="4:14" x14ac:dyDescent="0.2">
@@ -10402,7 +10507,7 @@
       </c>
       <c r="N405" s="1">
         <f t="shared" si="28"/>
-        <v>-8.9453124999996275E-2</v>
+        <v>-8.7216796875004665E-2</v>
       </c>
     </row>
     <row r="406" spans="4:14" x14ac:dyDescent="0.2">
@@ -10426,7 +10531,7 @@
       </c>
       <c r="N406" s="1">
         <f t="shared" si="28"/>
-        <v>-8.8671874999996278E-2</v>
+        <v>-8.6455078125004664E-2</v>
       </c>
     </row>
     <row r="407" spans="4:14" x14ac:dyDescent="0.2">
@@ -10450,7 +10555,7 @@
       </c>
       <c r="N407" s="1">
         <f t="shared" si="28"/>
-        <v>-8.7890624999996281E-2</v>
+        <v>-8.5693359375004663E-2</v>
       </c>
     </row>
     <row r="408" spans="4:14" x14ac:dyDescent="0.2">
@@ -10474,7 +10579,7 @@
       </c>
       <c r="N408" s="1">
         <f t="shared" si="28"/>
-        <v>-8.7109374999996284E-2</v>
+        <v>-8.4931640625004662E-2</v>
       </c>
     </row>
     <row r="409" spans="4:14" x14ac:dyDescent="0.2">
@@ -10498,7 +10603,7 @@
       </c>
       <c r="N409" s="1">
         <f t="shared" si="28"/>
-        <v>-8.6328124999996286E-2</v>
+        <v>-8.4169921875004661E-2</v>
       </c>
     </row>
     <row r="410" spans="4:14" x14ac:dyDescent="0.2">
@@ -10522,7 +10627,7 @@
       </c>
       <c r="N410" s="1">
         <f t="shared" si="28"/>
-        <v>-8.5546874999996289E-2</v>
+        <v>-8.340820312500466E-2</v>
       </c>
     </row>
     <row r="411" spans="4:14" x14ac:dyDescent="0.2">
@@ -10546,7 +10651,7 @@
       </c>
       <c r="N411" s="1">
         <f t="shared" si="28"/>
-        <v>-8.4765624999996292E-2</v>
+        <v>-8.2646484375004658E-2</v>
       </c>
     </row>
     <row r="412" spans="4:14" x14ac:dyDescent="0.2">
@@ -10570,7 +10675,7 @@
       </c>
       <c r="N412" s="1">
         <f t="shared" si="28"/>
-        <v>-8.3984374999996295E-2</v>
+        <v>-8.1884765625004657E-2</v>
       </c>
     </row>
     <row r="413" spans="4:14" x14ac:dyDescent="0.2">
@@ -10594,7 +10699,7 @@
       </c>
       <c r="N413" s="1">
         <f t="shared" si="28"/>
-        <v>-8.3203124999996297E-2</v>
+        <v>-8.1123046875004656E-2</v>
       </c>
     </row>
     <row r="414" spans="4:14" x14ac:dyDescent="0.2">
@@ -10618,7 +10723,7 @@
       </c>
       <c r="N414" s="1">
         <f t="shared" si="28"/>
-        <v>-8.24218749999963E-2</v>
+        <v>-8.0361328125004655E-2</v>
       </c>
     </row>
     <row r="415" spans="4:14" x14ac:dyDescent="0.2">
@@ -10642,7 +10747,7 @@
       </c>
       <c r="N415" s="1">
         <f t="shared" si="28"/>
-        <v>-8.1640624999996303E-2</v>
+        <v>-7.9599609375004654E-2</v>
       </c>
     </row>
     <row r="416" spans="4:14" x14ac:dyDescent="0.2">
@@ -10666,7 +10771,7 @@
       </c>
       <c r="N416" s="1">
         <f t="shared" si="28"/>
-        <v>-8.0859374999996306E-2</v>
+        <v>-7.8837890625004653E-2</v>
       </c>
     </row>
     <row r="417" spans="4:14" x14ac:dyDescent="0.2">
@@ -10690,7 +10795,7 @@
       </c>
       <c r="N417" s="1">
         <f t="shared" si="28"/>
-        <v>-8.0078124999996309E-2</v>
+        <v>-7.8076171875004652E-2</v>
       </c>
     </row>
     <row r="418" spans="4:14" x14ac:dyDescent="0.2">
@@ -10714,7 +10819,7 @@
       </c>
       <c r="N418" s="1">
         <f t="shared" si="28"/>
-        <v>-7.9296874999996311E-2</v>
+        <v>-7.7314453125004651E-2</v>
       </c>
     </row>
     <row r="419" spans="4:14" x14ac:dyDescent="0.2">
@@ -10738,7 +10843,7 @@
       </c>
       <c r="N419" s="1">
         <f t="shared" si="28"/>
-        <v>-7.8515624999996314E-2</v>
+        <v>-7.655273437500465E-2</v>
       </c>
     </row>
     <row r="420" spans="4:14" x14ac:dyDescent="0.2">
@@ -10762,7 +10867,7 @@
       </c>
       <c r="N420" s="1">
         <f t="shared" si="28"/>
-        <v>-7.7734374999996317E-2</v>
+        <v>-7.5791015625004649E-2</v>
       </c>
     </row>
     <row r="421" spans="4:14" x14ac:dyDescent="0.2">
@@ -10786,7 +10891,7 @@
       </c>
       <c r="N421" s="1">
         <f t="shared" si="28"/>
-        <v>-7.695312499999632E-2</v>
+        <v>-7.5029296875004647E-2</v>
       </c>
     </row>
     <row r="422" spans="4:14" x14ac:dyDescent="0.2">
@@ -10810,7 +10915,7 @@
       </c>
       <c r="N422" s="1">
         <f t="shared" si="28"/>
-        <v>-7.6171874999996322E-2</v>
+        <v>-7.4267578125004646E-2</v>
       </c>
     </row>
     <row r="423" spans="4:14" x14ac:dyDescent="0.2">
@@ -10834,7 +10939,7 @@
       </c>
       <c r="N423" s="1">
         <f t="shared" si="28"/>
-        <v>-7.5390624999996325E-2</v>
+        <v>-7.3505859375004645E-2</v>
       </c>
     </row>
     <row r="424" spans="4:14" x14ac:dyDescent="0.2">
@@ -10858,7 +10963,7 @@
       </c>
       <c r="N424" s="1">
         <f t="shared" si="28"/>
-        <v>-7.4609374999996328E-2</v>
+        <v>-7.2744140625004644E-2</v>
       </c>
     </row>
     <row r="425" spans="4:14" x14ac:dyDescent="0.2">
@@ -10882,7 +10987,7 @@
       </c>
       <c r="N425" s="1">
         <f t="shared" si="28"/>
-        <v>-7.3828124999996331E-2</v>
+        <v>-7.1982421875004643E-2</v>
       </c>
     </row>
     <row r="426" spans="4:14" x14ac:dyDescent="0.2">
@@ -10906,7 +11011,7 @@
       </c>
       <c r="N426" s="1">
         <f t="shared" si="28"/>
-        <v>-7.3046874999996333E-2</v>
+        <v>-7.1220703125004642E-2</v>
       </c>
     </row>
     <row r="427" spans="4:14" x14ac:dyDescent="0.2">
@@ -10930,7 +11035,7 @@
       </c>
       <c r="N427" s="1">
         <f t="shared" si="28"/>
-        <v>-7.2265624999996336E-2</v>
+        <v>-7.0458984375004641E-2</v>
       </c>
     </row>
     <row r="428" spans="4:14" x14ac:dyDescent="0.2">
@@ -10954,7 +11059,7 @@
       </c>
       <c r="N428" s="1">
         <f t="shared" si="28"/>
-        <v>-7.1484374999996339E-2</v>
+        <v>-6.969726562500464E-2</v>
       </c>
     </row>
     <row r="429" spans="4:14" x14ac:dyDescent="0.2">
@@ -10978,7 +11083,7 @@
       </c>
       <c r="N429" s="1">
         <f t="shared" si="28"/>
-        <v>-7.0703124999996342E-2</v>
+        <v>-6.8935546875004639E-2</v>
       </c>
     </row>
     <row r="430" spans="4:14" x14ac:dyDescent="0.2">
@@ -11002,7 +11107,7 @@
       </c>
       <c r="N430" s="1">
         <f t="shared" si="28"/>
-        <v>-6.9921874999996345E-2</v>
+        <v>-6.8173828125004637E-2</v>
       </c>
     </row>
     <row r="431" spans="4:14" x14ac:dyDescent="0.2">
@@ -11026,7 +11131,7 @@
       </c>
       <c r="N431" s="1">
         <f t="shared" si="28"/>
-        <v>-6.9140624999996347E-2</v>
+        <v>-6.7412109375004636E-2</v>
       </c>
     </row>
     <row r="432" spans="4:14" x14ac:dyDescent="0.2">
@@ -11050,7 +11155,7 @@
       </c>
       <c r="N432" s="1">
         <f t="shared" si="28"/>
-        <v>-6.835937499999635E-2</v>
+        <v>-6.6650390625004635E-2</v>
       </c>
     </row>
     <row r="433" spans="4:14" x14ac:dyDescent="0.2">
@@ -11074,7 +11179,7 @@
       </c>
       <c r="N433" s="1">
         <f t="shared" si="28"/>
-        <v>-6.7578124999996353E-2</v>
+        <v>-6.5888671875004634E-2</v>
       </c>
     </row>
     <row r="434" spans="4:14" x14ac:dyDescent="0.2">
@@ -11098,7 +11203,7 @@
       </c>
       <c r="N434" s="1">
         <f t="shared" si="28"/>
-        <v>-6.6796874999996356E-2</v>
+        <v>-6.5126953125004633E-2</v>
       </c>
     </row>
     <row r="435" spans="4:14" x14ac:dyDescent="0.2">
@@ -11122,7 +11227,7 @@
       </c>
       <c r="N435" s="1">
         <f t="shared" si="28"/>
-        <v>-6.6015624999996358E-2</v>
+        <v>-6.4365234375004632E-2</v>
       </c>
     </row>
     <row r="436" spans="4:14" x14ac:dyDescent="0.2">
@@ -11146,7 +11251,7 @@
       </c>
       <c r="N436" s="1">
         <f t="shared" si="28"/>
-        <v>-6.5234374999996361E-2</v>
+        <v>-6.3603515625004631E-2</v>
       </c>
     </row>
     <row r="437" spans="4:14" x14ac:dyDescent="0.2">
@@ -11170,7 +11275,7 @@
       </c>
       <c r="N437" s="1">
         <f t="shared" si="28"/>
-        <v>-6.4453124999996364E-2</v>
+        <v>-6.284179687500463E-2</v>
       </c>
     </row>
     <row r="438" spans="4:14" x14ac:dyDescent="0.2">
@@ -11194,7 +11299,7 @@
       </c>
       <c r="N438" s="1">
         <f t="shared" si="28"/>
-        <v>-6.3671874999996367E-2</v>
+        <v>-6.2080078125004629E-2</v>
       </c>
     </row>
     <row r="439" spans="4:14" x14ac:dyDescent="0.2">
@@ -11218,7 +11323,7 @@
       </c>
       <c r="N439" s="1">
         <f t="shared" si="28"/>
-        <v>-6.289062499999637E-2</v>
+        <v>-6.1318359375004627E-2</v>
       </c>
     </row>
     <row r="440" spans="4:14" x14ac:dyDescent="0.2">
@@ -11242,7 +11347,7 @@
       </c>
       <c r="N440" s="1">
         <f t="shared" si="28"/>
-        <v>-6.2109374999996372E-2</v>
+        <v>-6.0556640625004626E-2</v>
       </c>
     </row>
     <row r="441" spans="4:14" x14ac:dyDescent="0.2">
@@ -11266,7 +11371,7 @@
       </c>
       <c r="N441" s="1">
         <f t="shared" si="28"/>
-        <v>-6.1328124999996375E-2</v>
+        <v>-5.9794921875004625E-2</v>
       </c>
     </row>
     <row r="442" spans="4:14" x14ac:dyDescent="0.2">
@@ -11290,7 +11395,7 @@
       </c>
       <c r="N442" s="1">
         <f t="shared" si="28"/>
-        <v>-6.0546874999996378E-2</v>
+        <v>-5.9033203125004624E-2</v>
       </c>
     </row>
     <row r="443" spans="4:14" x14ac:dyDescent="0.2">
@@ -11314,7 +11419,7 @@
       </c>
       <c r="N443" s="1">
         <f t="shared" si="28"/>
-        <v>-5.9765624999996381E-2</v>
+        <v>-5.8271484375004623E-2</v>
       </c>
     </row>
     <row r="444" spans="4:14" x14ac:dyDescent="0.2">
@@ -11338,7 +11443,7 @@
       </c>
       <c r="N444" s="1">
         <f t="shared" si="28"/>
-        <v>-5.8984374999996383E-2</v>
+        <v>-5.7509765625004622E-2</v>
       </c>
     </row>
     <row r="445" spans="4:14" x14ac:dyDescent="0.2">
@@ -11362,7 +11467,7 @@
       </c>
       <c r="N445" s="1">
         <f t="shared" si="28"/>
-        <v>-5.8203124999996386E-2</v>
+        <v>-5.6748046875004621E-2</v>
       </c>
     </row>
     <row r="446" spans="4:14" x14ac:dyDescent="0.2">
@@ -11386,7 +11491,7 @@
       </c>
       <c r="N446" s="1">
         <f t="shared" si="28"/>
-        <v>-5.7421874999996389E-2</v>
+        <v>-5.598632812500462E-2</v>
       </c>
     </row>
     <row r="447" spans="4:14" x14ac:dyDescent="0.2">
@@ -11410,7 +11515,7 @@
       </c>
       <c r="N447" s="1">
         <f t="shared" si="28"/>
-        <v>-5.6640624999996392E-2</v>
+        <v>-5.5224609375004619E-2</v>
       </c>
     </row>
     <row r="448" spans="4:14" x14ac:dyDescent="0.2">
@@ -11434,7 +11539,7 @@
       </c>
       <c r="N448" s="1">
         <f t="shared" si="28"/>
-        <v>-5.5859374999996395E-2</v>
+        <v>-5.4462890625004617E-2</v>
       </c>
     </row>
     <row r="449" spans="4:14" x14ac:dyDescent="0.2">
@@ -11458,7 +11563,7 @@
       </c>
       <c r="N449" s="1">
         <f t="shared" si="28"/>
-        <v>-5.5078124999996397E-2</v>
+        <v>-5.3701171875004616E-2</v>
       </c>
     </row>
     <row r="450" spans="4:14" x14ac:dyDescent="0.2">
@@ -11482,7 +11587,7 @@
       </c>
       <c r="N450" s="1">
         <f t="shared" si="28"/>
-        <v>-5.42968749999964E-2</v>
+        <v>-5.2939453125004615E-2</v>
       </c>
     </row>
     <row r="451" spans="4:14" x14ac:dyDescent="0.2">
@@ -11506,7 +11611,7 @@
       </c>
       <c r="N451" s="1">
         <f t="shared" si="28"/>
-        <v>-5.3515624999996403E-2</v>
+        <v>-5.2177734375004614E-2</v>
       </c>
     </row>
     <row r="452" spans="4:14" x14ac:dyDescent="0.2">
@@ -11530,7 +11635,7 @@
       </c>
       <c r="N452" s="1">
         <f t="shared" si="28"/>
-        <v>-5.2734374999996406E-2</v>
+        <v>-5.1416015625004613E-2</v>
       </c>
     </row>
     <row r="453" spans="4:14" x14ac:dyDescent="0.2">
@@ -11554,7 +11659,7 @@
       </c>
       <c r="N453" s="1">
         <f t="shared" si="28"/>
-        <v>-5.1953124999996408E-2</v>
+        <v>-5.0654296875004612E-2</v>
       </c>
     </row>
     <row r="454" spans="4:14" x14ac:dyDescent="0.2">
@@ -11578,7 +11683,7 @@
       </c>
       <c r="N454" s="1">
         <f t="shared" si="28"/>
-        <v>-5.1171874999996411E-2</v>
+        <v>-4.9892578125004611E-2</v>
       </c>
     </row>
     <row r="455" spans="4:14" x14ac:dyDescent="0.2">
@@ -11602,7 +11707,7 @@
       </c>
       <c r="N455" s="1">
         <f t="shared" si="28"/>
-        <v>-5.0390624999996414E-2</v>
+        <v>-4.913085937500461E-2</v>
       </c>
     </row>
     <row r="456" spans="4:14" x14ac:dyDescent="0.2">
@@ -11626,7 +11731,7 @@
       </c>
       <c r="N456" s="1">
         <f t="shared" si="28"/>
-        <v>-4.9609374999996417E-2</v>
+        <v>-4.8369140625004609E-2</v>
       </c>
     </row>
     <row r="457" spans="4:14" x14ac:dyDescent="0.2">
@@ -11650,7 +11755,7 @@
       </c>
       <c r="N457" s="1">
         <f t="shared" si="28"/>
-        <v>-4.882812499999642E-2</v>
+        <v>-4.7607421875004607E-2</v>
       </c>
     </row>
     <row r="458" spans="4:14" x14ac:dyDescent="0.2">
@@ -11674,7 +11779,7 @@
       </c>
       <c r="N458" s="1">
         <f t="shared" ref="N458:N521" si="32">N457+$J$11</f>
-        <v>-4.8046874999996422E-2</v>
+        <v>-4.6845703125004606E-2</v>
       </c>
     </row>
     <row r="459" spans="4:14" x14ac:dyDescent="0.2">
@@ -11698,7 +11803,7 @@
       </c>
       <c r="N459" s="1">
         <f t="shared" si="32"/>
-        <v>-4.7265624999996425E-2</v>
+        <v>-4.6083984375004605E-2</v>
       </c>
     </row>
     <row r="460" spans="4:14" x14ac:dyDescent="0.2">
@@ -11722,7 +11827,7 @@
       </c>
       <c r="N460" s="1">
         <f t="shared" si="32"/>
-        <v>-4.6484374999996428E-2</v>
+        <v>-4.5322265625004604E-2</v>
       </c>
     </row>
     <row r="461" spans="4:14" x14ac:dyDescent="0.2">
@@ -11746,7 +11851,7 @@
       </c>
       <c r="N461" s="1">
         <f t="shared" si="32"/>
-        <v>-4.5703124999996431E-2</v>
+        <v>-4.4560546875004603E-2</v>
       </c>
     </row>
     <row r="462" spans="4:14" x14ac:dyDescent="0.2">
@@ -11770,7 +11875,7 @@
       </c>
       <c r="N462" s="1">
         <f t="shared" si="32"/>
-        <v>-4.4921874999996433E-2</v>
+        <v>-4.3798828125004602E-2</v>
       </c>
     </row>
     <row r="463" spans="4:14" x14ac:dyDescent="0.2">
@@ -11794,7 +11899,7 @@
       </c>
       <c r="N463" s="1">
         <f t="shared" si="32"/>
-        <v>-4.4140624999996436E-2</v>
+        <v>-4.3037109375004601E-2</v>
       </c>
     </row>
     <row r="464" spans="4:14" x14ac:dyDescent="0.2">
@@ -11818,7 +11923,7 @@
       </c>
       <c r="N464" s="1">
         <f t="shared" si="32"/>
-        <v>-4.3359374999996439E-2</v>
+        <v>-4.22753906250046E-2</v>
       </c>
     </row>
     <row r="465" spans="4:14" x14ac:dyDescent="0.2">
@@ -11842,7 +11947,7 @@
       </c>
       <c r="N465" s="1">
         <f t="shared" si="32"/>
-        <v>-4.2578124999996442E-2</v>
+        <v>-4.1513671875004599E-2</v>
       </c>
     </row>
     <row r="466" spans="4:14" x14ac:dyDescent="0.2">
@@ -11866,7 +11971,7 @@
       </c>
       <c r="N466" s="1">
         <f t="shared" si="32"/>
-        <v>-4.1796874999996445E-2</v>
+        <v>-4.0751953125004597E-2</v>
       </c>
     </row>
     <row r="467" spans="4:14" x14ac:dyDescent="0.2">
@@ -11890,7 +11995,7 @@
       </c>
       <c r="N467" s="1">
         <f t="shared" si="32"/>
-        <v>-4.1015624999996447E-2</v>
+        <v>-3.9990234375004596E-2</v>
       </c>
     </row>
     <row r="468" spans="4:14" x14ac:dyDescent="0.2">
@@ -11914,7 +12019,7 @@
       </c>
       <c r="N468" s="1">
         <f t="shared" si="32"/>
-        <v>-4.023437499999645E-2</v>
+        <v>-3.9228515625004595E-2</v>
       </c>
     </row>
     <row r="469" spans="4:14" x14ac:dyDescent="0.2">
@@ -11938,7 +12043,7 @@
       </c>
       <c r="N469" s="1">
         <f t="shared" si="32"/>
-        <v>-3.9453124999996453E-2</v>
+        <v>-3.8466796875004594E-2</v>
       </c>
     </row>
     <row r="470" spans="4:14" x14ac:dyDescent="0.2">
@@ -11962,7 +12067,7 @@
       </c>
       <c r="N470" s="1">
         <f t="shared" si="32"/>
-        <v>-3.8671874999996456E-2</v>
+        <v>-3.7705078125004593E-2</v>
       </c>
     </row>
     <row r="471" spans="4:14" x14ac:dyDescent="0.2">
@@ -11986,7 +12091,7 @@
       </c>
       <c r="N471" s="1">
         <f t="shared" si="32"/>
-        <v>-3.7890624999996458E-2</v>
+        <v>-3.6943359375004592E-2</v>
       </c>
     </row>
     <row r="472" spans="4:14" x14ac:dyDescent="0.2">
@@ -12010,7 +12115,7 @@
       </c>
       <c r="N472" s="1">
         <f t="shared" si="32"/>
-        <v>-3.7109374999996461E-2</v>
+        <v>-3.6181640625004591E-2</v>
       </c>
     </row>
     <row r="473" spans="4:14" x14ac:dyDescent="0.2">
@@ -12034,7 +12139,7 @@
       </c>
       <c r="N473" s="1">
         <f t="shared" si="32"/>
-        <v>-3.6328124999996464E-2</v>
+        <v>-3.541992187500459E-2</v>
       </c>
     </row>
     <row r="474" spans="4:14" x14ac:dyDescent="0.2">
@@ -12058,7 +12163,7 @@
       </c>
       <c r="N474" s="1">
         <f t="shared" si="32"/>
-        <v>-3.5546874999996467E-2</v>
+        <v>-3.4658203125004589E-2</v>
       </c>
     </row>
     <row r="475" spans="4:14" x14ac:dyDescent="0.2">
@@ -12082,7 +12187,7 @@
       </c>
       <c r="N475" s="1">
         <f t="shared" si="32"/>
-        <v>-3.4765624999996469E-2</v>
+        <v>-3.3896484375004587E-2</v>
       </c>
     </row>
     <row r="476" spans="4:14" x14ac:dyDescent="0.2">
@@ -12106,7 +12211,7 @@
       </c>
       <c r="N476" s="1">
         <f t="shared" si="32"/>
-        <v>-3.3984374999996472E-2</v>
+        <v>-3.3134765625004586E-2</v>
       </c>
     </row>
     <row r="477" spans="4:14" x14ac:dyDescent="0.2">
@@ -12130,7 +12235,7 @@
       </c>
       <c r="N477" s="1">
         <f t="shared" si="32"/>
-        <v>-3.3203124999996475E-2</v>
+        <v>-3.2373046875004585E-2</v>
       </c>
     </row>
     <row r="478" spans="4:14" x14ac:dyDescent="0.2">
@@ -12154,7 +12259,7 @@
       </c>
       <c r="N478" s="1">
         <f t="shared" si="32"/>
-        <v>-3.2421874999996478E-2</v>
+        <v>-3.1611328125004584E-2</v>
       </c>
     </row>
     <row r="479" spans="4:14" x14ac:dyDescent="0.2">
@@ -12178,7 +12283,7 @@
       </c>
       <c r="N479" s="1">
         <f t="shared" si="32"/>
-        <v>-3.1640624999996481E-2</v>
+        <v>-3.0849609375004583E-2</v>
       </c>
     </row>
     <row r="480" spans="4:14" x14ac:dyDescent="0.2">
@@ -12202,7 +12307,7 @@
       </c>
       <c r="N480" s="1">
         <f t="shared" si="32"/>
-        <v>-3.085937499999648E-2</v>
+        <v>-3.0087890625004582E-2</v>
       </c>
     </row>
     <row r="481" spans="4:14" x14ac:dyDescent="0.2">
@@ -12226,7 +12331,7 @@
       </c>
       <c r="N481" s="1">
         <f t="shared" si="32"/>
-        <v>-3.0078124999996479E-2</v>
+        <v>-2.9326171875004581E-2</v>
       </c>
     </row>
     <row r="482" spans="4:14" x14ac:dyDescent="0.2">
@@ -12250,7 +12355,7 @@
       </c>
       <c r="N482" s="1">
         <f t="shared" si="32"/>
-        <v>-2.9296874999996479E-2</v>
+        <v>-2.856445312500458E-2</v>
       </c>
     </row>
     <row r="483" spans="4:14" x14ac:dyDescent="0.2">
@@ -12274,7 +12379,7 @@
       </c>
       <c r="N483" s="1">
         <f t="shared" si="32"/>
-        <v>-2.8515624999996478E-2</v>
+        <v>-2.7802734375004579E-2</v>
       </c>
     </row>
     <row r="484" spans="4:14" x14ac:dyDescent="0.2">
@@ -12298,7 +12403,7 @@
       </c>
       <c r="N484" s="1">
         <f t="shared" si="32"/>
-        <v>-2.7734374999996477E-2</v>
+        <v>-2.7041015625004577E-2</v>
       </c>
     </row>
     <row r="485" spans="4:14" x14ac:dyDescent="0.2">
@@ -12322,7 +12427,7 @@
       </c>
       <c r="N485" s="1">
         <f t="shared" si="32"/>
-        <v>-2.6953124999996476E-2</v>
+        <v>-2.6279296875004576E-2</v>
       </c>
     </row>
     <row r="486" spans="4:14" x14ac:dyDescent="0.2">
@@ -12346,7 +12451,7 @@
       </c>
       <c r="N486" s="1">
         <f t="shared" si="32"/>
-        <v>-2.6171874999996476E-2</v>
+        <v>-2.5517578125004575E-2</v>
       </c>
     </row>
     <row r="487" spans="4:14" x14ac:dyDescent="0.2">
@@ -12370,7 +12475,7 @@
       </c>
       <c r="N487" s="1">
         <f t="shared" si="32"/>
-        <v>-2.5390624999996475E-2</v>
+        <v>-2.4755859375004574E-2</v>
       </c>
     </row>
     <row r="488" spans="4:14" x14ac:dyDescent="0.2">
@@ -12394,7 +12499,7 @@
       </c>
       <c r="N488" s="1">
         <f t="shared" si="32"/>
-        <v>-2.4609374999996474E-2</v>
+        <v>-2.3994140625004573E-2</v>
       </c>
     </row>
     <row r="489" spans="4:14" x14ac:dyDescent="0.2">
@@ -12418,7 +12523,7 @@
       </c>
       <c r="N489" s="1">
         <f t="shared" si="32"/>
-        <v>-2.3828124999996474E-2</v>
+        <v>-2.3232421875004572E-2</v>
       </c>
     </row>
     <row r="490" spans="4:14" x14ac:dyDescent="0.2">
@@ -12442,7 +12547,7 @@
       </c>
       <c r="N490" s="1">
         <f t="shared" si="32"/>
-        <v>-2.3046874999996473E-2</v>
+        <v>-2.2470703125004571E-2</v>
       </c>
     </row>
     <row r="491" spans="4:14" x14ac:dyDescent="0.2">
@@ -12466,7 +12571,7 @@
       </c>
       <c r="N491" s="1">
         <f t="shared" si="32"/>
-        <v>-2.2265624999996472E-2</v>
+        <v>-2.170898437500457E-2</v>
       </c>
     </row>
     <row r="492" spans="4:14" x14ac:dyDescent="0.2">
@@ -12490,7 +12595,7 @@
       </c>
       <c r="N492" s="1">
         <f t="shared" si="32"/>
-        <v>-2.1484374999996472E-2</v>
+        <v>-2.0947265625004569E-2</v>
       </c>
     </row>
     <row r="493" spans="4:14" x14ac:dyDescent="0.2">
@@ -12514,7 +12619,7 @@
       </c>
       <c r="N493" s="1">
         <f t="shared" si="32"/>
-        <v>-2.0703124999996471E-2</v>
+        <v>-2.0185546875004567E-2</v>
       </c>
     </row>
     <row r="494" spans="4:14" x14ac:dyDescent="0.2">
@@ -12538,7 +12643,7 @@
       </c>
       <c r="N494" s="1">
         <f t="shared" si="32"/>
-        <v>-1.992187499999647E-2</v>
+        <v>-1.9423828125004566E-2</v>
       </c>
     </row>
     <row r="495" spans="4:14" x14ac:dyDescent="0.2">
@@ -12562,7 +12667,7 @@
       </c>
       <c r="N495" s="1">
         <f t="shared" si="32"/>
-        <v>-1.9140624999996469E-2</v>
+        <v>-1.8662109375004565E-2</v>
       </c>
     </row>
     <row r="496" spans="4:14" x14ac:dyDescent="0.2">
@@ -12586,7 +12691,7 @@
       </c>
       <c r="N496" s="1">
         <f t="shared" si="32"/>
-        <v>-1.8359374999996469E-2</v>
+        <v>-1.7900390625004564E-2</v>
       </c>
     </row>
     <row r="497" spans="4:14" x14ac:dyDescent="0.2">
@@ -12610,7 +12715,7 @@
       </c>
       <c r="N497" s="1">
         <f t="shared" si="32"/>
-        <v>-1.7578124999996468E-2</v>
+        <v>-1.7138671875004563E-2</v>
       </c>
     </row>
     <row r="498" spans="4:14" x14ac:dyDescent="0.2">
@@ -12634,7 +12739,7 @@
       </c>
       <c r="N498" s="1">
         <f t="shared" si="32"/>
-        <v>-1.6796874999996467E-2</v>
+        <v>-1.6376953125004562E-2</v>
       </c>
     </row>
     <row r="499" spans="4:14" x14ac:dyDescent="0.2">
@@ -12658,7 +12763,7 @@
       </c>
       <c r="N499" s="1">
         <f t="shared" si="32"/>
-        <v>-1.6015624999996467E-2</v>
+        <v>-1.5615234375004563E-2</v>
       </c>
     </row>
     <row r="500" spans="4:14" x14ac:dyDescent="0.2">
@@ -12682,7 +12787,7 @@
       </c>
       <c r="N500" s="1">
         <f t="shared" si="32"/>
-        <v>-1.5234374999996466E-2</v>
+        <v>-1.4853515625004563E-2</v>
       </c>
     </row>
     <row r="501" spans="4:14" x14ac:dyDescent="0.2">
@@ -12706,7 +12811,7 @@
       </c>
       <c r="N501" s="1">
         <f t="shared" si="32"/>
-        <v>-1.4453124999996465E-2</v>
+        <v>-1.4091796875004564E-2</v>
       </c>
     </row>
     <row r="502" spans="4:14" x14ac:dyDescent="0.2">
@@ -12730,7 +12835,7 @@
       </c>
       <c r="N502" s="1">
         <f t="shared" si="32"/>
-        <v>-1.3671874999996465E-2</v>
+        <v>-1.3330078125004564E-2</v>
       </c>
     </row>
     <row r="503" spans="4:14" x14ac:dyDescent="0.2">
@@ -12754,7 +12859,7 @@
       </c>
       <c r="N503" s="1">
         <f t="shared" si="32"/>
-        <v>-1.2890624999996464E-2</v>
+        <v>-1.2568359375004565E-2</v>
       </c>
     </row>
     <row r="504" spans="4:14" x14ac:dyDescent="0.2">
@@ -12778,7 +12883,7 @@
       </c>
       <c r="N504" s="1">
         <f t="shared" si="32"/>
-        <v>-1.2109374999996463E-2</v>
+        <v>-1.1806640625004566E-2</v>
       </c>
     </row>
     <row r="505" spans="4:14" x14ac:dyDescent="0.2">
@@ -12802,7 +12907,7 @@
       </c>
       <c r="N505" s="1">
         <f t="shared" si="32"/>
-        <v>-1.1328124999996463E-2</v>
+        <v>-1.1044921875004566E-2</v>
       </c>
     </row>
     <row r="506" spans="4:14" x14ac:dyDescent="0.2">
@@ -12826,7 +12931,7 @@
       </c>
       <c r="N506" s="1">
         <f t="shared" si="32"/>
-        <v>-1.0546874999996462E-2</v>
+        <v>-1.0283203125004567E-2</v>
       </c>
     </row>
     <row r="507" spans="4:14" x14ac:dyDescent="0.2">
@@ -12850,7 +12955,7 @@
       </c>
       <c r="N507" s="1">
         <f t="shared" si="32"/>
-        <v>-9.7656249999964612E-3</v>
+        <v>-9.5214843750045675E-3</v>
       </c>
     </row>
     <row r="508" spans="4:14" x14ac:dyDescent="0.2">
@@ -12874,7 +12979,7 @@
       </c>
       <c r="N508" s="1">
         <f t="shared" si="32"/>
-        <v>-8.9843749999964605E-3</v>
+        <v>-8.7597656250045682E-3</v>
       </c>
     </row>
     <row r="509" spans="4:14" x14ac:dyDescent="0.2">
@@ -12898,7 +13003,7 @@
       </c>
       <c r="N509" s="1">
         <f t="shared" si="32"/>
-        <v>-8.2031249999964598E-3</v>
+        <v>-7.9980468750045688E-3</v>
       </c>
     </row>
     <row r="510" spans="4:14" x14ac:dyDescent="0.2">
@@ -12922,7 +13027,7 @@
       </c>
       <c r="N510" s="1">
         <f t="shared" si="32"/>
-        <v>-7.4218749999964599E-3</v>
+        <v>-7.2363281250045685E-3</v>
       </c>
     </row>
     <row r="511" spans="4:14" x14ac:dyDescent="0.2">
@@ -12946,7 +13051,7 @@
       </c>
       <c r="N511" s="1">
         <f t="shared" si="32"/>
-        <v>-6.6406249999964601E-3</v>
+        <v>-6.4746093750045683E-3</v>
       </c>
     </row>
     <row r="512" spans="4:14" x14ac:dyDescent="0.2">
@@ -12970,7 +13075,7 @@
       </c>
       <c r="N512" s="1">
         <f t="shared" si="32"/>
-        <v>-5.8593749999964603E-3</v>
+        <v>-5.712890625004568E-3</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.2">
@@ -12994,7 +13099,7 @@
       </c>
       <c r="N513" s="1">
         <f t="shared" si="32"/>
-        <v>-5.0781249999964605E-3</v>
+        <v>-4.9511718750045678E-3</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.2">
@@ -13018,7 +13123,7 @@
       </c>
       <c r="N514" s="1">
         <f t="shared" si="32"/>
-        <v>-4.2968749999964606E-3</v>
+        <v>-4.1894531250045676E-3</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.2">
@@ -13042,7 +13147,7 @@
       </c>
       <c r="N515" s="1">
         <f t="shared" si="32"/>
-        <v>-3.5156249999964608E-3</v>
+        <v>-3.4277343750045673E-3</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.2">
@@ -13066,7 +13171,7 @@
       </c>
       <c r="N516" s="1">
         <f t="shared" si="32"/>
-        <v>-2.734374999996461E-3</v>
+        <v>-2.6660156250045671E-3</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.2">
@@ -13090,7 +13195,7 @@
       </c>
       <c r="N517" s="1">
         <f t="shared" si="32"/>
-        <v>-1.9531249999964609E-3</v>
+        <v>-1.904296875004567E-3</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
@@ -13114,7 +13219,7 @@
       </c>
       <c r="N518" s="1">
         <f t="shared" si="32"/>
-        <v>-1.1718749999964609E-3</v>
+        <v>-1.142578125004567E-3</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.2">
@@ -13138,7 +13243,7 @@
       </c>
       <c r="N519" s="1">
         <f t="shared" si="32"/>
-        <v>-3.9062499999646086E-4</v>
+        <v>-3.80859375004567E-4</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.2">
@@ -13165,7 +13270,7 @@
       </c>
       <c r="N520" s="1">
         <f t="shared" si="32"/>
-        <v>3.9062500000353918E-4</v>
+        <v>3.8085937499543303E-4</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.2">
@@ -13189,7 +13294,7 @@
       </c>
       <c r="N521" s="1">
         <f t="shared" si="32"/>
-        <v>1.1718750000035392E-3</v>
+        <v>1.1425781249954331E-3</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.2">
@@ -13213,7 +13318,7 @@
       </c>
       <c r="N522" s="1">
         <f t="shared" ref="N522:N585" si="36">N521+$J$11</f>
-        <v>1.9531250000035393E-3</v>
+        <v>1.9042968749954331E-3</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.2">
@@ -13237,7 +13342,7 @@
       </c>
       <c r="N523" s="1">
         <f t="shared" si="36"/>
-        <v>2.7343750000035395E-3</v>
+        <v>2.6660156249954329E-3</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.2">
@@ -13261,7 +13366,7 @@
       </c>
       <c r="N524" s="1">
         <f t="shared" si="36"/>
-        <v>3.5156250000035394E-3</v>
+        <v>3.4277343749954331E-3</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.2">
@@ -13285,7 +13390,7 @@
       </c>
       <c r="N525" s="1">
         <f t="shared" si="36"/>
-        <v>4.2968750000035392E-3</v>
+        <v>4.1894531249954334E-3</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.2">
@@ -13309,7 +13414,7 @@
       </c>
       <c r="N526" s="1">
         <f t="shared" si="36"/>
-        <v>5.078125000003539E-3</v>
+        <v>4.9511718749954336E-3</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.2">
@@ -13333,7 +13438,7 @@
       </c>
       <c r="N527" s="1">
         <f t="shared" si="36"/>
-        <v>5.8593750000035388E-3</v>
+        <v>5.7128906249954339E-3</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.2">
@@ -13357,7 +13462,7 @@
       </c>
       <c r="N528" s="1">
         <f t="shared" si="36"/>
-        <v>6.6406250000035387E-3</v>
+        <v>6.4746093749954341E-3</v>
       </c>
     </row>
     <row r="529" spans="4:14" x14ac:dyDescent="0.2">
@@ -13381,7 +13486,7 @@
       </c>
       <c r="N529" s="1">
         <f t="shared" si="36"/>
-        <v>7.4218750000035385E-3</v>
+        <v>7.2363281249954343E-3</v>
       </c>
     </row>
     <row r="530" spans="4:14" x14ac:dyDescent="0.2">
@@ -13405,7 +13510,7 @@
       </c>
       <c r="N530" s="1">
         <f t="shared" si="36"/>
-        <v>8.2031250000035392E-3</v>
+        <v>7.9980468749954337E-3</v>
       </c>
     </row>
     <row r="531" spans="4:14" x14ac:dyDescent="0.2">
@@ -13429,7 +13534,7 @@
       </c>
       <c r="N531" s="1">
         <f t="shared" si="36"/>
-        <v>8.9843750000035399E-3</v>
+        <v>8.7597656249954331E-3</v>
       </c>
     </row>
     <row r="532" spans="4:14" x14ac:dyDescent="0.2">
@@ -13453,7 +13558,7 @@
       </c>
       <c r="N532" s="1">
         <f t="shared" si="36"/>
-        <v>9.7656250000035406E-3</v>
+        <v>9.5214843749954325E-3</v>
       </c>
     </row>
     <row r="533" spans="4:14" x14ac:dyDescent="0.2">
@@ -13477,7 +13582,7 @@
       </c>
       <c r="N533" s="1">
         <f t="shared" si="36"/>
-        <v>1.0546875000003541E-2</v>
+        <v>1.0283203124995432E-2</v>
       </c>
     </row>
     <row r="534" spans="4:14" x14ac:dyDescent="0.2">
@@ -13501,7 +13606,7 @@
       </c>
       <c r="N534" s="1">
         <f t="shared" si="36"/>
-        <v>1.1328125000003542E-2</v>
+        <v>1.1044921874995431E-2</v>
       </c>
     </row>
     <row r="535" spans="4:14" x14ac:dyDescent="0.2">
@@ -13525,7 +13630,7 @@
       </c>
       <c r="N535" s="1">
         <f t="shared" si="36"/>
-        <v>1.2109375000003543E-2</v>
+        <v>1.1806640624995431E-2</v>
       </c>
     </row>
     <row r="536" spans="4:14" x14ac:dyDescent="0.2">
@@ -13549,7 +13654,7 @@
       </c>
       <c r="N536" s="1">
         <f t="shared" si="36"/>
-        <v>1.2890625000003543E-2</v>
+        <v>1.256835937499543E-2</v>
       </c>
     </row>
     <row r="537" spans="4:14" x14ac:dyDescent="0.2">
@@ -13573,7 +13678,7 @@
       </c>
       <c r="N537" s="1">
         <f t="shared" si="36"/>
-        <v>1.3671875000003544E-2</v>
+        <v>1.3330078124995429E-2</v>
       </c>
     </row>
     <row r="538" spans="4:14" x14ac:dyDescent="0.2">
@@ -13597,7 +13702,7 @@
       </c>
       <c r="N538" s="1">
         <f t="shared" si="36"/>
-        <v>1.4453125000003545E-2</v>
+        <v>1.4091796874995429E-2</v>
       </c>
     </row>
     <row r="539" spans="4:14" x14ac:dyDescent="0.2">
@@ -13621,7 +13726,7 @@
       </c>
       <c r="N539" s="1">
         <f t="shared" si="36"/>
-        <v>1.5234375000003545E-2</v>
+        <v>1.4853515624995428E-2</v>
       </c>
     </row>
     <row r="540" spans="4:14" x14ac:dyDescent="0.2">
@@ -13645,7 +13750,7 @@
       </c>
       <c r="N540" s="1">
         <f t="shared" si="36"/>
-        <v>1.6015625000003544E-2</v>
+        <v>1.5615234374995427E-2</v>
       </c>
     </row>
     <row r="541" spans="4:14" x14ac:dyDescent="0.2">
@@ -13669,7 +13774,7 @@
       </c>
       <c r="N541" s="1">
         <f t="shared" si="36"/>
-        <v>1.6796875000003545E-2</v>
+        <v>1.6376953124995427E-2</v>
       </c>
     </row>
     <row r="542" spans="4:14" x14ac:dyDescent="0.2">
@@ -13693,7 +13798,7 @@
       </c>
       <c r="N542" s="1">
         <f t="shared" si="36"/>
-        <v>1.7578125000003546E-2</v>
+        <v>1.7138671874995428E-2</v>
       </c>
     </row>
     <row r="543" spans="4:14" x14ac:dyDescent="0.2">
@@ -13717,7 +13822,7 @@
       </c>
       <c r="N543" s="1">
         <f t="shared" si="36"/>
-        <v>1.8359375000003546E-2</v>
+        <v>1.7900390624995429E-2</v>
       </c>
     </row>
     <row r="544" spans="4:14" x14ac:dyDescent="0.2">
@@ -13741,7 +13846,7 @@
       </c>
       <c r="N544" s="1">
         <f t="shared" si="36"/>
-        <v>1.9140625000003547E-2</v>
+        <v>1.866210937499543E-2</v>
       </c>
     </row>
     <row r="545" spans="4:14" x14ac:dyDescent="0.2">
@@ -13765,7 +13870,7 @@
       </c>
       <c r="N545" s="1">
         <f t="shared" si="36"/>
-        <v>1.9921875000003548E-2</v>
+        <v>1.9423828124995431E-2</v>
       </c>
     </row>
     <row r="546" spans="4:14" x14ac:dyDescent="0.2">
@@ -13789,7 +13894,7 @@
       </c>
       <c r="N546" s="1">
         <f t="shared" si="36"/>
-        <v>2.0703125000003549E-2</v>
+        <v>2.0185546874995432E-2</v>
       </c>
     </row>
     <row r="547" spans="4:14" x14ac:dyDescent="0.2">
@@ -13813,7 +13918,7 @@
       </c>
       <c r="N547" s="1">
         <f t="shared" si="36"/>
-        <v>2.1484375000003549E-2</v>
+        <v>2.0947265624995434E-2</v>
       </c>
     </row>
     <row r="548" spans="4:14" x14ac:dyDescent="0.2">
@@ -13837,7 +13942,7 @@
       </c>
       <c r="N548" s="1">
         <f t="shared" si="36"/>
-        <v>2.226562500000355E-2</v>
+        <v>2.1708984374995435E-2</v>
       </c>
     </row>
     <row r="549" spans="4:14" x14ac:dyDescent="0.2">
@@ -13861,7 +13966,7 @@
       </c>
       <c r="N549" s="1">
         <f t="shared" si="36"/>
-        <v>2.3046875000003551E-2</v>
+        <v>2.2470703124995436E-2</v>
       </c>
     </row>
     <row r="550" spans="4:14" x14ac:dyDescent="0.2">
@@ -13885,7 +13990,7 @@
       </c>
       <c r="N550" s="1">
         <f t="shared" si="36"/>
-        <v>2.3828125000003551E-2</v>
+        <v>2.3232421874995437E-2</v>
       </c>
     </row>
     <row r="551" spans="4:14" x14ac:dyDescent="0.2">
@@ -13909,7 +14014,7 @@
       </c>
       <c r="N551" s="1">
         <f t="shared" si="36"/>
-        <v>2.4609375000003552E-2</v>
+        <v>2.3994140624995438E-2</v>
       </c>
     </row>
     <row r="552" spans="4:14" x14ac:dyDescent="0.2">
@@ -13933,7 +14038,7 @@
       </c>
       <c r="N552" s="1">
         <f t="shared" si="36"/>
-        <v>2.5390625000003553E-2</v>
+        <v>2.4755859374995439E-2</v>
       </c>
     </row>
     <row r="553" spans="4:14" x14ac:dyDescent="0.2">
@@ -13957,7 +14062,7 @@
       </c>
       <c r="N553" s="1">
         <f t="shared" si="36"/>
-        <v>2.6171875000003553E-2</v>
+        <v>2.551757812499544E-2</v>
       </c>
     </row>
     <row r="554" spans="4:14" x14ac:dyDescent="0.2">
@@ -13981,7 +14086,7 @@
       </c>
       <c r="N554" s="1">
         <f t="shared" si="36"/>
-        <v>2.6953125000003554E-2</v>
+        <v>2.6279296874995441E-2</v>
       </c>
     </row>
     <row r="555" spans="4:14" x14ac:dyDescent="0.2">
@@ -14005,7 +14110,7 @@
       </c>
       <c r="N555" s="1">
         <f t="shared" si="36"/>
-        <v>2.7734375000003555E-2</v>
+        <v>2.7041015624995442E-2</v>
       </c>
     </row>
     <row r="556" spans="4:14" x14ac:dyDescent="0.2">
@@ -14029,7 +14134,7 @@
       </c>
       <c r="N556" s="1">
         <f t="shared" si="36"/>
-        <v>2.8515625000003555E-2</v>
+        <v>2.7802734374995444E-2</v>
       </c>
     </row>
     <row r="557" spans="4:14" x14ac:dyDescent="0.2">
@@ -14053,7 +14158,7 @@
       </c>
       <c r="N557" s="1">
         <f t="shared" si="36"/>
-        <v>2.9296875000003556E-2</v>
+        <v>2.8564453124995445E-2</v>
       </c>
     </row>
     <row r="558" spans="4:14" x14ac:dyDescent="0.2">
@@ -14077,7 +14182,7 @@
       </c>
       <c r="N558" s="1">
         <f t="shared" si="36"/>
-        <v>3.0078125000003557E-2</v>
+        <v>2.9326171874995446E-2</v>
       </c>
     </row>
     <row r="559" spans="4:14" x14ac:dyDescent="0.2">
@@ -14101,7 +14206,7 @@
       </c>
       <c r="N559" s="1">
         <f t="shared" si="36"/>
-        <v>3.0859375000003558E-2</v>
+        <v>3.0087890624995447E-2</v>
       </c>
     </row>
     <row r="560" spans="4:14" x14ac:dyDescent="0.2">
@@ -14125,7 +14230,7 @@
       </c>
       <c r="N560" s="1">
         <f t="shared" si="36"/>
-        <v>3.1640625000003558E-2</v>
+        <v>3.0849609374995448E-2</v>
       </c>
     </row>
     <row r="561" spans="4:14" x14ac:dyDescent="0.2">
@@ -14149,7 +14254,7 @@
       </c>
       <c r="N561" s="1">
         <f t="shared" si="36"/>
-        <v>3.2421875000003555E-2</v>
+        <v>3.1611328124995446E-2</v>
       </c>
     </row>
     <row r="562" spans="4:14" x14ac:dyDescent="0.2">
@@ -14173,7 +14278,7 @@
       </c>
       <c r="N562" s="1">
         <f t="shared" si="36"/>
-        <v>3.3203125000003553E-2</v>
+        <v>3.2373046874995447E-2</v>
       </c>
     </row>
     <row r="563" spans="4:14" x14ac:dyDescent="0.2">
@@ -14197,7 +14302,7 @@
       </c>
       <c r="N563" s="1">
         <f t="shared" si="36"/>
-        <v>3.398437500000355E-2</v>
+        <v>3.3134765624995448E-2</v>
       </c>
     </row>
     <row r="564" spans="4:14" x14ac:dyDescent="0.2">
@@ -14221,7 +14326,7 @@
       </c>
       <c r="N564" s="1">
         <f t="shared" si="36"/>
-        <v>3.4765625000003547E-2</v>
+        <v>3.3896484374995449E-2</v>
       </c>
     </row>
     <row r="565" spans="4:14" x14ac:dyDescent="0.2">
@@ -14245,7 +14350,7 @@
       </c>
       <c r="N565" s="1">
         <f t="shared" si="36"/>
-        <v>3.5546875000003544E-2</v>
+        <v>3.465820312499545E-2</v>
       </c>
     </row>
     <row r="566" spans="4:14" x14ac:dyDescent="0.2">
@@ -14269,7 +14374,7 @@
       </c>
       <c r="N566" s="1">
         <f t="shared" si="36"/>
-        <v>3.6328125000003542E-2</v>
+        <v>3.5419921874995451E-2</v>
       </c>
     </row>
     <row r="567" spans="4:14" x14ac:dyDescent="0.2">
@@ -14293,7 +14398,7 @@
       </c>
       <c r="N567" s="1">
         <f t="shared" si="36"/>
-        <v>3.7109375000003539E-2</v>
+        <v>3.6181640624995452E-2</v>
       </c>
     </row>
     <row r="568" spans="4:14" x14ac:dyDescent="0.2">
@@ -14317,7 +14422,7 @@
       </c>
       <c r="N568" s="1">
         <f t="shared" si="36"/>
-        <v>3.7890625000003536E-2</v>
+        <v>3.6943359374995453E-2</v>
       </c>
     </row>
     <row r="569" spans="4:14" x14ac:dyDescent="0.2">
@@ -14341,7 +14446,7 @@
       </c>
       <c r="N569" s="1">
         <f t="shared" si="36"/>
-        <v>3.8671875000003533E-2</v>
+        <v>3.7705078124995454E-2</v>
       </c>
     </row>
     <row r="570" spans="4:14" x14ac:dyDescent="0.2">
@@ -14365,7 +14470,7 @@
       </c>
       <c r="N570" s="1">
         <f t="shared" si="36"/>
-        <v>3.9453125000003531E-2</v>
+        <v>3.8466796874995456E-2</v>
       </c>
     </row>
     <row r="571" spans="4:14" x14ac:dyDescent="0.2">
@@ -14389,7 +14494,7 @@
       </c>
       <c r="N571" s="1">
         <f t="shared" si="36"/>
-        <v>4.0234375000003528E-2</v>
+        <v>3.9228515624995457E-2</v>
       </c>
     </row>
     <row r="572" spans="4:14" x14ac:dyDescent="0.2">
@@ -14413,7 +14518,7 @@
       </c>
       <c r="N572" s="1">
         <f t="shared" si="36"/>
-        <v>4.1015625000003525E-2</v>
+        <v>3.9990234374995458E-2</v>
       </c>
     </row>
     <row r="573" spans="4:14" x14ac:dyDescent="0.2">
@@ -14437,7 +14542,7 @@
       </c>
       <c r="N573" s="1">
         <f t="shared" si="36"/>
-        <v>4.1796875000003522E-2</v>
+        <v>4.0751953124995459E-2</v>
       </c>
     </row>
     <row r="574" spans="4:14" x14ac:dyDescent="0.2">
@@ -14461,7 +14566,7 @@
       </c>
       <c r="N574" s="1">
         <f t="shared" si="36"/>
-        <v>4.2578125000003519E-2</v>
+        <v>4.151367187499546E-2</v>
       </c>
     </row>
     <row r="575" spans="4:14" x14ac:dyDescent="0.2">
@@ -14485,7 +14590,7 @@
       </c>
       <c r="N575" s="1">
         <f t="shared" si="36"/>
-        <v>4.3359375000003517E-2</v>
+        <v>4.2275390624995461E-2</v>
       </c>
     </row>
     <row r="576" spans="4:14" x14ac:dyDescent="0.2">
@@ -14509,7 +14614,7 @@
       </c>
       <c r="N576" s="1">
         <f t="shared" si="36"/>
-        <v>4.4140625000003514E-2</v>
+        <v>4.3037109374995462E-2</v>
       </c>
     </row>
     <row r="577" spans="4:14" x14ac:dyDescent="0.2">
@@ -14533,7 +14638,7 @@
       </c>
       <c r="N577" s="1">
         <f t="shared" si="36"/>
-        <v>4.4921875000003511E-2</v>
+        <v>4.3798828124995463E-2</v>
       </c>
     </row>
     <row r="578" spans="4:14" x14ac:dyDescent="0.2">
@@ -14557,7 +14662,7 @@
       </c>
       <c r="N578" s="1">
         <f t="shared" si="36"/>
-        <v>4.5703125000003508E-2</v>
+        <v>4.4560546874995464E-2</v>
       </c>
     </row>
     <row r="579" spans="4:14" x14ac:dyDescent="0.2">
@@ -14581,7 +14686,7 @@
       </c>
       <c r="N579" s="1">
         <f t="shared" si="36"/>
-        <v>4.6484375000003506E-2</v>
+        <v>4.5322265624995466E-2</v>
       </c>
     </row>
     <row r="580" spans="4:14" x14ac:dyDescent="0.2">
@@ -14605,7 +14710,7 @@
       </c>
       <c r="N580" s="1">
         <f t="shared" si="36"/>
-        <v>4.7265625000003503E-2</v>
+        <v>4.6083984374995467E-2</v>
       </c>
     </row>
     <row r="581" spans="4:14" x14ac:dyDescent="0.2">
@@ -14629,7 +14734,7 @@
       </c>
       <c r="N581" s="1">
         <f t="shared" si="36"/>
-        <v>4.80468750000035E-2</v>
+        <v>4.6845703124995468E-2</v>
       </c>
     </row>
     <row r="582" spans="4:14" x14ac:dyDescent="0.2">
@@ -14653,7 +14758,7 @@
       </c>
       <c r="N582" s="1">
         <f t="shared" si="36"/>
-        <v>4.8828125000003497E-2</v>
+        <v>4.7607421874995469E-2</v>
       </c>
     </row>
     <row r="583" spans="4:14" x14ac:dyDescent="0.2">
@@ -14677,7 +14782,7 @@
       </c>
       <c r="N583" s="1">
         <f t="shared" si="36"/>
-        <v>4.9609375000003494E-2</v>
+        <v>4.836914062499547E-2</v>
       </c>
     </row>
     <row r="584" spans="4:14" x14ac:dyDescent="0.2">
@@ -14701,7 +14806,7 @@
       </c>
       <c r="N584" s="1">
         <f t="shared" si="36"/>
-        <v>5.0390625000003492E-2</v>
+        <v>4.9130859374995471E-2</v>
       </c>
     </row>
     <row r="585" spans="4:14" x14ac:dyDescent="0.2">
@@ -14725,7 +14830,7 @@
       </c>
       <c r="N585" s="1">
         <f t="shared" si="36"/>
-        <v>5.1171875000003489E-2</v>
+        <v>4.9892578124995472E-2</v>
       </c>
     </row>
     <row r="586" spans="4:14" x14ac:dyDescent="0.2">
@@ -14749,7 +14854,7 @@
       </c>
       <c r="N586" s="1">
         <f t="shared" ref="N586:N649" si="40">N585+$J$11</f>
-        <v>5.1953125000003486E-2</v>
+        <v>5.0654296874995473E-2</v>
       </c>
     </row>
     <row r="587" spans="4:14" x14ac:dyDescent="0.2">
@@ -14773,7 +14878,7 @@
       </c>
       <c r="N587" s="1">
         <f t="shared" si="40"/>
-        <v>5.2734375000003483E-2</v>
+        <v>5.1416015624995474E-2</v>
       </c>
     </row>
     <row r="588" spans="4:14" x14ac:dyDescent="0.2">
@@ -14797,7 +14902,7 @@
       </c>
       <c r="N588" s="1">
         <f t="shared" si="40"/>
-        <v>5.3515625000003481E-2</v>
+        <v>5.2177734374995476E-2</v>
       </c>
     </row>
     <row r="589" spans="4:14" x14ac:dyDescent="0.2">
@@ -14821,7 +14926,7 @@
       </c>
       <c r="N589" s="1">
         <f t="shared" si="40"/>
-        <v>5.4296875000003478E-2</v>
+        <v>5.2939453124995477E-2</v>
       </c>
     </row>
     <row r="590" spans="4:14" x14ac:dyDescent="0.2">
@@ -14845,7 +14950,7 @@
       </c>
       <c r="N590" s="1">
         <f t="shared" si="40"/>
-        <v>5.5078125000003475E-2</v>
+        <v>5.3701171874995478E-2</v>
       </c>
     </row>
     <row r="591" spans="4:14" x14ac:dyDescent="0.2">
@@ -14869,7 +14974,7 @@
       </c>
       <c r="N591" s="1">
         <f t="shared" si="40"/>
-        <v>5.5859375000003472E-2</v>
+        <v>5.4462890624995479E-2</v>
       </c>
     </row>
     <row r="592" spans="4:14" x14ac:dyDescent="0.2">
@@ -14893,7 +14998,7 @@
       </c>
       <c r="N592" s="1">
         <f t="shared" si="40"/>
-        <v>5.6640625000003469E-2</v>
+        <v>5.522460937499548E-2</v>
       </c>
     </row>
     <row r="593" spans="4:14" x14ac:dyDescent="0.2">
@@ -14917,7 +15022,7 @@
       </c>
       <c r="N593" s="1">
         <f t="shared" si="40"/>
-        <v>5.7421875000003467E-2</v>
+        <v>5.5986328124995481E-2</v>
       </c>
     </row>
     <row r="594" spans="4:14" x14ac:dyDescent="0.2">
@@ -14941,7 +15046,7 @@
       </c>
       <c r="N594" s="1">
         <f t="shared" si="40"/>
-        <v>5.8203125000003464E-2</v>
+        <v>5.6748046874995482E-2</v>
       </c>
     </row>
     <row r="595" spans="4:14" x14ac:dyDescent="0.2">
@@ -14965,7 +15070,7 @@
       </c>
       <c r="N595" s="1">
         <f t="shared" si="40"/>
-        <v>5.8984375000003461E-2</v>
+        <v>5.7509765624995483E-2</v>
       </c>
     </row>
     <row r="596" spans="4:14" x14ac:dyDescent="0.2">
@@ -14989,7 +15094,7 @@
       </c>
       <c r="N596" s="1">
         <f t="shared" si="40"/>
-        <v>5.9765625000003458E-2</v>
+        <v>5.8271484374995484E-2</v>
       </c>
     </row>
     <row r="597" spans="4:14" x14ac:dyDescent="0.2">
@@ -15013,7 +15118,7 @@
       </c>
       <c r="N597" s="1">
         <f t="shared" si="40"/>
-        <v>6.0546875000003456E-2</v>
+        <v>5.9033203124995486E-2</v>
       </c>
     </row>
     <row r="598" spans="4:14" x14ac:dyDescent="0.2">
@@ -15037,7 +15142,7 @@
       </c>
       <c r="N598" s="1">
         <f t="shared" si="40"/>
-        <v>6.1328125000003453E-2</v>
+        <v>5.9794921874995487E-2</v>
       </c>
     </row>
     <row r="599" spans="4:14" x14ac:dyDescent="0.2">
@@ -15061,7 +15166,7 @@
       </c>
       <c r="N599" s="1">
         <f t="shared" si="40"/>
-        <v>6.210937500000345E-2</v>
+        <v>6.0556640624995488E-2</v>
       </c>
     </row>
     <row r="600" spans="4:14" x14ac:dyDescent="0.2">
@@ -15085,7 +15190,7 @@
       </c>
       <c r="N600" s="1">
         <f t="shared" si="40"/>
-        <v>6.2890625000003447E-2</v>
+        <v>6.1318359374995489E-2</v>
       </c>
     </row>
     <row r="601" spans="4:14" x14ac:dyDescent="0.2">
@@ -15109,7 +15214,7 @@
       </c>
       <c r="N601" s="1">
         <f t="shared" si="40"/>
-        <v>6.3671875000003444E-2</v>
+        <v>6.208007812499549E-2</v>
       </c>
     </row>
     <row r="602" spans="4:14" x14ac:dyDescent="0.2">
@@ -15133,7 +15238,7 @@
       </c>
       <c r="N602" s="1">
         <f t="shared" si="40"/>
-        <v>6.4453125000003442E-2</v>
+        <v>6.2841796874995484E-2</v>
       </c>
     </row>
     <row r="603" spans="4:14" x14ac:dyDescent="0.2">
@@ -15157,7 +15262,7 @@
       </c>
       <c r="N603" s="1">
         <f t="shared" si="40"/>
-        <v>6.5234375000003439E-2</v>
+        <v>6.3603515624995485E-2</v>
       </c>
     </row>
     <row r="604" spans="4:14" x14ac:dyDescent="0.2">
@@ -15181,7 +15286,7 @@
       </c>
       <c r="N604" s="1">
         <f t="shared" si="40"/>
-        <v>6.6015625000003436E-2</v>
+        <v>6.4365234374995486E-2</v>
       </c>
     </row>
     <row r="605" spans="4:14" x14ac:dyDescent="0.2">
@@ -15205,7 +15310,7 @@
       </c>
       <c r="N605" s="1">
         <f t="shared" si="40"/>
-        <v>6.6796875000003433E-2</v>
+        <v>6.5126953124995487E-2</v>
       </c>
     </row>
     <row r="606" spans="4:14" x14ac:dyDescent="0.2">
@@ -15229,7 +15334,7 @@
       </c>
       <c r="N606" s="1">
         <f t="shared" si="40"/>
-        <v>6.7578125000003431E-2</v>
+        <v>6.5888671874995489E-2</v>
       </c>
     </row>
     <row r="607" spans="4:14" x14ac:dyDescent="0.2">
@@ -15253,7 +15358,7 @@
       </c>
       <c r="N607" s="1">
         <f t="shared" si="40"/>
-        <v>6.8359375000003428E-2</v>
+        <v>6.665039062499549E-2</v>
       </c>
     </row>
     <row r="608" spans="4:14" x14ac:dyDescent="0.2">
@@ -15277,7 +15382,7 @@
       </c>
       <c r="N608" s="1">
         <f t="shared" si="40"/>
-        <v>6.9140625000003425E-2</v>
+        <v>6.7412109374995491E-2</v>
       </c>
     </row>
     <row r="609" spans="4:14" x14ac:dyDescent="0.2">
@@ -15301,7 +15406,7 @@
       </c>
       <c r="N609" s="1">
         <f t="shared" si="40"/>
-        <v>6.9921875000003422E-2</v>
+        <v>6.8173828124995492E-2</v>
       </c>
     </row>
     <row r="610" spans="4:14" x14ac:dyDescent="0.2">
@@ -15325,7 +15430,7 @@
       </c>
       <c r="N610" s="1">
         <f t="shared" si="40"/>
-        <v>7.0703125000003419E-2</v>
+        <v>6.8935546874995493E-2</v>
       </c>
     </row>
     <row r="611" spans="4:14" x14ac:dyDescent="0.2">
@@ -15349,7 +15454,7 @@
       </c>
       <c r="N611" s="1">
         <f t="shared" si="40"/>
-        <v>7.1484375000003417E-2</v>
+        <v>6.9697265624995494E-2</v>
       </c>
     </row>
     <row r="612" spans="4:14" x14ac:dyDescent="0.2">
@@ -15373,7 +15478,7 @@
       </c>
       <c r="N612" s="1">
         <f t="shared" si="40"/>
-        <v>7.2265625000003414E-2</v>
+        <v>7.0458984374995495E-2</v>
       </c>
     </row>
     <row r="613" spans="4:14" x14ac:dyDescent="0.2">
@@ -15397,7 +15502,7 @@
       </c>
       <c r="N613" s="1">
         <f t="shared" si="40"/>
-        <v>7.3046875000003411E-2</v>
+        <v>7.1220703124995496E-2</v>
       </c>
     </row>
     <row r="614" spans="4:14" x14ac:dyDescent="0.2">
@@ -15421,7 +15526,7 @@
       </c>
       <c r="N614" s="1">
         <f t="shared" si="40"/>
-        <v>7.3828125000003408E-2</v>
+        <v>7.1982421874995497E-2</v>
       </c>
     </row>
     <row r="615" spans="4:14" x14ac:dyDescent="0.2">
@@ -15445,7 +15550,7 @@
       </c>
       <c r="N615" s="1">
         <f t="shared" si="40"/>
-        <v>7.4609375000003406E-2</v>
+        <v>7.2744140624995499E-2</v>
       </c>
     </row>
     <row r="616" spans="4:14" x14ac:dyDescent="0.2">
@@ -15469,7 +15574,7 @@
       </c>
       <c r="N616" s="1">
         <f t="shared" si="40"/>
-        <v>7.5390625000003403E-2</v>
+        <v>7.35058593749955E-2</v>
       </c>
     </row>
     <row r="617" spans="4:14" x14ac:dyDescent="0.2">
@@ -15493,7 +15598,7 @@
       </c>
       <c r="N617" s="1">
         <f t="shared" si="40"/>
-        <v>7.61718750000034E-2</v>
+        <v>7.4267578124995501E-2</v>
       </c>
     </row>
     <row r="618" spans="4:14" x14ac:dyDescent="0.2">
@@ -15517,7 +15622,7 @@
       </c>
       <c r="N618" s="1">
         <f t="shared" si="40"/>
-        <v>7.6953125000003397E-2</v>
+        <v>7.5029296874995502E-2</v>
       </c>
     </row>
     <row r="619" spans="4:14" x14ac:dyDescent="0.2">
@@ -15541,7 +15646,7 @@
       </c>
       <c r="N619" s="1">
         <f t="shared" si="40"/>
-        <v>7.7734375000003395E-2</v>
+        <v>7.5791015624995503E-2</v>
       </c>
     </row>
     <row r="620" spans="4:14" x14ac:dyDescent="0.2">
@@ -15565,7 +15670,7 @@
       </c>
       <c r="N620" s="1">
         <f t="shared" si="40"/>
-        <v>7.8515625000003392E-2</v>
+        <v>7.6552734374995504E-2</v>
       </c>
     </row>
     <row r="621" spans="4:14" x14ac:dyDescent="0.2">
@@ -15589,7 +15694,7 @@
       </c>
       <c r="N621" s="1">
         <f t="shared" si="40"/>
-        <v>7.9296875000003389E-2</v>
+        <v>7.7314453124995505E-2</v>
       </c>
     </row>
     <row r="622" spans="4:14" x14ac:dyDescent="0.2">
@@ -15613,7 +15718,7 @@
       </c>
       <c r="N622" s="1">
         <f t="shared" si="40"/>
-        <v>8.0078125000003386E-2</v>
+        <v>7.8076171874995506E-2</v>
       </c>
     </row>
     <row r="623" spans="4:14" x14ac:dyDescent="0.2">
@@ -15637,7 +15742,7 @@
       </c>
       <c r="N623" s="1">
         <f t="shared" si="40"/>
-        <v>8.0859375000003383E-2</v>
+        <v>7.8837890624995507E-2</v>
       </c>
     </row>
     <row r="624" spans="4:14" x14ac:dyDescent="0.2">
@@ -15661,7 +15766,7 @@
       </c>
       <c r="N624" s="1">
         <f t="shared" si="40"/>
-        <v>8.1640625000003381E-2</v>
+        <v>7.9599609374995509E-2</v>
       </c>
     </row>
     <row r="625" spans="4:14" x14ac:dyDescent="0.2">
@@ -15685,7 +15790,7 @@
       </c>
       <c r="N625" s="1">
         <f t="shared" si="40"/>
-        <v>8.2421875000003378E-2</v>
+        <v>8.036132812499551E-2</v>
       </c>
     </row>
     <row r="626" spans="4:14" x14ac:dyDescent="0.2">
@@ -15709,7 +15814,7 @@
       </c>
       <c r="N626" s="1">
         <f t="shared" si="40"/>
-        <v>8.3203125000003375E-2</v>
+        <v>8.1123046874995511E-2</v>
       </c>
     </row>
     <row r="627" spans="4:14" x14ac:dyDescent="0.2">
@@ -15733,7 +15838,7 @@
       </c>
       <c r="N627" s="1">
         <f t="shared" si="40"/>
-        <v>8.3984375000003372E-2</v>
+        <v>8.1884765624995512E-2</v>
       </c>
     </row>
     <row r="628" spans="4:14" x14ac:dyDescent="0.2">
@@ -15757,7 +15862,7 @@
       </c>
       <c r="N628" s="1">
         <f t="shared" si="40"/>
-        <v>8.476562500000337E-2</v>
+        <v>8.2646484374995513E-2</v>
       </c>
     </row>
     <row r="629" spans="4:14" x14ac:dyDescent="0.2">
@@ -15781,7 +15886,7 @@
       </c>
       <c r="N629" s="1">
         <f t="shared" si="40"/>
-        <v>8.5546875000003367E-2</v>
+        <v>8.3408203124995514E-2</v>
       </c>
     </row>
     <row r="630" spans="4:14" x14ac:dyDescent="0.2">
@@ -15805,7 +15910,7 @@
       </c>
       <c r="N630" s="1">
         <f t="shared" si="40"/>
-        <v>8.6328125000003364E-2</v>
+        <v>8.4169921874995515E-2</v>
       </c>
     </row>
     <row r="631" spans="4:14" x14ac:dyDescent="0.2">
@@ -15829,7 +15934,7 @@
       </c>
       <c r="N631" s="1">
         <f t="shared" si="40"/>
-        <v>8.7109375000003361E-2</v>
+        <v>8.4931640624995516E-2</v>
       </c>
     </row>
     <row r="632" spans="4:14" x14ac:dyDescent="0.2">
@@ -15853,7 +15958,7 @@
       </c>
       <c r="N632" s="1">
         <f t="shared" si="40"/>
-        <v>8.7890625000003358E-2</v>
+        <v>8.5693359374995517E-2</v>
       </c>
     </row>
     <row r="633" spans="4:14" x14ac:dyDescent="0.2">
@@ -15877,7 +15982,7 @@
       </c>
       <c r="N633" s="1">
         <f t="shared" si="40"/>
-        <v>8.8671875000003356E-2</v>
+        <v>8.6455078124995519E-2</v>
       </c>
     </row>
     <row r="634" spans="4:14" x14ac:dyDescent="0.2">
@@ -15901,7 +16006,7 @@
       </c>
       <c r="N634" s="1">
         <f t="shared" si="40"/>
-        <v>8.9453125000003353E-2</v>
+        <v>8.721679687499552E-2</v>
       </c>
     </row>
     <row r="635" spans="4:14" x14ac:dyDescent="0.2">
@@ -15925,7 +16030,7 @@
       </c>
       <c r="N635" s="1">
         <f t="shared" si="40"/>
-        <v>9.023437500000335E-2</v>
+        <v>8.7978515624995521E-2</v>
       </c>
     </row>
     <row r="636" spans="4:14" x14ac:dyDescent="0.2">
@@ -15949,7 +16054,7 @@
       </c>
       <c r="N636" s="1">
         <f t="shared" si="40"/>
-        <v>9.1015625000003347E-2</v>
+        <v>8.8740234374995522E-2</v>
       </c>
     </row>
     <row r="637" spans="4:14" x14ac:dyDescent="0.2">
@@ -15973,7 +16078,7 @@
       </c>
       <c r="N637" s="1">
         <f t="shared" si="40"/>
-        <v>9.1796875000003345E-2</v>
+        <v>8.9501953124995523E-2</v>
       </c>
     </row>
     <row r="638" spans="4:14" x14ac:dyDescent="0.2">
@@ -15997,7 +16102,7 @@
       </c>
       <c r="N638" s="1">
         <f t="shared" si="40"/>
-        <v>9.2578125000003342E-2</v>
+        <v>9.0263671874995524E-2</v>
       </c>
     </row>
     <row r="639" spans="4:14" x14ac:dyDescent="0.2">
@@ -16021,7 +16126,7 @@
       </c>
       <c r="N639" s="1">
         <f t="shared" si="40"/>
-        <v>9.3359375000003339E-2</v>
+        <v>9.1025390624995525E-2</v>
       </c>
     </row>
     <row r="640" spans="4:14" x14ac:dyDescent="0.2">
@@ -16045,7 +16150,7 @@
       </c>
       <c r="N640" s="1">
         <f t="shared" si="40"/>
-        <v>9.4140625000003336E-2</v>
+        <v>9.1787109374995526E-2</v>
       </c>
     </row>
     <row r="641" spans="4:14" x14ac:dyDescent="0.2">
@@ -16069,7 +16174,7 @@
       </c>
       <c r="N641" s="1">
         <f t="shared" si="40"/>
-        <v>9.4921875000003333E-2</v>
+        <v>9.2548828124995527E-2</v>
       </c>
     </row>
     <row r="642" spans="4:14" x14ac:dyDescent="0.2">
@@ -16093,7 +16198,7 @@
       </c>
       <c r="N642" s="1">
         <f t="shared" si="40"/>
-        <v>9.5703125000003331E-2</v>
+        <v>9.3310546874995529E-2</v>
       </c>
     </row>
     <row r="643" spans="4:14" x14ac:dyDescent="0.2">
@@ -16117,7 +16222,7 @@
       </c>
       <c r="N643" s="1">
         <f t="shared" si="40"/>
-        <v>9.6484375000003328E-2</v>
+        <v>9.407226562499553E-2</v>
       </c>
     </row>
     <row r="644" spans="4:14" x14ac:dyDescent="0.2">
@@ -16141,7 +16246,7 @@
       </c>
       <c r="N644" s="1">
         <f t="shared" si="40"/>
-        <v>9.7265625000003325E-2</v>
+        <v>9.4833984374995531E-2</v>
       </c>
     </row>
     <row r="645" spans="4:14" x14ac:dyDescent="0.2">
@@ -16165,7 +16270,7 @@
       </c>
       <c r="N645" s="1">
         <f t="shared" si="40"/>
-        <v>9.8046875000003322E-2</v>
+        <v>9.5595703124995532E-2</v>
       </c>
     </row>
     <row r="646" spans="4:14" x14ac:dyDescent="0.2">
@@ -16189,7 +16294,7 @@
       </c>
       <c r="N646" s="1">
         <f t="shared" si="40"/>
-        <v>9.882812500000332E-2</v>
+        <v>9.6357421874995533E-2</v>
       </c>
     </row>
     <row r="647" spans="4:14" x14ac:dyDescent="0.2">
@@ -16213,7 +16318,7 @@
       </c>
       <c r="N647" s="1">
         <f t="shared" si="40"/>
-        <v>9.9609375000003317E-2</v>
+        <v>9.7119140624995534E-2</v>
       </c>
     </row>
     <row r="648" spans="4:14" x14ac:dyDescent="0.2">
@@ -16237,7 +16342,7 @@
       </c>
       <c r="N648" s="1">
         <f t="shared" si="40"/>
-        <v>0.10039062500000331</v>
+        <v>9.7880859374995535E-2</v>
       </c>
     </row>
     <row r="649" spans="4:14" x14ac:dyDescent="0.2">
@@ -16261,7 +16366,7 @@
       </c>
       <c r="N649" s="1">
         <f t="shared" si="40"/>
-        <v>0.10117187500000331</v>
+        <v>9.8642578124995536E-2</v>
       </c>
     </row>
     <row r="650" spans="4:14" x14ac:dyDescent="0.2">
@@ -16285,7 +16390,7 @@
       </c>
       <c r="N650" s="1">
         <f t="shared" ref="N650:N713" si="44">N649+$J$11</f>
-        <v>0.10195312500000331</v>
+        <v>9.9404296874995537E-2</v>
       </c>
     </row>
     <row r="651" spans="4:14" x14ac:dyDescent="0.2">
@@ -16309,7 +16414,7 @@
       </c>
       <c r="N651" s="1">
         <f t="shared" si="44"/>
-        <v>0.10273437500000331</v>
+        <v>0.10016601562499554</v>
       </c>
     </row>
     <row r="652" spans="4:14" x14ac:dyDescent="0.2">
@@ -16333,7 +16438,7 @@
       </c>
       <c r="N652" s="1">
         <f t="shared" si="44"/>
-        <v>0.1035156250000033</v>
+        <v>0.10092773437499554</v>
       </c>
     </row>
     <row r="653" spans="4:14" x14ac:dyDescent="0.2">
@@ -16357,7 +16462,7 @@
       </c>
       <c r="N653" s="1">
         <f t="shared" si="44"/>
-        <v>0.1042968750000033</v>
+        <v>0.10168945312499554</v>
       </c>
     </row>
     <row r="654" spans="4:14" x14ac:dyDescent="0.2">
@@ -16381,7 +16486,7 @@
       </c>
       <c r="N654" s="1">
         <f t="shared" si="44"/>
-        <v>0.1050781250000033</v>
+        <v>0.10245117187499554</v>
       </c>
     </row>
     <row r="655" spans="4:14" x14ac:dyDescent="0.2">
@@ -16405,7 +16510,7 @@
       </c>
       <c r="N655" s="1">
         <f t="shared" si="44"/>
-        <v>0.10585937500000329</v>
+        <v>0.10321289062499554</v>
       </c>
     </row>
     <row r="656" spans="4:14" x14ac:dyDescent="0.2">
@@ -16429,7 +16534,7 @@
       </c>
       <c r="N656" s="1">
         <f t="shared" si="44"/>
-        <v>0.10664062500000329</v>
+        <v>0.10397460937499554</v>
       </c>
     </row>
     <row r="657" spans="4:14" x14ac:dyDescent="0.2">
@@ -16453,7 +16558,7 @@
       </c>
       <c r="N657" s="1">
         <f t="shared" si="44"/>
-        <v>0.10742187500000329</v>
+        <v>0.10473632812499555</v>
       </c>
     </row>
     <row r="658" spans="4:14" x14ac:dyDescent="0.2">
@@ -16477,7 +16582,7 @@
       </c>
       <c r="N658" s="1">
         <f t="shared" si="44"/>
-        <v>0.10820312500000329</v>
+        <v>0.10549804687499555</v>
       </c>
     </row>
     <row r="659" spans="4:14" x14ac:dyDescent="0.2">
@@ -16501,7 +16606,7 @@
       </c>
       <c r="N659" s="1">
         <f t="shared" si="44"/>
-        <v>0.10898437500000328</v>
+        <v>0.10625976562499555</v>
       </c>
     </row>
     <row r="660" spans="4:14" x14ac:dyDescent="0.2">
@@ -16525,7 +16630,7 @@
       </c>
       <c r="N660" s="1">
         <f t="shared" si="44"/>
-        <v>0.10976562500000328</v>
+        <v>0.10702148437499555</v>
       </c>
     </row>
     <row r="661" spans="4:14" x14ac:dyDescent="0.2">
@@ -16549,7 +16654,7 @@
       </c>
       <c r="N661" s="1">
         <f t="shared" si="44"/>
-        <v>0.11054687500000328</v>
+        <v>0.10778320312499555</v>
       </c>
     </row>
     <row r="662" spans="4:14" x14ac:dyDescent="0.2">
@@ -16573,7 +16678,7 @@
       </c>
       <c r="N662" s="1">
         <f t="shared" si="44"/>
-        <v>0.11132812500000328</v>
+        <v>0.10854492187499555</v>
       </c>
     </row>
     <row r="663" spans="4:14" x14ac:dyDescent="0.2">
@@ -16597,7 +16702,7 @@
       </c>
       <c r="N663" s="1">
         <f t="shared" si="44"/>
-        <v>0.11210937500000327</v>
+        <v>0.10930664062499555</v>
       </c>
     </row>
     <row r="664" spans="4:14" x14ac:dyDescent="0.2">
@@ -16621,7 +16726,7 @@
       </c>
       <c r="N664" s="1">
         <f t="shared" si="44"/>
-        <v>0.11289062500000327</v>
+        <v>0.11006835937499555</v>
       </c>
     </row>
     <row r="665" spans="4:14" x14ac:dyDescent="0.2">
@@ -16645,7 +16750,7 @@
       </c>
       <c r="N665" s="1">
         <f t="shared" si="44"/>
-        <v>0.11367187500000327</v>
+        <v>0.11083007812499555</v>
       </c>
     </row>
     <row r="666" spans="4:14" x14ac:dyDescent="0.2">
@@ -16669,7 +16774,7 @@
       </c>
       <c r="N666" s="1">
         <f t="shared" si="44"/>
-        <v>0.11445312500000326</v>
+        <v>0.11159179687499556</v>
       </c>
     </row>
     <row r="667" spans="4:14" x14ac:dyDescent="0.2">
@@ -16693,7 +16798,7 @@
       </c>
       <c r="N667" s="1">
         <f t="shared" si="44"/>
-        <v>0.11523437500000326</v>
+        <v>0.11235351562499556</v>
       </c>
     </row>
     <row r="668" spans="4:14" x14ac:dyDescent="0.2">
@@ -16717,7 +16822,7 @@
       </c>
       <c r="N668" s="1">
         <f t="shared" si="44"/>
-        <v>0.11601562500000326</v>
+        <v>0.11311523437499556</v>
       </c>
     </row>
     <row r="669" spans="4:14" x14ac:dyDescent="0.2">
@@ -16741,7 +16846,7 @@
       </c>
       <c r="N669" s="1">
         <f t="shared" si="44"/>
-        <v>0.11679687500000326</v>
+        <v>0.11387695312499556</v>
       </c>
     </row>
     <row r="670" spans="4:14" x14ac:dyDescent="0.2">
@@ -16765,7 +16870,7 @@
       </c>
       <c r="N670" s="1">
         <f t="shared" si="44"/>
-        <v>0.11757812500000325</v>
+        <v>0.11463867187499556</v>
       </c>
     </row>
     <row r="671" spans="4:14" x14ac:dyDescent="0.2">
@@ -16789,7 +16894,7 @@
       </c>
       <c r="N671" s="1">
         <f t="shared" si="44"/>
-        <v>0.11835937500000325</v>
+        <v>0.11540039062499556</v>
       </c>
     </row>
     <row r="672" spans="4:14" x14ac:dyDescent="0.2">
@@ -16813,7 +16918,7 @@
       </c>
       <c r="N672" s="1">
         <f t="shared" si="44"/>
-        <v>0.11914062500000325</v>
+        <v>0.11616210937499556</v>
       </c>
     </row>
     <row r="673" spans="4:14" x14ac:dyDescent="0.2">
@@ -16837,7 +16942,7 @@
       </c>
       <c r="N673" s="1">
         <f t="shared" si="44"/>
-        <v>0.11992187500000324</v>
+        <v>0.11692382812499556</v>
       </c>
     </row>
     <row r="674" spans="4:14" x14ac:dyDescent="0.2">
@@ -16861,7 +16966,7 @@
       </c>
       <c r="N674" s="1">
         <f t="shared" si="44"/>
-        <v>0.12070312500000324</v>
+        <v>0.11768554687499556</v>
       </c>
     </row>
     <row r="675" spans="4:14" x14ac:dyDescent="0.2">
@@ -16885,7 +16990,7 @@
       </c>
       <c r="N675" s="1">
         <f t="shared" si="44"/>
-        <v>0.12148437500000324</v>
+        <v>0.11844726562499557</v>
       </c>
     </row>
     <row r="676" spans="4:14" x14ac:dyDescent="0.2">
@@ -16909,7 +17014,7 @@
       </c>
       <c r="N676" s="1">
         <f t="shared" si="44"/>
-        <v>0.12226562500000324</v>
+        <v>0.11920898437499557</v>
       </c>
     </row>
     <row r="677" spans="4:14" x14ac:dyDescent="0.2">
@@ -16933,7 +17038,7 @@
       </c>
       <c r="N677" s="1">
         <f t="shared" si="44"/>
-        <v>0.12304687500000323</v>
+        <v>0.11997070312499557</v>
       </c>
     </row>
     <row r="678" spans="4:14" x14ac:dyDescent="0.2">
@@ -16957,7 +17062,7 @@
       </c>
       <c r="N678" s="1">
         <f t="shared" si="44"/>
-        <v>0.12382812500000323</v>
+        <v>0.12073242187499557</v>
       </c>
     </row>
     <row r="679" spans="4:14" x14ac:dyDescent="0.2">
@@ -16981,7 +17086,7 @@
       </c>
       <c r="N679" s="1">
         <f t="shared" si="44"/>
-        <v>0.12460937500000323</v>
+        <v>0.12149414062499557</v>
       </c>
     </row>
     <row r="680" spans="4:14" x14ac:dyDescent="0.2">
@@ -17005,7 +17110,7 @@
       </c>
       <c r="N680" s="1">
         <f t="shared" si="44"/>
-        <v>0.12539062500000323</v>
+        <v>0.12225585937499557</v>
       </c>
     </row>
     <row r="681" spans="4:14" x14ac:dyDescent="0.2">
@@ -17029,7 +17134,7 @@
       </c>
       <c r="N681" s="1">
         <f t="shared" si="44"/>
-        <v>0.12617187500000324</v>
+        <v>0.12301757812499557</v>
       </c>
     </row>
     <row r="682" spans="4:14" x14ac:dyDescent="0.2">
@@ -17053,7 +17158,7 @@
       </c>
       <c r="N682" s="1">
         <f t="shared" si="44"/>
-        <v>0.12695312500000325</v>
+        <v>0.12377929687499557</v>
       </c>
     </row>
     <row r="683" spans="4:14" x14ac:dyDescent="0.2">
@@ -17077,7 +17182,7 @@
       </c>
       <c r="N683" s="1">
         <f t="shared" si="44"/>
-        <v>0.12773437500000326</v>
+        <v>0.12454101562499557</v>
       </c>
     </row>
     <row r="684" spans="4:14" x14ac:dyDescent="0.2">
@@ -17101,7 +17206,7 @@
       </c>
       <c r="N684" s="1">
         <f t="shared" si="44"/>
-        <v>0.12851562500000327</v>
+        <v>0.12530273437499556</v>
       </c>
     </row>
     <row r="685" spans="4:14" x14ac:dyDescent="0.2">
@@ -17125,7 +17230,7 @@
       </c>
       <c r="N685" s="1">
         <f t="shared" si="44"/>
-        <v>0.12929687500000328</v>
+        <v>0.12606445312499556</v>
       </c>
     </row>
     <row r="686" spans="4:14" x14ac:dyDescent="0.2">
@@ -17149,7 +17254,7 @@
       </c>
       <c r="N686" s="1">
         <f t="shared" si="44"/>
-        <v>0.13007812500000329</v>
+        <v>0.12682617187499556</v>
       </c>
     </row>
     <row r="687" spans="4:14" x14ac:dyDescent="0.2">
@@ -17173,7 +17278,7 @@
       </c>
       <c r="N687" s="1">
         <f t="shared" si="44"/>
-        <v>0.1308593750000033</v>
+        <v>0.12758789062499556</v>
       </c>
     </row>
     <row r="688" spans="4:14" x14ac:dyDescent="0.2">
@@ -17197,7 +17302,7 @@
       </c>
       <c r="N688" s="1">
         <f t="shared" si="44"/>
-        <v>0.13164062500000331</v>
+        <v>0.12834960937499557</v>
       </c>
     </row>
     <row r="689" spans="4:14" x14ac:dyDescent="0.2">
@@ -17221,7 +17326,7 @@
       </c>
       <c r="N689" s="1">
         <f t="shared" si="44"/>
-        <v>0.13242187500000333</v>
+        <v>0.12911132812499557</v>
       </c>
     </row>
     <row r="690" spans="4:14" x14ac:dyDescent="0.2">
@@ -17245,7 +17350,7 @@
       </c>
       <c r="N690" s="1">
         <f t="shared" si="44"/>
-        <v>0.13320312500000334</v>
+        <v>0.12987304687499557</v>
       </c>
     </row>
     <row r="691" spans="4:14" x14ac:dyDescent="0.2">
@@ -17269,7 +17374,7 @@
       </c>
       <c r="N691" s="1">
         <f t="shared" si="44"/>
-        <v>0.13398437500000335</v>
+        <v>0.13063476562499557</v>
       </c>
     </row>
     <row r="692" spans="4:14" x14ac:dyDescent="0.2">
@@ -17293,7 +17398,7 @@
       </c>
       <c r="N692" s="1">
         <f t="shared" si="44"/>
-        <v>0.13476562500000336</v>
+        <v>0.13139648437499557</v>
       </c>
     </row>
     <row r="693" spans="4:14" x14ac:dyDescent="0.2">
@@ -17317,7 +17422,7 @@
       </c>
       <c r="N693" s="1">
         <f t="shared" si="44"/>
-        <v>0.13554687500000337</v>
+        <v>0.13215820312499557</v>
       </c>
     </row>
     <row r="694" spans="4:14" x14ac:dyDescent="0.2">
@@ -17341,7 +17446,7 @@
       </c>
       <c r="N694" s="1">
         <f t="shared" si="44"/>
-        <v>0.13632812500000338</v>
+        <v>0.13291992187499557</v>
       </c>
     </row>
     <row r="695" spans="4:14" x14ac:dyDescent="0.2">
@@ -17365,7 +17470,7 @@
       </c>
       <c r="N695" s="1">
         <f t="shared" si="44"/>
-        <v>0.13710937500000339</v>
+        <v>0.13368164062499557</v>
       </c>
     </row>
     <row r="696" spans="4:14" x14ac:dyDescent="0.2">
@@ -17389,7 +17494,7 @@
       </c>
       <c r="N696" s="1">
         <f t="shared" si="44"/>
-        <v>0.1378906250000034</v>
+        <v>0.13444335937499557</v>
       </c>
     </row>
     <row r="697" spans="4:14" x14ac:dyDescent="0.2">
@@ -17413,7 +17518,7 @@
       </c>
       <c r="N697" s="1">
         <f t="shared" si="44"/>
-        <v>0.13867187500000341</v>
+        <v>0.13520507812499558</v>
       </c>
     </row>
     <row r="698" spans="4:14" x14ac:dyDescent="0.2">
@@ -17437,7 +17542,7 @@
       </c>
       <c r="N698" s="1">
         <f t="shared" si="44"/>
-        <v>0.13945312500000343</v>
+        <v>0.13596679687499558</v>
       </c>
     </row>
     <row r="699" spans="4:14" x14ac:dyDescent="0.2">
@@ -17461,7 +17566,7 @@
       </c>
       <c r="N699" s="1">
         <f t="shared" si="44"/>
-        <v>0.14023437500000344</v>
+        <v>0.13672851562499558</v>
       </c>
     </row>
     <row r="700" spans="4:14" x14ac:dyDescent="0.2">
@@ -17485,7 +17590,7 @@
       </c>
       <c r="N700" s="1">
         <f t="shared" si="44"/>
-        <v>0.14101562500000345</v>
+        <v>0.13749023437499558</v>
       </c>
     </row>
     <row r="701" spans="4:14" x14ac:dyDescent="0.2">
@@ -17509,7 +17614,7 @@
       </c>
       <c r="N701" s="1">
         <f t="shared" si="44"/>
-        <v>0.14179687500000346</v>
+        <v>0.13825195312499558</v>
       </c>
     </row>
     <row r="702" spans="4:14" x14ac:dyDescent="0.2">
@@ -17533,7 +17638,7 @@
       </c>
       <c r="N702" s="1">
         <f t="shared" si="44"/>
-        <v>0.14257812500000347</v>
+        <v>0.13901367187499558</v>
       </c>
     </row>
     <row r="703" spans="4:14" x14ac:dyDescent="0.2">
@@ -17557,7 +17662,7 @@
       </c>
       <c r="N703" s="1">
         <f t="shared" si="44"/>
-        <v>0.14335937500000348</v>
+        <v>0.13977539062499558</v>
       </c>
     </row>
     <row r="704" spans="4:14" x14ac:dyDescent="0.2">
@@ -17581,7 +17686,7 @@
       </c>
       <c r="N704" s="1">
         <f t="shared" si="44"/>
-        <v>0.14414062500000349</v>
+        <v>0.14053710937499558</v>
       </c>
     </row>
     <row r="705" spans="4:14" x14ac:dyDescent="0.2">
@@ -17605,7 +17710,7 @@
       </c>
       <c r="N705" s="1">
         <f t="shared" si="44"/>
-        <v>0.1449218750000035</v>
+        <v>0.14129882812499558</v>
       </c>
     </row>
     <row r="706" spans="4:14" x14ac:dyDescent="0.2">
@@ -17629,7 +17734,7 @@
       </c>
       <c r="N706" s="1">
         <f t="shared" si="44"/>
-        <v>0.14570312500000351</v>
+        <v>0.14206054687499559</v>
       </c>
     </row>
     <row r="707" spans="4:14" x14ac:dyDescent="0.2">
@@ -17653,7 +17758,7 @@
       </c>
       <c r="N707" s="1">
         <f t="shared" si="44"/>
-        <v>0.14648437500000352</v>
+        <v>0.14282226562499559</v>
       </c>
     </row>
     <row r="708" spans="4:14" x14ac:dyDescent="0.2">
@@ -17677,7 +17782,7 @@
       </c>
       <c r="N708" s="1">
         <f t="shared" si="44"/>
-        <v>0.14726562500000354</v>
+        <v>0.14358398437499559</v>
       </c>
     </row>
     <row r="709" spans="4:14" x14ac:dyDescent="0.2">
@@ -17701,7 +17806,7 @@
       </c>
       <c r="N709" s="1">
         <f t="shared" si="44"/>
-        <v>0.14804687500000355</v>
+        <v>0.14434570312499559</v>
       </c>
     </row>
     <row r="710" spans="4:14" x14ac:dyDescent="0.2">
@@ -17725,7 +17830,7 @@
       </c>
       <c r="N710" s="1">
         <f t="shared" si="44"/>
-        <v>0.14882812500000356</v>
+        <v>0.14510742187499559</v>
       </c>
     </row>
     <row r="711" spans="4:14" x14ac:dyDescent="0.2">
@@ -17749,7 +17854,7 @@
       </c>
       <c r="N711" s="1">
         <f t="shared" si="44"/>
-        <v>0.14960937500000357</v>
+        <v>0.14586914062499559</v>
       </c>
     </row>
     <row r="712" spans="4:14" x14ac:dyDescent="0.2">
@@ -17773,7 +17878,7 @@
       </c>
       <c r="N712" s="1">
         <f t="shared" si="44"/>
-        <v>0.15039062500000358</v>
+        <v>0.14663085937499559</v>
       </c>
     </row>
     <row r="713" spans="4:14" x14ac:dyDescent="0.2">
@@ -17797,7 +17902,7 @@
       </c>
       <c r="N713" s="1">
         <f t="shared" si="44"/>
-        <v>0.15117187500000359</v>
+        <v>0.14739257812499559</v>
       </c>
     </row>
     <row r="714" spans="4:14" x14ac:dyDescent="0.2">
@@ -17821,7 +17926,7 @@
       </c>
       <c r="N714" s="1">
         <f t="shared" ref="N714:N777" si="48">N713+$J$11</f>
-        <v>0.1519531250000036</v>
+        <v>0.14815429687499559</v>
       </c>
     </row>
     <row r="715" spans="4:14" x14ac:dyDescent="0.2">
@@ -17845,7 +17950,7 @@
       </c>
       <c r="N715" s="1">
         <f t="shared" si="48"/>
-        <v>0.15273437500000361</v>
+        <v>0.1489160156249956</v>
       </c>
     </row>
     <row r="716" spans="4:14" x14ac:dyDescent="0.2">
@@ -17869,7 +17974,7 @@
       </c>
       <c r="N716" s="1">
         <f t="shared" si="48"/>
-        <v>0.15351562500000362</v>
+        <v>0.1496777343749956</v>
       </c>
     </row>
     <row r="717" spans="4:14" x14ac:dyDescent="0.2">
@@ -17893,7 +17998,7 @@
       </c>
       <c r="N717" s="1">
         <f t="shared" si="48"/>
-        <v>0.15429687500000364</v>
+        <v>0.1504394531249956</v>
       </c>
     </row>
     <row r="718" spans="4:14" x14ac:dyDescent="0.2">
@@ -17917,7 +18022,7 @@
       </c>
       <c r="N718" s="1">
         <f t="shared" si="48"/>
-        <v>0.15507812500000365</v>
+        <v>0.1512011718749956</v>
       </c>
     </row>
     <row r="719" spans="4:14" x14ac:dyDescent="0.2">
@@ -17941,7 +18046,7 @@
       </c>
       <c r="N719" s="1">
         <f t="shared" si="48"/>
-        <v>0.15585937500000366</v>
+        <v>0.1519628906249956</v>
       </c>
     </row>
     <row r="720" spans="4:14" x14ac:dyDescent="0.2">
@@ -17965,7 +18070,7 @@
       </c>
       <c r="N720" s="1">
         <f t="shared" si="48"/>
-        <v>0.15664062500000367</v>
+        <v>0.1527246093749956</v>
       </c>
     </row>
     <row r="721" spans="4:14" x14ac:dyDescent="0.2">
@@ -17989,7 +18094,7 @@
       </c>
       <c r="N721" s="1">
         <f t="shared" si="48"/>
-        <v>0.15742187500000368</v>
+        <v>0.1534863281249956</v>
       </c>
     </row>
     <row r="722" spans="4:14" x14ac:dyDescent="0.2">
@@ -18013,7 +18118,7 @@
       </c>
       <c r="N722" s="1">
         <f t="shared" si="48"/>
-        <v>0.15820312500000369</v>
+        <v>0.1542480468749956</v>
       </c>
     </row>
     <row r="723" spans="4:14" x14ac:dyDescent="0.2">
@@ -18037,7 +18142,7 @@
       </c>
       <c r="N723" s="1">
         <f t="shared" si="48"/>
-        <v>0.1589843750000037</v>
+        <v>0.1550097656249956</v>
       </c>
     </row>
     <row r="724" spans="4:14" x14ac:dyDescent="0.2">
@@ -18061,7 +18166,7 @@
       </c>
       <c r="N724" s="1">
         <f t="shared" si="48"/>
-        <v>0.15976562500000371</v>
+        <v>0.15577148437499561</v>
       </c>
     </row>
     <row r="725" spans="4:14" x14ac:dyDescent="0.2">
@@ -18085,7 +18190,7 @@
       </c>
       <c r="N725" s="1">
         <f t="shared" si="48"/>
-        <v>0.16054687500000372</v>
+        <v>0.15653320312499561</v>
       </c>
     </row>
     <row r="726" spans="4:14" x14ac:dyDescent="0.2">
@@ -18109,7 +18214,7 @@
       </c>
       <c r="N726" s="1">
         <f t="shared" si="48"/>
-        <v>0.16132812500000374</v>
+        <v>0.15729492187499561</v>
       </c>
     </row>
     <row r="727" spans="4:14" x14ac:dyDescent="0.2">
@@ -18133,7 +18238,7 @@
       </c>
       <c r="N727" s="1">
         <f t="shared" si="48"/>
-        <v>0.16210937500000375</v>
+        <v>0.15805664062499561</v>
       </c>
     </row>
     <row r="728" spans="4:14" x14ac:dyDescent="0.2">
@@ -18157,7 +18262,7 @@
       </c>
       <c r="N728" s="1">
         <f t="shared" si="48"/>
-        <v>0.16289062500000376</v>
+        <v>0.15881835937499561</v>
       </c>
     </row>
     <row r="729" spans="4:14" x14ac:dyDescent="0.2">
@@ -18181,7 +18286,7 @@
       </c>
       <c r="N729" s="1">
         <f t="shared" si="48"/>
-        <v>0.16367187500000377</v>
+        <v>0.15958007812499561</v>
       </c>
     </row>
     <row r="730" spans="4:14" x14ac:dyDescent="0.2">
@@ -18205,7 +18310,7 @@
       </c>
       <c r="N730" s="1">
         <f t="shared" si="48"/>
-        <v>0.16445312500000378</v>
+        <v>0.16034179687499561</v>
       </c>
     </row>
     <row r="731" spans="4:14" x14ac:dyDescent="0.2">
@@ -18229,7 +18334,7 @@
       </c>
       <c r="N731" s="1">
         <f t="shared" si="48"/>
-        <v>0.16523437500000379</v>
+        <v>0.16110351562499561</v>
       </c>
     </row>
     <row r="732" spans="4:14" x14ac:dyDescent="0.2">
@@ -18253,7 +18358,7 @@
       </c>
       <c r="N732" s="1">
         <f t="shared" si="48"/>
-        <v>0.1660156250000038</v>
+        <v>0.16186523437499561</v>
       </c>
     </row>
     <row r="733" spans="4:14" x14ac:dyDescent="0.2">
@@ -18277,7 +18382,7 @@
       </c>
       <c r="N733" s="1">
         <f t="shared" si="48"/>
-        <v>0.16679687500000381</v>
+        <v>0.16262695312499562</v>
       </c>
     </row>
     <row r="734" spans="4:14" x14ac:dyDescent="0.2">
@@ -18301,7 +18406,7 @@
       </c>
       <c r="N734" s="1">
         <f t="shared" si="48"/>
-        <v>0.16757812500000382</v>
+        <v>0.16338867187499562</v>
       </c>
     </row>
     <row r="735" spans="4:14" x14ac:dyDescent="0.2">
@@ -18325,7 +18430,7 @@
       </c>
       <c r="N735" s="1">
         <f t="shared" si="48"/>
-        <v>0.16835937500000384</v>
+        <v>0.16415039062499562</v>
       </c>
     </row>
     <row r="736" spans="4:14" x14ac:dyDescent="0.2">
@@ -18349,7 +18454,7 @@
       </c>
       <c r="N736" s="1">
         <f t="shared" si="48"/>
-        <v>0.16914062500000385</v>
+        <v>0.16491210937499562</v>
       </c>
     </row>
     <row r="737" spans="4:14" x14ac:dyDescent="0.2">
@@ -18373,7 +18478,7 @@
       </c>
       <c r="N737" s="1">
         <f t="shared" si="48"/>
-        <v>0.16992187500000386</v>
+        <v>0.16567382812499562</v>
       </c>
     </row>
     <row r="738" spans="4:14" x14ac:dyDescent="0.2">
@@ -18397,7 +18502,7 @@
       </c>
       <c r="N738" s="1">
         <f t="shared" si="48"/>
-        <v>0.17070312500000387</v>
+        <v>0.16643554687499562</v>
       </c>
     </row>
     <row r="739" spans="4:14" x14ac:dyDescent="0.2">
@@ -18421,7 +18526,7 @@
       </c>
       <c r="N739" s="1">
         <f t="shared" si="48"/>
-        <v>0.17148437500000388</v>
+        <v>0.16719726562499562</v>
       </c>
     </row>
     <row r="740" spans="4:14" x14ac:dyDescent="0.2">
@@ -18445,7 +18550,7 @@
       </c>
       <c r="N740" s="1">
         <f t="shared" si="48"/>
-        <v>0.17226562500000389</v>
+        <v>0.16795898437499562</v>
       </c>
     </row>
     <row r="741" spans="4:14" x14ac:dyDescent="0.2">
@@ -18469,7 +18574,7 @@
       </c>
       <c r="N741" s="1">
         <f t="shared" si="48"/>
-        <v>0.1730468750000039</v>
+        <v>0.16872070312499562</v>
       </c>
     </row>
     <row r="742" spans="4:14" x14ac:dyDescent="0.2">
@@ -18493,7 +18598,7 @@
       </c>
       <c r="N742" s="1">
         <f t="shared" si="48"/>
-        <v>0.17382812500000391</v>
+        <v>0.16948242187499563</v>
       </c>
     </row>
     <row r="743" spans="4:14" x14ac:dyDescent="0.2">
@@ -18517,7 +18622,7 @@
       </c>
       <c r="N743" s="1">
         <f t="shared" si="48"/>
-        <v>0.17460937500000392</v>
+        <v>0.17024414062499563</v>
       </c>
     </row>
     <row r="744" spans="4:14" x14ac:dyDescent="0.2">
@@ -18541,7 +18646,7 @@
       </c>
       <c r="N744" s="1">
         <f t="shared" si="48"/>
-        <v>0.17539062500000394</v>
+        <v>0.17100585937499563</v>
       </c>
     </row>
     <row r="745" spans="4:14" x14ac:dyDescent="0.2">
@@ -18565,7 +18670,7 @@
       </c>
       <c r="N745" s="1">
         <f t="shared" si="48"/>
-        <v>0.17617187500000395</v>
+        <v>0.17176757812499563</v>
       </c>
     </row>
     <row r="746" spans="4:14" x14ac:dyDescent="0.2">
@@ -18589,7 +18694,7 @@
       </c>
       <c r="N746" s="1">
         <f t="shared" si="48"/>
-        <v>0.17695312500000396</v>
+        <v>0.17252929687499563</v>
       </c>
     </row>
     <row r="747" spans="4:14" x14ac:dyDescent="0.2">
@@ -18613,7 +18718,7 @@
       </c>
       <c r="N747" s="1">
         <f t="shared" si="48"/>
-        <v>0.17773437500000397</v>
+        <v>0.17329101562499563</v>
       </c>
     </row>
     <row r="748" spans="4:14" x14ac:dyDescent="0.2">
@@ -18637,7 +18742,7 @@
       </c>
       <c r="N748" s="1">
         <f t="shared" si="48"/>
-        <v>0.17851562500000398</v>
+        <v>0.17405273437499563</v>
       </c>
     </row>
     <row r="749" spans="4:14" x14ac:dyDescent="0.2">
@@ -18661,7 +18766,7 @@
       </c>
       <c r="N749" s="1">
         <f t="shared" si="48"/>
-        <v>0.17929687500000399</v>
+        <v>0.17481445312499563</v>
       </c>
     </row>
     <row r="750" spans="4:14" x14ac:dyDescent="0.2">
@@ -18685,7 +18790,7 @@
       </c>
       <c r="N750" s="1">
         <f t="shared" si="48"/>
-        <v>0.180078125000004</v>
+        <v>0.17557617187499563</v>
       </c>
     </row>
     <row r="751" spans="4:14" x14ac:dyDescent="0.2">
@@ -18709,7 +18814,7 @@
       </c>
       <c r="N751" s="1">
         <f t="shared" si="48"/>
-        <v>0.18085937500000401</v>
+        <v>0.17633789062499564</v>
       </c>
     </row>
     <row r="752" spans="4:14" x14ac:dyDescent="0.2">
@@ -18733,7 +18838,7 @@
       </c>
       <c r="N752" s="1">
         <f t="shared" si="48"/>
-        <v>0.18164062500000402</v>
+        <v>0.17709960937499564</v>
       </c>
     </row>
     <row r="753" spans="4:14" x14ac:dyDescent="0.2">
@@ -18757,7 +18862,7 @@
       </c>
       <c r="N753" s="1">
         <f t="shared" si="48"/>
-        <v>0.18242187500000404</v>
+        <v>0.17786132812499564</v>
       </c>
     </row>
     <row r="754" spans="4:14" x14ac:dyDescent="0.2">
@@ -18781,7 +18886,7 @@
       </c>
       <c r="N754" s="1">
         <f t="shared" si="48"/>
-        <v>0.18320312500000405</v>
+        <v>0.17862304687499564</v>
       </c>
     </row>
     <row r="755" spans="4:14" x14ac:dyDescent="0.2">
@@ -18805,7 +18910,7 @@
       </c>
       <c r="N755" s="1">
         <f t="shared" si="48"/>
-        <v>0.18398437500000406</v>
+        <v>0.17938476562499564</v>
       </c>
     </row>
     <row r="756" spans="4:14" x14ac:dyDescent="0.2">
@@ -18829,7 +18934,7 @@
       </c>
       <c r="N756" s="1">
         <f t="shared" si="48"/>
-        <v>0.18476562500000407</v>
+        <v>0.18014648437499564</v>
       </c>
     </row>
     <row r="757" spans="4:14" x14ac:dyDescent="0.2">
@@ -18853,7 +18958,7 @@
       </c>
       <c r="N757" s="1">
         <f t="shared" si="48"/>
-        <v>0.18554687500000408</v>
+        <v>0.18090820312499564</v>
       </c>
     </row>
     <row r="758" spans="4:14" x14ac:dyDescent="0.2">
@@ -18877,7 +18982,7 @@
       </c>
       <c r="N758" s="1">
         <f t="shared" si="48"/>
-        <v>0.18632812500000409</v>
+        <v>0.18166992187499564</v>
       </c>
     </row>
     <row r="759" spans="4:14" x14ac:dyDescent="0.2">
@@ -18901,7 +19006,7 @@
       </c>
       <c r="N759" s="1">
         <f t="shared" si="48"/>
-        <v>0.1871093750000041</v>
+        <v>0.18243164062499564</v>
       </c>
     </row>
     <row r="760" spans="4:14" x14ac:dyDescent="0.2">
@@ -18925,7 +19030,7 @@
       </c>
       <c r="N760" s="1">
         <f t="shared" si="48"/>
-        <v>0.18789062500000411</v>
+        <v>0.18319335937499565</v>
       </c>
     </row>
     <row r="761" spans="4:14" x14ac:dyDescent="0.2">
@@ -18949,7 +19054,7 @@
       </c>
       <c r="N761" s="1">
         <f t="shared" si="48"/>
-        <v>0.18867187500000412</v>
+        <v>0.18395507812499565</v>
       </c>
     </row>
     <row r="762" spans="4:14" x14ac:dyDescent="0.2">
@@ -18973,7 +19078,7 @@
       </c>
       <c r="N762" s="1">
         <f t="shared" si="48"/>
-        <v>0.18945312500000414</v>
+        <v>0.18471679687499565</v>
       </c>
     </row>
     <row r="763" spans="4:14" x14ac:dyDescent="0.2">
@@ -18997,7 +19102,7 @@
       </c>
       <c r="N763" s="1">
         <f t="shared" si="48"/>
-        <v>0.19023437500000415</v>
+        <v>0.18547851562499565</v>
       </c>
     </row>
     <row r="764" spans="4:14" x14ac:dyDescent="0.2">
@@ -19021,7 +19126,7 @@
       </c>
       <c r="N764" s="1">
         <f t="shared" si="48"/>
-        <v>0.19101562500000416</v>
+        <v>0.18624023437499565</v>
       </c>
     </row>
     <row r="765" spans="4:14" x14ac:dyDescent="0.2">
@@ -19045,7 +19150,7 @@
       </c>
       <c r="N765" s="1">
         <f t="shared" si="48"/>
-        <v>0.19179687500000417</v>
+        <v>0.18700195312499565</v>
       </c>
     </row>
     <row r="766" spans="4:14" x14ac:dyDescent="0.2">
@@ -19069,7 +19174,7 @@
       </c>
       <c r="N766" s="1">
         <f t="shared" si="48"/>
-        <v>0.19257812500000418</v>
+        <v>0.18776367187499565</v>
       </c>
     </row>
     <row r="767" spans="4:14" x14ac:dyDescent="0.2">
@@ -19093,7 +19198,7 @@
       </c>
       <c r="N767" s="1">
         <f t="shared" si="48"/>
-        <v>0.19335937500000419</v>
+        <v>0.18852539062499565</v>
       </c>
     </row>
     <row r="768" spans="4:14" x14ac:dyDescent="0.2">
@@ -19117,7 +19222,7 @@
       </c>
       <c r="N768" s="1">
         <f t="shared" si="48"/>
-        <v>0.1941406250000042</v>
+        <v>0.18928710937499565</v>
       </c>
     </row>
     <row r="769" spans="4:14" x14ac:dyDescent="0.2">
@@ -19141,7 +19246,7 @@
       </c>
       <c r="N769" s="1">
         <f t="shared" si="48"/>
-        <v>0.19492187500000421</v>
+        <v>0.19004882812499566</v>
       </c>
     </row>
     <row r="770" spans="4:14" x14ac:dyDescent="0.2">
@@ -19165,7 +19270,7 @@
       </c>
       <c r="N770" s="1">
         <f t="shared" si="48"/>
-        <v>0.19570312500000422</v>
+        <v>0.19081054687499566</v>
       </c>
     </row>
     <row r="771" spans="4:14" x14ac:dyDescent="0.2">
@@ -19189,7 +19294,7 @@
       </c>
       <c r="N771" s="1">
         <f t="shared" si="48"/>
-        <v>0.19648437500000424</v>
+        <v>0.19157226562499566</v>
       </c>
     </row>
     <row r="772" spans="4:14" x14ac:dyDescent="0.2">
@@ -19213,7 +19318,7 @@
       </c>
       <c r="N772" s="1">
         <f t="shared" si="48"/>
-        <v>0.19726562500000425</v>
+        <v>0.19233398437499566</v>
       </c>
     </row>
     <row r="773" spans="4:14" x14ac:dyDescent="0.2">
@@ -19237,7 +19342,7 @@
       </c>
       <c r="N773" s="1">
         <f t="shared" si="48"/>
-        <v>0.19804687500000426</v>
+        <v>0.19309570312499566</v>
       </c>
     </row>
     <row r="774" spans="4:14" x14ac:dyDescent="0.2">
@@ -19261,7 +19366,7 @@
       </c>
       <c r="N774" s="1">
         <f t="shared" si="48"/>
-        <v>0.19882812500000427</v>
+        <v>0.19385742187499566</v>
       </c>
     </row>
     <row r="775" spans="4:14" x14ac:dyDescent="0.2">
@@ -19285,7 +19390,7 @@
       </c>
       <c r="N775" s="1">
         <f t="shared" si="48"/>
-        <v>0.19960937500000428</v>
+        <v>0.19461914062499566</v>
       </c>
     </row>
     <row r="776" spans="4:14" x14ac:dyDescent="0.2">
@@ -19309,7 +19414,7 @@
       </c>
       <c r="N776" s="1">
         <f t="shared" si="48"/>
-        <v>0.20039062500000429</v>
+        <v>0.19538085937499566</v>
       </c>
     </row>
     <row r="777" spans="4:14" x14ac:dyDescent="0.2">
@@ -19333,7 +19438,7 @@
       </c>
       <c r="N777" s="1">
         <f t="shared" si="48"/>
-        <v>0.2011718750000043</v>
+        <v>0.19614257812499566</v>
       </c>
     </row>
     <row r="778" spans="4:14" x14ac:dyDescent="0.2">
@@ -19357,7 +19462,7 @@
       </c>
       <c r="N778" s="1">
         <f t="shared" ref="N778:N841" si="52">N777+$J$11</f>
-        <v>0.20195312500000431</v>
+        <v>0.19690429687499567</v>
       </c>
     </row>
     <row r="779" spans="4:14" x14ac:dyDescent="0.2">
@@ -19381,7 +19486,7 @@
       </c>
       <c r="N779" s="1">
         <f t="shared" si="52"/>
-        <v>0.20273437500000432</v>
+        <v>0.19766601562499567</v>
       </c>
     </row>
     <row r="780" spans="4:14" x14ac:dyDescent="0.2">
@@ -19405,7 +19510,7 @@
       </c>
       <c r="N780" s="1">
         <f t="shared" si="52"/>
-        <v>0.20351562500000434</v>
+        <v>0.19842773437499567</v>
       </c>
     </row>
     <row r="781" spans="4:14" x14ac:dyDescent="0.2">
@@ -19429,7 +19534,7 @@
       </c>
       <c r="N781" s="1">
         <f t="shared" si="52"/>
-        <v>0.20429687500000435</v>
+        <v>0.19918945312499567</v>
       </c>
     </row>
     <row r="782" spans="4:14" x14ac:dyDescent="0.2">
@@ -19453,7 +19558,7 @@
       </c>
       <c r="N782" s="1">
         <f t="shared" si="52"/>
-        <v>0.20507812500000436</v>
+        <v>0.19995117187499567</v>
       </c>
     </row>
     <row r="783" spans="4:14" x14ac:dyDescent="0.2">
@@ -19477,7 +19582,7 @@
       </c>
       <c r="N783" s="1">
         <f t="shared" si="52"/>
-        <v>0.20585937500000437</v>
+        <v>0.20071289062499567</v>
       </c>
     </row>
     <row r="784" spans="4:14" x14ac:dyDescent="0.2">
@@ -19501,7 +19606,7 @@
       </c>
       <c r="N784" s="1">
         <f t="shared" si="52"/>
-        <v>0.20664062500000438</v>
+        <v>0.20147460937499567</v>
       </c>
     </row>
     <row r="785" spans="4:14" x14ac:dyDescent="0.2">
@@ -19525,7 +19630,7 @@
       </c>
       <c r="N785" s="1">
         <f t="shared" si="52"/>
-        <v>0.20742187500000439</v>
+        <v>0.20223632812499567</v>
       </c>
     </row>
     <row r="786" spans="4:14" x14ac:dyDescent="0.2">
@@ -19549,7 +19654,7 @@
       </c>
       <c r="N786" s="1">
         <f t="shared" si="52"/>
-        <v>0.2082031250000044</v>
+        <v>0.20299804687499567</v>
       </c>
     </row>
     <row r="787" spans="4:14" x14ac:dyDescent="0.2">
@@ -19573,7 +19678,7 @@
       </c>
       <c r="N787" s="1">
         <f t="shared" si="52"/>
-        <v>0.20898437500000441</v>
+        <v>0.20375976562499568</v>
       </c>
     </row>
     <row r="788" spans="4:14" x14ac:dyDescent="0.2">
@@ -19597,7 +19702,7 @@
       </c>
       <c r="N788" s="1">
         <f t="shared" si="52"/>
-        <v>0.20976562500000442</v>
+        <v>0.20452148437499568</v>
       </c>
     </row>
     <row r="789" spans="4:14" x14ac:dyDescent="0.2">
@@ -19621,7 +19726,7 @@
       </c>
       <c r="N789" s="1">
         <f t="shared" si="52"/>
-        <v>0.21054687500000444</v>
+        <v>0.20528320312499568</v>
       </c>
     </row>
     <row r="790" spans="4:14" x14ac:dyDescent="0.2">
@@ -19645,7 +19750,7 @@
       </c>
       <c r="N790" s="1">
         <f t="shared" si="52"/>
-        <v>0.21132812500000445</v>
+        <v>0.20604492187499568</v>
       </c>
     </row>
     <row r="791" spans="4:14" x14ac:dyDescent="0.2">
@@ -19669,7 +19774,7 @@
       </c>
       <c r="N791" s="1">
         <f t="shared" si="52"/>
-        <v>0.21210937500000446</v>
+        <v>0.20680664062499568</v>
       </c>
     </row>
     <row r="792" spans="4:14" x14ac:dyDescent="0.2">
@@ -19693,7 +19798,7 @@
       </c>
       <c r="N792" s="1">
         <f t="shared" si="52"/>
-        <v>0.21289062500000447</v>
+        <v>0.20756835937499568</v>
       </c>
     </row>
     <row r="793" spans="4:14" x14ac:dyDescent="0.2">
@@ -19717,7 +19822,7 @@
       </c>
       <c r="N793" s="1">
         <f t="shared" si="52"/>
-        <v>0.21367187500000448</v>
+        <v>0.20833007812499568</v>
       </c>
     </row>
     <row r="794" spans="4:14" x14ac:dyDescent="0.2">
@@ -19741,7 +19846,7 @@
       </c>
       <c r="N794" s="1">
         <f t="shared" si="52"/>
-        <v>0.21445312500000449</v>
+        <v>0.20909179687499568</v>
       </c>
     </row>
     <row r="795" spans="4:14" x14ac:dyDescent="0.2">
@@ -19765,7 +19870,7 @@
       </c>
       <c r="N795" s="1">
         <f t="shared" si="52"/>
-        <v>0.2152343750000045</v>
+        <v>0.20985351562499568</v>
       </c>
     </row>
     <row r="796" spans="4:14" x14ac:dyDescent="0.2">
@@ -19789,7 +19894,7 @@
       </c>
       <c r="N796" s="1">
         <f t="shared" si="52"/>
-        <v>0.21601562500000451</v>
+        <v>0.21061523437499569</v>
       </c>
     </row>
     <row r="797" spans="4:14" x14ac:dyDescent="0.2">
@@ -19813,7 +19918,7 @@
       </c>
       <c r="N797" s="1">
         <f t="shared" si="52"/>
-        <v>0.21679687500000452</v>
+        <v>0.21137695312499569</v>
       </c>
     </row>
     <row r="798" spans="4:14" x14ac:dyDescent="0.2">
@@ -19837,7 +19942,7 @@
       </c>
       <c r="N798" s="1">
         <f t="shared" si="52"/>
-        <v>0.21757812500000454</v>
+        <v>0.21213867187499569</v>
       </c>
     </row>
     <row r="799" spans="4:14" x14ac:dyDescent="0.2">
@@ -19861,7 +19966,7 @@
       </c>
       <c r="N799" s="1">
         <f t="shared" si="52"/>
-        <v>0.21835937500000455</v>
+        <v>0.21290039062499569</v>
       </c>
     </row>
     <row r="800" spans="4:14" x14ac:dyDescent="0.2">
@@ -19885,7 +19990,7 @@
       </c>
       <c r="N800" s="1">
         <f t="shared" si="52"/>
-        <v>0.21914062500000456</v>
+        <v>0.21366210937499569</v>
       </c>
     </row>
     <row r="801" spans="4:14" x14ac:dyDescent="0.2">
@@ -19909,7 +20014,7 @@
       </c>
       <c r="N801" s="1">
         <f t="shared" si="52"/>
-        <v>0.21992187500000457</v>
+        <v>0.21442382812499569</v>
       </c>
     </row>
     <row r="802" spans="4:14" x14ac:dyDescent="0.2">
@@ -19933,7 +20038,7 @@
       </c>
       <c r="N802" s="1">
         <f t="shared" si="52"/>
-        <v>0.22070312500000458</v>
+        <v>0.21518554687499569</v>
       </c>
     </row>
     <row r="803" spans="4:14" x14ac:dyDescent="0.2">
@@ -19957,7 +20062,7 @@
       </c>
       <c r="N803" s="1">
         <f t="shared" si="52"/>
-        <v>0.22148437500000459</v>
+        <v>0.21594726562499569</v>
       </c>
     </row>
     <row r="804" spans="4:14" x14ac:dyDescent="0.2">
@@ -19981,7 +20086,7 @@
       </c>
       <c r="N804" s="1">
         <f t="shared" si="52"/>
-        <v>0.2222656250000046</v>
+        <v>0.21670898437499569</v>
       </c>
     </row>
     <row r="805" spans="4:14" x14ac:dyDescent="0.2">
@@ -20005,7 +20110,7 @@
       </c>
       <c r="N805" s="1">
         <f t="shared" si="52"/>
-        <v>0.22304687500000461</v>
+        <v>0.2174707031249957</v>
       </c>
     </row>
     <row r="806" spans="4:14" x14ac:dyDescent="0.2">
@@ -20029,7 +20134,7 @@
       </c>
       <c r="N806" s="1">
         <f t="shared" si="52"/>
-        <v>0.22382812500000462</v>
+        <v>0.2182324218749957</v>
       </c>
     </row>
     <row r="807" spans="4:14" x14ac:dyDescent="0.2">
@@ -20053,7 +20158,7 @@
       </c>
       <c r="N807" s="1">
         <f t="shared" si="52"/>
-        <v>0.22460937500000464</v>
+        <v>0.2189941406249957</v>
       </c>
     </row>
     <row r="808" spans="4:14" x14ac:dyDescent="0.2">
@@ -20077,7 +20182,7 @@
       </c>
       <c r="N808" s="1">
         <f t="shared" si="52"/>
-        <v>0.22539062500000465</v>
+        <v>0.2197558593749957</v>
       </c>
     </row>
     <row r="809" spans="4:14" x14ac:dyDescent="0.2">
@@ -20101,7 +20206,7 @@
       </c>
       <c r="N809" s="1">
         <f t="shared" si="52"/>
-        <v>0.22617187500000466</v>
+        <v>0.2205175781249957</v>
       </c>
     </row>
     <row r="810" spans="4:14" x14ac:dyDescent="0.2">
@@ -20125,7 +20230,7 @@
       </c>
       <c r="N810" s="1">
         <f t="shared" si="52"/>
-        <v>0.22695312500000467</v>
+        <v>0.2212792968749957</v>
       </c>
     </row>
     <row r="811" spans="4:14" x14ac:dyDescent="0.2">
@@ -20149,7 +20254,7 @@
       </c>
       <c r="N811" s="1">
         <f t="shared" si="52"/>
-        <v>0.22773437500000468</v>
+        <v>0.2220410156249957</v>
       </c>
     </row>
     <row r="812" spans="4:14" x14ac:dyDescent="0.2">
@@ -20173,7 +20278,7 @@
       </c>
       <c r="N812" s="1">
         <f t="shared" si="52"/>
-        <v>0.22851562500000469</v>
+        <v>0.2228027343749957</v>
       </c>
     </row>
     <row r="813" spans="4:14" x14ac:dyDescent="0.2">
@@ -20197,7 +20302,7 @@
       </c>
       <c r="N813" s="1">
         <f t="shared" si="52"/>
-        <v>0.2292968750000047</v>
+        <v>0.2235644531249957</v>
       </c>
     </row>
     <row r="814" spans="4:14" x14ac:dyDescent="0.2">
@@ -20221,7 +20326,7 @@
       </c>
       <c r="N814" s="1">
         <f t="shared" si="52"/>
-        <v>0.23007812500000471</v>
+        <v>0.22432617187499571</v>
       </c>
     </row>
     <row r="815" spans="4:14" x14ac:dyDescent="0.2">
@@ -20245,7 +20350,7 @@
       </c>
       <c r="N815" s="1">
         <f t="shared" si="52"/>
-        <v>0.23085937500000472</v>
+        <v>0.22508789062499571</v>
       </c>
     </row>
     <row r="816" spans="4:14" x14ac:dyDescent="0.2">
@@ -20269,7 +20374,7 @@
       </c>
       <c r="N816" s="1">
         <f t="shared" si="52"/>
-        <v>0.23164062500000474</v>
+        <v>0.22584960937499571</v>
       </c>
     </row>
     <row r="817" spans="4:14" x14ac:dyDescent="0.2">
@@ -20293,7 +20398,7 @@
       </c>
       <c r="N817" s="1">
         <f t="shared" si="52"/>
-        <v>0.23242187500000475</v>
+        <v>0.22661132812499571</v>
       </c>
     </row>
     <row r="818" spans="4:14" x14ac:dyDescent="0.2">
@@ -20317,7 +20422,7 @@
       </c>
       <c r="N818" s="1">
         <f t="shared" si="52"/>
-        <v>0.23320312500000476</v>
+        <v>0.22737304687499571</v>
       </c>
     </row>
     <row r="819" spans="4:14" x14ac:dyDescent="0.2">
@@ -20341,7 +20446,7 @@
       </c>
       <c r="N819" s="1">
         <f t="shared" si="52"/>
-        <v>0.23398437500000477</v>
+        <v>0.22813476562499571</v>
       </c>
     </row>
     <row r="820" spans="4:14" x14ac:dyDescent="0.2">
@@ -20365,7 +20470,7 @@
       </c>
       <c r="N820" s="1">
         <f t="shared" si="52"/>
-        <v>0.23476562500000478</v>
+        <v>0.22889648437499571</v>
       </c>
     </row>
     <row r="821" spans="4:14" x14ac:dyDescent="0.2">
@@ -20389,7 +20494,7 @@
       </c>
       <c r="N821" s="1">
         <f t="shared" si="52"/>
-        <v>0.23554687500000479</v>
+        <v>0.22965820312499571</v>
       </c>
     </row>
     <row r="822" spans="4:14" x14ac:dyDescent="0.2">
@@ -20413,7 +20518,7 @@
       </c>
       <c r="N822" s="1">
         <f t="shared" si="52"/>
-        <v>0.2363281250000048</v>
+        <v>0.23041992187499571</v>
       </c>
     </row>
     <row r="823" spans="4:14" x14ac:dyDescent="0.2">
@@ -20437,7 +20542,7 @@
       </c>
       <c r="N823" s="1">
         <f t="shared" si="52"/>
-        <v>0.23710937500000481</v>
+        <v>0.23118164062499572</v>
       </c>
     </row>
     <row r="824" spans="4:14" x14ac:dyDescent="0.2">
@@ -20461,7 +20566,7 @@
       </c>
       <c r="N824" s="1">
         <f t="shared" si="52"/>
-        <v>0.23789062500000482</v>
+        <v>0.23194335937499572</v>
       </c>
     </row>
     <row r="825" spans="4:14" x14ac:dyDescent="0.2">
@@ -20485,7 +20590,7 @@
       </c>
       <c r="N825" s="1">
         <f t="shared" si="52"/>
-        <v>0.23867187500000484</v>
+        <v>0.23270507812499572</v>
       </c>
     </row>
     <row r="826" spans="4:14" x14ac:dyDescent="0.2">
@@ -20509,7 +20614,7 @@
       </c>
       <c r="N826" s="1">
         <f t="shared" si="52"/>
-        <v>0.23945312500000485</v>
+        <v>0.23346679687499572</v>
       </c>
     </row>
     <row r="827" spans="4:14" x14ac:dyDescent="0.2">
@@ -20533,7 +20638,7 @@
       </c>
       <c r="N827" s="1">
         <f t="shared" si="52"/>
-        <v>0.24023437500000486</v>
+        <v>0.23422851562499572</v>
       </c>
     </row>
     <row r="828" spans="4:14" x14ac:dyDescent="0.2">
@@ -20557,7 +20662,7 @@
       </c>
       <c r="N828" s="1">
         <f t="shared" si="52"/>
-        <v>0.24101562500000487</v>
+        <v>0.23499023437499572</v>
       </c>
     </row>
     <row r="829" spans="4:14" x14ac:dyDescent="0.2">
@@ -20581,7 +20686,7 @@
       </c>
       <c r="N829" s="1">
         <f t="shared" si="52"/>
-        <v>0.24179687500000488</v>
+        <v>0.23575195312499572</v>
       </c>
     </row>
     <row r="830" spans="4:14" x14ac:dyDescent="0.2">
@@ -20605,7 +20710,7 @@
       </c>
       <c r="N830" s="1">
         <f t="shared" si="52"/>
-        <v>0.24257812500000489</v>
+        <v>0.23651367187499572</v>
       </c>
     </row>
     <row r="831" spans="4:14" x14ac:dyDescent="0.2">
@@ -20629,7 +20734,7 @@
       </c>
       <c r="N831" s="1">
         <f t="shared" si="52"/>
-        <v>0.2433593750000049</v>
+        <v>0.23727539062499572</v>
       </c>
     </row>
     <row r="832" spans="4:14" x14ac:dyDescent="0.2">
@@ -20653,7 +20758,7 @@
       </c>
       <c r="N832" s="1">
         <f t="shared" si="52"/>
-        <v>0.24414062500000491</v>
+        <v>0.23803710937499573</v>
       </c>
     </row>
     <row r="833" spans="4:14" x14ac:dyDescent="0.2">
@@ -20677,7 +20782,7 @@
       </c>
       <c r="N833" s="1">
         <f t="shared" si="52"/>
-        <v>0.24492187500000492</v>
+        <v>0.23879882812499573</v>
       </c>
     </row>
     <row r="834" spans="4:14" x14ac:dyDescent="0.2">
@@ -20701,7 +20806,7 @@
       </c>
       <c r="N834" s="1">
         <f t="shared" si="52"/>
-        <v>0.24570312500000493</v>
+        <v>0.23956054687499573</v>
       </c>
     </row>
     <row r="835" spans="4:14" x14ac:dyDescent="0.2">
@@ -20725,7 +20830,7 @@
       </c>
       <c r="N835" s="1">
         <f t="shared" si="52"/>
-        <v>0.24648437500000495</v>
+        <v>0.24032226562499573</v>
       </c>
     </row>
     <row r="836" spans="4:14" x14ac:dyDescent="0.2">
@@ -20749,7 +20854,7 @@
       </c>
       <c r="N836" s="1">
         <f t="shared" si="52"/>
-        <v>0.24726562500000496</v>
+        <v>0.24108398437499573</v>
       </c>
     </row>
     <row r="837" spans="4:14" x14ac:dyDescent="0.2">
@@ -20773,7 +20878,7 @@
       </c>
       <c r="N837" s="1">
         <f t="shared" si="52"/>
-        <v>0.24804687500000497</v>
+        <v>0.24184570312499573</v>
       </c>
     </row>
     <row r="838" spans="4:14" x14ac:dyDescent="0.2">
@@ -20797,7 +20902,7 @@
       </c>
       <c r="N838" s="1">
         <f t="shared" si="52"/>
-        <v>0.24882812500000498</v>
+        <v>0.24260742187499573</v>
       </c>
     </row>
     <row r="839" spans="4:14" x14ac:dyDescent="0.2">
@@ -20821,7 +20926,7 @@
       </c>
       <c r="N839" s="1">
         <f t="shared" si="52"/>
-        <v>0.24960937500000499</v>
+        <v>0.24336914062499573</v>
       </c>
     </row>
     <row r="840" spans="4:14" x14ac:dyDescent="0.2">
@@ -20845,7 +20950,7 @@
       </c>
       <c r="N840" s="1">
         <f t="shared" si="52"/>
-        <v>0.25039062500000497</v>
+        <v>0.24413085937499573</v>
       </c>
     </row>
     <row r="841" spans="4:14" x14ac:dyDescent="0.2">
@@ -20869,7 +20974,7 @@
       </c>
       <c r="N841" s="1">
         <f t="shared" si="52"/>
-        <v>0.25117187500000498</v>
+        <v>0.24489257812499574</v>
       </c>
     </row>
     <row r="842" spans="4:14" x14ac:dyDescent="0.2">
@@ -20893,7 +20998,7 @@
       </c>
       <c r="N842" s="1">
         <f t="shared" ref="N842:N905" si="56">N841+$J$11</f>
-        <v>0.251953125000005</v>
+        <v>0.24565429687499574</v>
       </c>
     </row>
     <row r="843" spans="4:14" x14ac:dyDescent="0.2">
@@ -20917,7 +21022,7 @@
       </c>
       <c r="N843" s="1">
         <f t="shared" si="56"/>
-        <v>0.25273437500000501</v>
+        <v>0.24641601562499574</v>
       </c>
     </row>
     <row r="844" spans="4:14" x14ac:dyDescent="0.2">
@@ -20941,7 +21046,7 @@
       </c>
       <c r="N844" s="1">
         <f t="shared" si="56"/>
-        <v>0.25351562500000502</v>
+        <v>0.24717773437499574</v>
       </c>
     </row>
     <row r="845" spans="4:14" x14ac:dyDescent="0.2">
@@ -20965,7 +21070,7 @@
       </c>
       <c r="N845" s="1">
         <f t="shared" si="56"/>
-        <v>0.25429687500000503</v>
+        <v>0.24793945312499574</v>
       </c>
     </row>
     <row r="846" spans="4:14" x14ac:dyDescent="0.2">
@@ -20989,7 +21094,7 @@
       </c>
       <c r="N846" s="1">
         <f t="shared" si="56"/>
-        <v>0.25507812500000504</v>
+        <v>0.24870117187499574</v>
       </c>
     </row>
     <row r="847" spans="4:14" x14ac:dyDescent="0.2">
@@ -21013,7 +21118,7 @@
       </c>
       <c r="N847" s="1">
         <f t="shared" si="56"/>
-        <v>0.25585937500000505</v>
+        <v>0.24946289062499574</v>
       </c>
     </row>
     <row r="848" spans="4:14" x14ac:dyDescent="0.2">
@@ -21037,7 +21142,7 @@
       </c>
       <c r="N848" s="1">
         <f t="shared" si="56"/>
-        <v>0.25664062500000506</v>
+        <v>0.25022460937499574</v>
       </c>
     </row>
     <row r="849" spans="4:14" x14ac:dyDescent="0.2">
@@ -21061,7 +21166,7 @@
       </c>
       <c r="N849" s="1">
         <f t="shared" si="56"/>
-        <v>0.25742187500000507</v>
+        <v>0.25098632812499572</v>
       </c>
     </row>
     <row r="850" spans="4:14" x14ac:dyDescent="0.2">
@@ -21085,7 +21190,7 @@
       </c>
       <c r="N850" s="1">
         <f t="shared" si="56"/>
-        <v>0.25820312500000508</v>
+        <v>0.25174804687499569</v>
       </c>
     </row>
     <row r="851" spans="4:14" x14ac:dyDescent="0.2">
@@ -21109,7 +21214,7 @@
       </c>
       <c r="N851" s="1">
         <f t="shared" si="56"/>
-        <v>0.2589843750000051</v>
+        <v>0.25250976562499566</v>
       </c>
     </row>
     <row r="852" spans="4:14" x14ac:dyDescent="0.2">
@@ -21133,7 +21238,7 @@
       </c>
       <c r="N852" s="1">
         <f t="shared" si="56"/>
-        <v>0.25976562500000511</v>
+        <v>0.25327148437499564</v>
       </c>
     </row>
     <row r="853" spans="4:14" x14ac:dyDescent="0.2">
@@ -21157,7 +21262,7 @@
       </c>
       <c r="N853" s="1">
         <f t="shared" si="56"/>
-        <v>0.26054687500000512</v>
+        <v>0.25403320312499561</v>
       </c>
     </row>
     <row r="854" spans="4:14" x14ac:dyDescent="0.2">
@@ -21181,7 +21286,7 @@
       </c>
       <c r="N854" s="1">
         <f t="shared" si="56"/>
-        <v>0.26132812500000513</v>
+        <v>0.25479492187499558</v>
       </c>
     </row>
     <row r="855" spans="4:14" x14ac:dyDescent="0.2">
@@ -21205,7 +21310,7 @@
       </c>
       <c r="N855" s="1">
         <f t="shared" si="56"/>
-        <v>0.26210937500000514</v>
+        <v>0.25555664062499556</v>
       </c>
     </row>
     <row r="856" spans="4:14" x14ac:dyDescent="0.2">
@@ -21229,7 +21334,7 @@
       </c>
       <c r="N856" s="1">
         <f t="shared" si="56"/>
-        <v>0.26289062500000515</v>
+        <v>0.25631835937499553</v>
       </c>
     </row>
     <row r="857" spans="4:14" x14ac:dyDescent="0.2">
@@ -21253,7 +21358,7 @@
       </c>
       <c r="N857" s="1">
         <f t="shared" si="56"/>
-        <v>0.26367187500000516</v>
+        <v>0.2570800781249955</v>
       </c>
     </row>
     <row r="858" spans="4:14" x14ac:dyDescent="0.2">
@@ -21277,7 +21382,7 @@
       </c>
       <c r="N858" s="1">
         <f t="shared" si="56"/>
-        <v>0.26445312500000517</v>
+        <v>0.25784179687499548</v>
       </c>
     </row>
     <row r="859" spans="4:14" x14ac:dyDescent="0.2">
@@ -21301,7 +21406,7 @@
       </c>
       <c r="N859" s="1">
         <f t="shared" si="56"/>
-        <v>0.26523437500000518</v>
+        <v>0.25860351562499545</v>
       </c>
     </row>
     <row r="860" spans="4:14" x14ac:dyDescent="0.2">
@@ -21325,7 +21430,7 @@
       </c>
       <c r="N860" s="1">
         <f t="shared" si="56"/>
-        <v>0.2660156250000052</v>
+        <v>0.25936523437499542</v>
       </c>
     </row>
     <row r="861" spans="4:14" x14ac:dyDescent="0.2">
@@ -21349,7 +21454,7 @@
       </c>
       <c r="N861" s="1">
         <f t="shared" si="56"/>
-        <v>0.26679687500000521</v>
+        <v>0.2601269531249954</v>
       </c>
     </row>
     <row r="862" spans="4:14" x14ac:dyDescent="0.2">
@@ -21373,7 +21478,7 @@
       </c>
       <c r="N862" s="1">
         <f t="shared" si="56"/>
-        <v>0.26757812500000522</v>
+        <v>0.26088867187499537</v>
       </c>
     </row>
     <row r="863" spans="4:14" x14ac:dyDescent="0.2">
@@ -21397,7 +21502,7 @@
       </c>
       <c r="N863" s="1">
         <f t="shared" si="56"/>
-        <v>0.26835937500000523</v>
+        <v>0.26165039062499534</v>
       </c>
     </row>
     <row r="864" spans="4:14" x14ac:dyDescent="0.2">
@@ -21421,7 +21526,7 @@
       </c>
       <c r="N864" s="1">
         <f t="shared" si="56"/>
-        <v>0.26914062500000524</v>
+        <v>0.26241210937499532</v>
       </c>
     </row>
     <row r="865" spans="4:14" x14ac:dyDescent="0.2">
@@ -21445,7 +21550,7 @@
       </c>
       <c r="N865" s="1">
         <f t="shared" si="56"/>
-        <v>0.26992187500000525</v>
+        <v>0.26317382812499529</v>
       </c>
     </row>
     <row r="866" spans="4:14" x14ac:dyDescent="0.2">
@@ -21469,7 +21574,7 @@
       </c>
       <c r="N866" s="1">
         <f t="shared" si="56"/>
-        <v>0.27070312500000526</v>
+        <v>0.26393554687499526</v>
       </c>
     </row>
     <row r="867" spans="4:14" x14ac:dyDescent="0.2">
@@ -21493,7 +21598,7 @@
       </c>
       <c r="N867" s="1">
         <f t="shared" si="56"/>
-        <v>0.27148437500000527</v>
+        <v>0.26469726562499524</v>
       </c>
     </row>
     <row r="868" spans="4:14" x14ac:dyDescent="0.2">
@@ -21517,7 +21622,7 @@
       </c>
       <c r="N868" s="1">
         <f t="shared" si="56"/>
-        <v>0.27226562500000528</v>
+        <v>0.26545898437499521</v>
       </c>
     </row>
     <row r="869" spans="4:14" x14ac:dyDescent="0.2">
@@ -21541,7 +21646,7 @@
       </c>
       <c r="N869" s="1">
         <f t="shared" si="56"/>
-        <v>0.2730468750000053</v>
+        <v>0.26622070312499518</v>
       </c>
     </row>
     <row r="870" spans="4:14" x14ac:dyDescent="0.2">
@@ -21565,7 +21670,7 @@
       </c>
       <c r="N870" s="1">
         <f t="shared" si="56"/>
-        <v>0.27382812500000531</v>
+        <v>0.26698242187499516</v>
       </c>
     </row>
     <row r="871" spans="4:14" x14ac:dyDescent="0.2">
@@ -21589,7 +21694,7 @@
       </c>
       <c r="N871" s="1">
         <f t="shared" si="56"/>
-        <v>0.27460937500000532</v>
+        <v>0.26774414062499513</v>
       </c>
     </row>
     <row r="872" spans="4:14" x14ac:dyDescent="0.2">
@@ -21613,7 +21718,7 @@
       </c>
       <c r="N872" s="1">
         <f t="shared" si="56"/>
-        <v>0.27539062500000533</v>
+        <v>0.2685058593749951</v>
       </c>
     </row>
     <row r="873" spans="4:14" x14ac:dyDescent="0.2">
@@ -21637,7 +21742,7 @@
       </c>
       <c r="N873" s="1">
         <f t="shared" si="56"/>
-        <v>0.27617187500000534</v>
+        <v>0.26926757812499508</v>
       </c>
     </row>
     <row r="874" spans="4:14" x14ac:dyDescent="0.2">
@@ -21661,7 +21766,7 @@
       </c>
       <c r="N874" s="1">
         <f t="shared" si="56"/>
-        <v>0.27695312500000535</v>
+        <v>0.27002929687499505</v>
       </c>
     </row>
     <row r="875" spans="4:14" x14ac:dyDescent="0.2">
@@ -21685,7 +21790,7 @@
       </c>
       <c r="N875" s="1">
         <f t="shared" si="56"/>
-        <v>0.27773437500000536</v>
+        <v>0.27079101562499502</v>
       </c>
     </row>
     <row r="876" spans="4:14" x14ac:dyDescent="0.2">
@@ -21709,7 +21814,7 @@
       </c>
       <c r="N876" s="1">
         <f t="shared" si="56"/>
-        <v>0.27851562500000537</v>
+        <v>0.271552734374995</v>
       </c>
     </row>
     <row r="877" spans="4:14" x14ac:dyDescent="0.2">
@@ -21733,7 +21838,7 @@
       </c>
       <c r="N877" s="1">
         <f t="shared" si="56"/>
-        <v>0.27929687500000538</v>
+        <v>0.27231445312499497</v>
       </c>
     </row>
     <row r="878" spans="4:14" x14ac:dyDescent="0.2">
@@ -21757,7 +21862,7 @@
       </c>
       <c r="N878" s="1">
         <f t="shared" si="56"/>
-        <v>0.2800781250000054</v>
+        <v>0.27307617187499494</v>
       </c>
     </row>
     <row r="879" spans="4:14" x14ac:dyDescent="0.2">
@@ -21781,7 +21886,7 @@
       </c>
       <c r="N879" s="1">
         <f t="shared" si="56"/>
-        <v>0.28085937500000541</v>
+        <v>0.27383789062499492</v>
       </c>
     </row>
     <row r="880" spans="4:14" x14ac:dyDescent="0.2">
@@ -21805,7 +21910,7 @@
       </c>
       <c r="N880" s="1">
         <f t="shared" si="56"/>
-        <v>0.28164062500000542</v>
+        <v>0.27459960937499489</v>
       </c>
     </row>
     <row r="881" spans="4:14" x14ac:dyDescent="0.2">
@@ -21829,7 +21934,7 @@
       </c>
       <c r="N881" s="1">
         <f t="shared" si="56"/>
-        <v>0.28242187500000543</v>
+        <v>0.27536132812499486</v>
       </c>
     </row>
     <row r="882" spans="4:14" x14ac:dyDescent="0.2">
@@ -21853,7 +21958,7 @@
       </c>
       <c r="N882" s="1">
         <f t="shared" si="56"/>
-        <v>0.28320312500000544</v>
+        <v>0.27612304687499484</v>
       </c>
     </row>
     <row r="883" spans="4:14" x14ac:dyDescent="0.2">
@@ -21877,7 +21982,7 @@
       </c>
       <c r="N883" s="1">
         <f t="shared" si="56"/>
-        <v>0.28398437500000545</v>
+        <v>0.27688476562499481</v>
       </c>
     </row>
     <row r="884" spans="4:14" x14ac:dyDescent="0.2">
@@ -21901,7 +22006,7 @@
       </c>
       <c r="N884" s="1">
         <f t="shared" si="56"/>
-        <v>0.28476562500000546</v>
+        <v>0.27764648437499478</v>
       </c>
     </row>
     <row r="885" spans="4:14" x14ac:dyDescent="0.2">
@@ -21925,7 +22030,7 @@
       </c>
       <c r="N885" s="1">
         <f t="shared" si="56"/>
-        <v>0.28554687500000547</v>
+        <v>0.27840820312499476</v>
       </c>
     </row>
     <row r="886" spans="4:14" x14ac:dyDescent="0.2">
@@ -21949,7 +22054,7 @@
       </c>
       <c r="N886" s="1">
         <f t="shared" si="56"/>
-        <v>0.28632812500000548</v>
+        <v>0.27916992187499473</v>
       </c>
     </row>
     <row r="887" spans="4:14" x14ac:dyDescent="0.2">
@@ -21973,7 +22078,7 @@
       </c>
       <c r="N887" s="1">
         <f t="shared" si="56"/>
-        <v>0.2871093750000055</v>
+        <v>0.2799316406249947</v>
       </c>
     </row>
     <row r="888" spans="4:14" x14ac:dyDescent="0.2">
@@ -21997,7 +22102,7 @@
       </c>
       <c r="N888" s="1">
         <f t="shared" si="56"/>
-        <v>0.28789062500000551</v>
+        <v>0.28069335937499468</v>
       </c>
     </row>
     <row r="889" spans="4:14" x14ac:dyDescent="0.2">
@@ -22021,7 +22126,7 @@
       </c>
       <c r="N889" s="1">
         <f t="shared" si="56"/>
-        <v>0.28867187500000552</v>
+        <v>0.28145507812499465</v>
       </c>
     </row>
     <row r="890" spans="4:14" x14ac:dyDescent="0.2">
@@ -22045,7 +22150,7 @@
       </c>
       <c r="N890" s="1">
         <f t="shared" si="56"/>
-        <v>0.28945312500000553</v>
+        <v>0.28221679687499462</v>
       </c>
     </row>
     <row r="891" spans="4:14" x14ac:dyDescent="0.2">
@@ -22069,7 +22174,7 @@
       </c>
       <c r="N891" s="1">
         <f t="shared" si="56"/>
-        <v>0.29023437500000554</v>
+        <v>0.2829785156249946</v>
       </c>
     </row>
     <row r="892" spans="4:14" x14ac:dyDescent="0.2">
@@ -22093,7 +22198,7 @@
       </c>
       <c r="N892" s="1">
         <f t="shared" si="56"/>
-        <v>0.29101562500000555</v>
+        <v>0.28374023437499457</v>
       </c>
     </row>
     <row r="893" spans="4:14" x14ac:dyDescent="0.2">
@@ -22117,7 +22222,7 @@
       </c>
       <c r="N893" s="1">
         <f t="shared" si="56"/>
-        <v>0.29179687500000556</v>
+        <v>0.28450195312499454</v>
       </c>
     </row>
     <row r="894" spans="4:14" x14ac:dyDescent="0.2">
@@ -22141,7 +22246,7 @@
       </c>
       <c r="N894" s="1">
         <f t="shared" si="56"/>
-        <v>0.29257812500000557</v>
+        <v>0.28526367187499452</v>
       </c>
     </row>
     <row r="895" spans="4:14" x14ac:dyDescent="0.2">
@@ -22165,7 +22270,7 @@
       </c>
       <c r="N895" s="1">
         <f t="shared" si="56"/>
-        <v>0.29335937500000558</v>
+        <v>0.28602539062499449</v>
       </c>
     </row>
     <row r="896" spans="4:14" x14ac:dyDescent="0.2">
@@ -22189,7 +22294,7 @@
       </c>
       <c r="N896" s="1">
         <f t="shared" si="56"/>
-        <v>0.2941406250000056</v>
+        <v>0.28678710937499446</v>
       </c>
     </row>
     <row r="897" spans="4:14" x14ac:dyDescent="0.2">
@@ -22213,7 +22318,7 @@
       </c>
       <c r="N897" s="1">
         <f t="shared" si="56"/>
-        <v>0.29492187500000561</v>
+        <v>0.28754882812499444</v>
       </c>
     </row>
     <row r="898" spans="4:14" x14ac:dyDescent="0.2">
@@ -22237,7 +22342,7 @@
       </c>
       <c r="N898" s="1">
         <f t="shared" si="56"/>
-        <v>0.29570312500000562</v>
+        <v>0.28831054687499441</v>
       </c>
     </row>
     <row r="899" spans="4:14" x14ac:dyDescent="0.2">
@@ -22261,7 +22366,7 @@
       </c>
       <c r="N899" s="1">
         <f t="shared" si="56"/>
-        <v>0.29648437500000563</v>
+        <v>0.28907226562499438</v>
       </c>
     </row>
     <row r="900" spans="4:14" x14ac:dyDescent="0.2">
@@ -22285,7 +22390,7 @@
       </c>
       <c r="N900" s="1">
         <f t="shared" si="56"/>
-        <v>0.29726562500000564</v>
+        <v>0.28983398437499436</v>
       </c>
     </row>
     <row r="901" spans="4:14" x14ac:dyDescent="0.2">
@@ -22309,7 +22414,7 @@
       </c>
       <c r="N901" s="1">
         <f t="shared" si="56"/>
-        <v>0.29804687500000565</v>
+        <v>0.29059570312499433</v>
       </c>
     </row>
     <row r="902" spans="4:14" x14ac:dyDescent="0.2">
@@ -22333,7 +22438,7 @@
       </c>
       <c r="N902" s="1">
         <f t="shared" si="56"/>
-        <v>0.29882812500000566</v>
+        <v>0.2913574218749943</v>
       </c>
     </row>
     <row r="903" spans="4:14" x14ac:dyDescent="0.2">
@@ -22357,7 +22462,7 @@
       </c>
       <c r="N903" s="1">
         <f t="shared" si="56"/>
-        <v>0.29960937500000567</v>
+        <v>0.29211914062499428</v>
       </c>
     </row>
     <row r="904" spans="4:14" x14ac:dyDescent="0.2">
@@ -22381,7 +22486,7 @@
       </c>
       <c r="N904" s="1">
         <f t="shared" si="56"/>
-        <v>0.30039062500000568</v>
+        <v>0.29288085937499425</v>
       </c>
     </row>
     <row r="905" spans="4:14" x14ac:dyDescent="0.2">
@@ -22405,7 +22510,7 @@
       </c>
       <c r="N905" s="1">
         <f t="shared" si="56"/>
-        <v>0.3011718750000057</v>
+        <v>0.29364257812499422</v>
       </c>
     </row>
     <row r="906" spans="4:14" x14ac:dyDescent="0.2">
@@ -22429,7 +22534,7 @@
       </c>
       <c r="N906" s="1">
         <f t="shared" ref="N906:N969" si="60">N905+$J$11</f>
-        <v>0.30195312500000571</v>
+        <v>0.2944042968749942</v>
       </c>
     </row>
     <row r="907" spans="4:14" x14ac:dyDescent="0.2">
@@ -22453,7 +22558,7 @@
       </c>
       <c r="N907" s="1">
         <f t="shared" si="60"/>
-        <v>0.30273437500000572</v>
+        <v>0.29516601562499417</v>
       </c>
     </row>
     <row r="908" spans="4:14" x14ac:dyDescent="0.2">
@@ -22477,7 +22582,7 @@
       </c>
       <c r="N908" s="1">
         <f t="shared" si="60"/>
-        <v>0.30351562500000573</v>
+        <v>0.29592773437499414</v>
       </c>
     </row>
     <row r="909" spans="4:14" x14ac:dyDescent="0.2">
@@ -22501,7 +22606,7 @@
       </c>
       <c r="N909" s="1">
         <f t="shared" si="60"/>
-        <v>0.30429687500000574</v>
+        <v>0.29668945312499412</v>
       </c>
     </row>
     <row r="910" spans="4:14" x14ac:dyDescent="0.2">
@@ -22525,7 +22630,7 @@
       </c>
       <c r="N910" s="1">
         <f t="shared" si="60"/>
-        <v>0.30507812500000575</v>
+        <v>0.29745117187499409</v>
       </c>
     </row>
     <row r="911" spans="4:14" x14ac:dyDescent="0.2">
@@ -22549,7 +22654,7 @@
       </c>
       <c r="N911" s="1">
         <f t="shared" si="60"/>
-        <v>0.30585937500000576</v>
+        <v>0.29821289062499406</v>
       </c>
     </row>
     <row r="912" spans="4:14" x14ac:dyDescent="0.2">
@@ -22573,7 +22678,7 @@
       </c>
       <c r="N912" s="1">
         <f t="shared" si="60"/>
-        <v>0.30664062500000577</v>
+        <v>0.29897460937499404</v>
       </c>
     </row>
     <row r="913" spans="4:14" x14ac:dyDescent="0.2">
@@ -22597,7 +22702,7 @@
       </c>
       <c r="N913" s="1">
         <f t="shared" si="60"/>
-        <v>0.30742187500000578</v>
+        <v>0.29973632812499401</v>
       </c>
     </row>
     <row r="914" spans="4:14" x14ac:dyDescent="0.2">
@@ -22621,7 +22726,7 @@
       </c>
       <c r="N914" s="1">
         <f t="shared" si="60"/>
-        <v>0.3082031250000058</v>
+        <v>0.30049804687499398</v>
       </c>
     </row>
     <row r="915" spans="4:14" x14ac:dyDescent="0.2">
@@ -22645,7 +22750,7 @@
       </c>
       <c r="N915" s="1">
         <f t="shared" si="60"/>
-        <v>0.30898437500000581</v>
+        <v>0.30125976562499396</v>
       </c>
     </row>
     <row r="916" spans="4:14" x14ac:dyDescent="0.2">
@@ -22669,7 +22774,7 @@
       </c>
       <c r="N916" s="1">
         <f t="shared" si="60"/>
-        <v>0.30976562500000582</v>
+        <v>0.30202148437499393</v>
       </c>
     </row>
     <row r="917" spans="4:14" x14ac:dyDescent="0.2">
@@ -22693,7 +22798,7 @@
       </c>
       <c r="N917" s="1">
         <f t="shared" si="60"/>
-        <v>0.31054687500000583</v>
+        <v>0.3027832031249939</v>
       </c>
     </row>
     <row r="918" spans="4:14" x14ac:dyDescent="0.2">
@@ -22717,7 +22822,7 @@
       </c>
       <c r="N918" s="1">
         <f t="shared" si="60"/>
-        <v>0.31132812500000584</v>
+        <v>0.30354492187499388</v>
       </c>
     </row>
     <row r="919" spans="4:14" x14ac:dyDescent="0.2">
@@ -22741,7 +22846,7 @@
       </c>
       <c r="N919" s="1">
         <f t="shared" si="60"/>
-        <v>0.31210937500000585</v>
+        <v>0.30430664062499385</v>
       </c>
     </row>
     <row r="920" spans="4:14" x14ac:dyDescent="0.2">
@@ -22765,7 +22870,7 @@
       </c>
       <c r="N920" s="1">
         <f t="shared" si="60"/>
-        <v>0.31289062500000586</v>
+        <v>0.30506835937499382</v>
       </c>
     </row>
     <row r="921" spans="4:14" x14ac:dyDescent="0.2">
@@ -22789,7 +22894,7 @@
       </c>
       <c r="N921" s="1">
         <f t="shared" si="60"/>
-        <v>0.31367187500000587</v>
+        <v>0.3058300781249938</v>
       </c>
     </row>
     <row r="922" spans="4:14" x14ac:dyDescent="0.2">
@@ -22813,7 +22918,7 @@
       </c>
       <c r="N922" s="1">
         <f t="shared" si="60"/>
-        <v>0.31445312500000588</v>
+        <v>0.30659179687499377</v>
       </c>
     </row>
     <row r="923" spans="4:14" x14ac:dyDescent="0.2">
@@ -22837,7 +22942,7 @@
       </c>
       <c r="N923" s="1">
         <f t="shared" si="60"/>
-        <v>0.3152343750000059</v>
+        <v>0.30735351562499375</v>
       </c>
     </row>
     <row r="924" spans="4:14" x14ac:dyDescent="0.2">
@@ -22861,7 +22966,7 @@
       </c>
       <c r="N924" s="1">
         <f t="shared" si="60"/>
-        <v>0.31601562500000591</v>
+        <v>0.30811523437499372</v>
       </c>
     </row>
     <row r="925" spans="4:14" x14ac:dyDescent="0.2">
@@ -22885,7 +22990,7 @@
       </c>
       <c r="N925" s="1">
         <f t="shared" si="60"/>
-        <v>0.31679687500000592</v>
+        <v>0.30887695312499369</v>
       </c>
     </row>
     <row r="926" spans="4:14" x14ac:dyDescent="0.2">
@@ -22909,7 +23014,7 @@
       </c>
       <c r="N926" s="1">
         <f t="shared" si="60"/>
-        <v>0.31757812500000593</v>
+        <v>0.30963867187499367</v>
       </c>
     </row>
     <row r="927" spans="4:14" x14ac:dyDescent="0.2">
@@ -22933,7 +23038,7 @@
       </c>
       <c r="N927" s="1">
         <f t="shared" si="60"/>
-        <v>0.31835937500000594</v>
+        <v>0.31040039062499364</v>
       </c>
     </row>
     <row r="928" spans="4:14" x14ac:dyDescent="0.2">
@@ -22957,7 +23062,7 @@
       </c>
       <c r="N928" s="1">
         <f t="shared" si="60"/>
-        <v>0.31914062500000595</v>
+        <v>0.31116210937499361</v>
       </c>
     </row>
     <row r="929" spans="4:14" x14ac:dyDescent="0.2">
@@ -22981,7 +23086,7 @@
       </c>
       <c r="N929" s="1">
         <f t="shared" si="60"/>
-        <v>0.31992187500000596</v>
+        <v>0.31192382812499359</v>
       </c>
     </row>
     <row r="930" spans="4:14" x14ac:dyDescent="0.2">
@@ -23005,7 +23110,7 @@
       </c>
       <c r="N930" s="1">
         <f t="shared" si="60"/>
-        <v>0.32070312500000597</v>
+        <v>0.31268554687499356</v>
       </c>
     </row>
     <row r="931" spans="4:14" x14ac:dyDescent="0.2">
@@ -23029,7 +23134,7 @@
       </c>
       <c r="N931" s="1">
         <f t="shared" si="60"/>
-        <v>0.32148437500000598</v>
+        <v>0.31344726562499353</v>
       </c>
     </row>
     <row r="932" spans="4:14" x14ac:dyDescent="0.2">
@@ -23053,7 +23158,7 @@
       </c>
       <c r="N932" s="1">
         <f t="shared" si="60"/>
-        <v>0.322265625000006</v>
+        <v>0.31420898437499351</v>
       </c>
     </row>
     <row r="933" spans="4:14" x14ac:dyDescent="0.2">
@@ -23077,7 +23182,7 @@
       </c>
       <c r="N933" s="1">
         <f t="shared" si="60"/>
-        <v>0.32304687500000601</v>
+        <v>0.31497070312499348</v>
       </c>
     </row>
     <row r="934" spans="4:14" x14ac:dyDescent="0.2">
@@ -23101,7 +23206,7 @@
       </c>
       <c r="N934" s="1">
         <f t="shared" si="60"/>
-        <v>0.32382812500000602</v>
+        <v>0.31573242187499345</v>
       </c>
     </row>
     <row r="935" spans="4:14" x14ac:dyDescent="0.2">
@@ -23125,7 +23230,7 @@
       </c>
       <c r="N935" s="1">
         <f t="shared" si="60"/>
-        <v>0.32460937500000603</v>
+        <v>0.31649414062499343</v>
       </c>
     </row>
     <row r="936" spans="4:14" x14ac:dyDescent="0.2">
@@ -23149,7 +23254,7 @@
       </c>
       <c r="N936" s="1">
         <f t="shared" si="60"/>
-        <v>0.32539062500000604</v>
+        <v>0.3172558593749934</v>
       </c>
     </row>
     <row r="937" spans="4:14" x14ac:dyDescent="0.2">
@@ -23173,7 +23278,7 @@
       </c>
       <c r="N937" s="1">
         <f t="shared" si="60"/>
-        <v>0.32617187500000605</v>
+        <v>0.31801757812499337</v>
       </c>
     </row>
     <row r="938" spans="4:14" x14ac:dyDescent="0.2">
@@ -23197,7 +23302,7 @@
       </c>
       <c r="N938" s="1">
         <f t="shared" si="60"/>
-        <v>0.32695312500000606</v>
+        <v>0.31877929687499335</v>
       </c>
     </row>
     <row r="939" spans="4:14" x14ac:dyDescent="0.2">
@@ -23221,7 +23326,7 @@
       </c>
       <c r="N939" s="1">
         <f t="shared" si="60"/>
-        <v>0.32773437500000607</v>
+        <v>0.31954101562499332</v>
       </c>
     </row>
     <row r="940" spans="4:14" x14ac:dyDescent="0.2">
@@ -23245,7 +23350,7 @@
       </c>
       <c r="N940" s="1">
         <f t="shared" si="60"/>
-        <v>0.32851562500000608</v>
+        <v>0.32030273437499329</v>
       </c>
     </row>
     <row r="941" spans="4:14" x14ac:dyDescent="0.2">
@@ -23269,7 +23374,7 @@
       </c>
       <c r="N941" s="1">
         <f t="shared" si="60"/>
-        <v>0.3292968750000061</v>
+        <v>0.32106445312499327</v>
       </c>
     </row>
     <row r="942" spans="4:14" x14ac:dyDescent="0.2">
@@ -23293,7 +23398,7 @@
       </c>
       <c r="N942" s="1">
         <f t="shared" si="60"/>
-        <v>0.33007812500000611</v>
+        <v>0.32182617187499324</v>
       </c>
     </row>
     <row r="943" spans="4:14" x14ac:dyDescent="0.2">
@@ -23317,7 +23422,7 @@
       </c>
       <c r="N943" s="1">
         <f t="shared" si="60"/>
-        <v>0.33085937500000612</v>
+        <v>0.32258789062499321</v>
       </c>
     </row>
     <row r="944" spans="4:14" x14ac:dyDescent="0.2">
@@ -23341,7 +23446,7 @@
       </c>
       <c r="N944" s="1">
         <f t="shared" si="60"/>
-        <v>0.33164062500000613</v>
+        <v>0.32334960937499319</v>
       </c>
     </row>
     <row r="945" spans="4:14" x14ac:dyDescent="0.2">
@@ -23365,7 +23470,7 @@
       </c>
       <c r="N945" s="1">
         <f t="shared" si="60"/>
-        <v>0.33242187500000614</v>
+        <v>0.32411132812499316</v>
       </c>
     </row>
     <row r="946" spans="4:14" x14ac:dyDescent="0.2">
@@ -23389,7 +23494,7 @@
       </c>
       <c r="N946" s="1">
         <f t="shared" si="60"/>
-        <v>0.33320312500000615</v>
+        <v>0.32487304687499313</v>
       </c>
     </row>
     <row r="947" spans="4:14" x14ac:dyDescent="0.2">
@@ -23413,7 +23518,7 @@
       </c>
       <c r="N947" s="1">
         <f t="shared" si="60"/>
-        <v>0.33398437500000616</v>
+        <v>0.32563476562499311</v>
       </c>
     </row>
     <row r="948" spans="4:14" x14ac:dyDescent="0.2">
@@ -23437,7 +23542,7 @@
       </c>
       <c r="N948" s="1">
         <f t="shared" si="60"/>
-        <v>0.33476562500000617</v>
+        <v>0.32639648437499308</v>
       </c>
     </row>
     <row r="949" spans="4:14" x14ac:dyDescent="0.2">
@@ -23461,7 +23566,7 @@
       </c>
       <c r="N949" s="1">
         <f t="shared" si="60"/>
-        <v>0.33554687500000618</v>
+        <v>0.32715820312499305</v>
       </c>
     </row>
     <row r="950" spans="4:14" x14ac:dyDescent="0.2">
@@ -23485,7 +23590,7 @@
       </c>
       <c r="N950" s="1">
         <f t="shared" si="60"/>
-        <v>0.3363281250000062</v>
+        <v>0.32791992187499303</v>
       </c>
     </row>
     <row r="951" spans="4:14" x14ac:dyDescent="0.2">
@@ -23509,7 +23614,7 @@
       </c>
       <c r="N951" s="1">
         <f t="shared" si="60"/>
-        <v>0.33710937500000621</v>
+        <v>0.328681640624993</v>
       </c>
     </row>
     <row r="952" spans="4:14" x14ac:dyDescent="0.2">
@@ -23533,7 +23638,7 @@
       </c>
       <c r="N952" s="1">
         <f t="shared" si="60"/>
-        <v>0.33789062500000622</v>
+        <v>0.32944335937499297</v>
       </c>
     </row>
     <row r="953" spans="4:14" x14ac:dyDescent="0.2">
@@ -23557,7 +23662,7 @@
       </c>
       <c r="N953" s="1">
         <f t="shared" si="60"/>
-        <v>0.33867187500000623</v>
+        <v>0.33020507812499295</v>
       </c>
     </row>
     <row r="954" spans="4:14" x14ac:dyDescent="0.2">
@@ -23581,7 +23686,7 @@
       </c>
       <c r="N954" s="1">
         <f t="shared" si="60"/>
-        <v>0.33945312500000624</v>
+        <v>0.33096679687499292</v>
       </c>
     </row>
     <row r="955" spans="4:14" x14ac:dyDescent="0.2">
@@ -23605,7 +23710,7 @@
       </c>
       <c r="N955" s="1">
         <f t="shared" si="60"/>
-        <v>0.34023437500000625</v>
+        <v>0.33172851562499289</v>
       </c>
     </row>
     <row r="956" spans="4:14" x14ac:dyDescent="0.2">
@@ -23629,7 +23734,7 @@
       </c>
       <c r="N956" s="1">
         <f t="shared" si="60"/>
-        <v>0.34101562500000626</v>
+        <v>0.33249023437499287</v>
       </c>
     </row>
     <row r="957" spans="4:14" x14ac:dyDescent="0.2">
@@ -23653,7 +23758,7 @@
       </c>
       <c r="N957" s="1">
         <f t="shared" si="60"/>
-        <v>0.34179687500000627</v>
+        <v>0.33325195312499284</v>
       </c>
     </row>
     <row r="958" spans="4:14" x14ac:dyDescent="0.2">
@@ -23677,7 +23782,7 @@
       </c>
       <c r="N958" s="1">
         <f t="shared" si="60"/>
-        <v>0.34257812500000628</v>
+        <v>0.33401367187499281</v>
       </c>
     </row>
     <row r="959" spans="4:14" x14ac:dyDescent="0.2">
@@ -23701,7 +23806,7 @@
       </c>
       <c r="N959" s="1">
         <f t="shared" si="60"/>
-        <v>0.34335937500000629</v>
+        <v>0.33477539062499279</v>
       </c>
     </row>
     <row r="960" spans="4:14" x14ac:dyDescent="0.2">
@@ -23725,7 +23830,7 @@
       </c>
       <c r="N960" s="1">
         <f t="shared" si="60"/>
-        <v>0.34414062500000631</v>
+        <v>0.33553710937499276</v>
       </c>
     </row>
     <row r="961" spans="4:14" x14ac:dyDescent="0.2">
@@ -23749,7 +23854,7 @@
       </c>
       <c r="N961" s="1">
         <f t="shared" si="60"/>
-        <v>0.34492187500000632</v>
+        <v>0.33629882812499273</v>
       </c>
     </row>
     <row r="962" spans="4:14" x14ac:dyDescent="0.2">
@@ -23773,7 +23878,7 @@
       </c>
       <c r="N962" s="1">
         <f t="shared" si="60"/>
-        <v>0.34570312500000633</v>
+        <v>0.33706054687499271</v>
       </c>
     </row>
     <row r="963" spans="4:14" x14ac:dyDescent="0.2">
@@ -23797,7 +23902,7 @@
       </c>
       <c r="N963" s="1">
         <f t="shared" si="60"/>
-        <v>0.34648437500000634</v>
+        <v>0.33782226562499268</v>
       </c>
     </row>
     <row r="964" spans="4:14" x14ac:dyDescent="0.2">
@@ -23821,7 +23926,7 @@
       </c>
       <c r="N964" s="1">
         <f t="shared" si="60"/>
-        <v>0.34726562500000635</v>
+        <v>0.33858398437499265</v>
       </c>
     </row>
     <row r="965" spans="4:14" x14ac:dyDescent="0.2">
@@ -23845,7 +23950,7 @@
       </c>
       <c r="N965" s="1">
         <f t="shared" si="60"/>
-        <v>0.34804687500000636</v>
+        <v>0.33934570312499263</v>
       </c>
     </row>
     <row r="966" spans="4:14" x14ac:dyDescent="0.2">
@@ -23869,7 +23974,7 @@
       </c>
       <c r="N966" s="1">
         <f t="shared" si="60"/>
-        <v>0.34882812500000637</v>
+        <v>0.3401074218749926</v>
       </c>
     </row>
     <row r="967" spans="4:14" x14ac:dyDescent="0.2">
@@ -23893,7 +23998,7 @@
       </c>
       <c r="N967" s="1">
         <f t="shared" si="60"/>
-        <v>0.34960937500000638</v>
+        <v>0.34086914062499257</v>
       </c>
     </row>
     <row r="968" spans="4:14" x14ac:dyDescent="0.2">
@@ -23917,7 +24022,7 @@
       </c>
       <c r="N968" s="1">
         <f t="shared" si="60"/>
-        <v>0.35039062500000639</v>
+        <v>0.34163085937499255</v>
       </c>
     </row>
     <row r="969" spans="4:14" x14ac:dyDescent="0.2">
@@ -23941,7 +24046,7 @@
       </c>
       <c r="N969" s="1">
         <f t="shared" si="60"/>
-        <v>0.35117187500000641</v>
+        <v>0.34239257812499252</v>
       </c>
     </row>
     <row r="970" spans="4:14" x14ac:dyDescent="0.2">
@@ -23965,7 +24070,7 @@
       </c>
       <c r="N970" s="1">
         <f t="shared" ref="N970:N1031" si="64">N969+$J$11</f>
-        <v>0.35195312500000642</v>
+        <v>0.34315429687499249</v>
       </c>
     </row>
     <row r="971" spans="4:14" x14ac:dyDescent="0.2">
@@ -23989,7 +24094,7 @@
       </c>
       <c r="N971" s="1">
         <f t="shared" si="64"/>
-        <v>0.35273437500000643</v>
+        <v>0.34391601562499247</v>
       </c>
     </row>
     <row r="972" spans="4:14" x14ac:dyDescent="0.2">
@@ -24013,7 +24118,7 @@
       </c>
       <c r="N972" s="1">
         <f t="shared" si="64"/>
-        <v>0.35351562500000644</v>
+        <v>0.34467773437499244</v>
       </c>
     </row>
     <row r="973" spans="4:14" x14ac:dyDescent="0.2">
@@ -24037,7 +24142,7 @@
       </c>
       <c r="N973" s="1">
         <f t="shared" si="64"/>
-        <v>0.35429687500000645</v>
+        <v>0.34543945312499241</v>
       </c>
     </row>
     <row r="974" spans="4:14" x14ac:dyDescent="0.2">
@@ -24061,7 +24166,7 @@
       </c>
       <c r="N974" s="1">
         <f t="shared" si="64"/>
-        <v>0.35507812500000646</v>
+        <v>0.34620117187499239</v>
       </c>
     </row>
     <row r="975" spans="4:14" x14ac:dyDescent="0.2">
@@ -24085,7 +24190,7 @@
       </c>
       <c r="N975" s="1">
         <f t="shared" si="64"/>
-        <v>0.35585937500000647</v>
+        <v>0.34696289062499236</v>
       </c>
     </row>
     <row r="976" spans="4:14" x14ac:dyDescent="0.2">
@@ -24109,7 +24214,7 @@
       </c>
       <c r="N976" s="1">
         <f t="shared" si="64"/>
-        <v>0.35664062500000648</v>
+        <v>0.34772460937499233</v>
       </c>
     </row>
     <row r="977" spans="4:14" x14ac:dyDescent="0.2">
@@ -24133,7 +24238,7 @@
       </c>
       <c r="N977" s="1">
         <f t="shared" si="64"/>
-        <v>0.35742187500000649</v>
+        <v>0.34848632812499231</v>
       </c>
     </row>
     <row r="978" spans="4:14" x14ac:dyDescent="0.2">
@@ -24157,7 +24262,7 @@
       </c>
       <c r="N978" s="1">
         <f t="shared" si="64"/>
-        <v>0.35820312500000651</v>
+        <v>0.34924804687499228</v>
       </c>
     </row>
     <row r="979" spans="4:14" x14ac:dyDescent="0.2">
@@ -24181,7 +24286,7 @@
       </c>
       <c r="N979" s="1">
         <f t="shared" si="64"/>
-        <v>0.35898437500000652</v>
+        <v>0.35000976562499225</v>
       </c>
     </row>
     <row r="980" spans="4:14" x14ac:dyDescent="0.2">
@@ -24205,7 +24310,7 @@
       </c>
       <c r="N980" s="1">
         <f t="shared" si="64"/>
-        <v>0.35976562500000653</v>
+        <v>0.35077148437499223</v>
       </c>
     </row>
     <row r="981" spans="4:14" x14ac:dyDescent="0.2">
@@ -24229,7 +24334,7 @@
       </c>
       <c r="N981" s="1">
         <f t="shared" si="64"/>
-        <v>0.36054687500000654</v>
+        <v>0.3515332031249922</v>
       </c>
     </row>
     <row r="982" spans="4:14" x14ac:dyDescent="0.2">
@@ -24253,7 +24358,7 @@
       </c>
       <c r="N982" s="1">
         <f t="shared" si="64"/>
-        <v>0.36132812500000655</v>
+        <v>0.35229492187499217</v>
       </c>
     </row>
     <row r="983" spans="4:14" x14ac:dyDescent="0.2">
@@ -24277,7 +24382,7 @@
       </c>
       <c r="N983" s="1">
         <f t="shared" si="64"/>
-        <v>0.36210937500000656</v>
+        <v>0.35305664062499215</v>
       </c>
     </row>
     <row r="984" spans="4:14" x14ac:dyDescent="0.2">
@@ -24301,7 +24406,7 @@
       </c>
       <c r="N984" s="1">
         <f t="shared" si="64"/>
-        <v>0.36289062500000657</v>
+        <v>0.35381835937499212</v>
       </c>
     </row>
     <row r="985" spans="4:14" x14ac:dyDescent="0.2">
@@ -24325,7 +24430,7 @@
       </c>
       <c r="N985" s="1">
         <f t="shared" si="64"/>
-        <v>0.36367187500000658</v>
+        <v>0.35458007812499209</v>
       </c>
     </row>
     <row r="986" spans="4:14" x14ac:dyDescent="0.2">
@@ -24349,7 +24454,7 @@
       </c>
       <c r="N986" s="1">
         <f t="shared" si="64"/>
-        <v>0.36445312500000659</v>
+        <v>0.35534179687499207</v>
       </c>
     </row>
     <row r="987" spans="4:14" x14ac:dyDescent="0.2">
@@ -24373,7 +24478,7 @@
       </c>
       <c r="N987" s="1">
         <f t="shared" si="64"/>
-        <v>0.36523437500000661</v>
+        <v>0.35610351562499204</v>
       </c>
     </row>
     <row r="988" spans="4:14" x14ac:dyDescent="0.2">
@@ -24397,7 +24502,7 @@
       </c>
       <c r="N988" s="1">
         <f t="shared" si="64"/>
-        <v>0.36601562500000662</v>
+        <v>0.35686523437499201</v>
       </c>
     </row>
     <row r="989" spans="4:14" x14ac:dyDescent="0.2">
@@ -24421,7 +24526,7 @@
       </c>
       <c r="N989" s="1">
         <f t="shared" si="64"/>
-        <v>0.36679687500000663</v>
+        <v>0.35762695312499199</v>
       </c>
     </row>
     <row r="990" spans="4:14" x14ac:dyDescent="0.2">
@@ -24445,7 +24550,7 @@
       </c>
       <c r="N990" s="1">
         <f t="shared" si="64"/>
-        <v>0.36757812500000664</v>
+        <v>0.35838867187499196</v>
       </c>
     </row>
     <row r="991" spans="4:14" x14ac:dyDescent="0.2">
@@ -24469,7 +24574,7 @@
       </c>
       <c r="N991" s="1">
         <f t="shared" si="64"/>
-        <v>0.36835937500000665</v>
+        <v>0.35915039062499193</v>
       </c>
     </row>
     <row r="992" spans="4:14" x14ac:dyDescent="0.2">
@@ -24493,7 +24598,7 @@
       </c>
       <c r="N992" s="1">
         <f t="shared" si="64"/>
-        <v>0.36914062500000666</v>
+        <v>0.35991210937499191</v>
       </c>
     </row>
     <row r="993" spans="4:14" x14ac:dyDescent="0.2">
@@ -24517,7 +24622,7 @@
       </c>
       <c r="N993" s="1">
         <f t="shared" si="64"/>
-        <v>0.36992187500000667</v>
+        <v>0.36067382812499188</v>
       </c>
     </row>
     <row r="994" spans="4:14" x14ac:dyDescent="0.2">
@@ -24541,7 +24646,7 @@
       </c>
       <c r="N994" s="1">
         <f t="shared" si="64"/>
-        <v>0.37070312500000668</v>
+        <v>0.36143554687499185</v>
       </c>
     </row>
     <row r="995" spans="4:14" x14ac:dyDescent="0.2">
@@ -24565,7 +24670,7 @@
       </c>
       <c r="N995" s="1">
         <f t="shared" si="64"/>
-        <v>0.37148437500000669</v>
+        <v>0.36219726562499183</v>
       </c>
     </row>
     <row r="996" spans="4:14" x14ac:dyDescent="0.2">
@@ -24589,7 +24694,7 @@
       </c>
       <c r="N996" s="1">
         <f t="shared" si="64"/>
-        <v>0.37226562500000671</v>
+        <v>0.3629589843749918</v>
       </c>
     </row>
     <row r="997" spans="4:14" x14ac:dyDescent="0.2">
@@ -24613,7 +24718,7 @@
       </c>
       <c r="N997" s="1">
         <f t="shared" si="64"/>
-        <v>0.37304687500000672</v>
+        <v>0.36372070312499177</v>
       </c>
     </row>
     <row r="998" spans="4:14" x14ac:dyDescent="0.2">
@@ -24637,7 +24742,7 @@
       </c>
       <c r="N998" s="1">
         <f t="shared" si="64"/>
-        <v>0.37382812500000673</v>
+        <v>0.36448242187499175</v>
       </c>
     </row>
     <row r="999" spans="4:14" x14ac:dyDescent="0.2">
@@ -24661,7 +24766,7 @@
       </c>
       <c r="N999" s="1">
         <f t="shared" si="64"/>
-        <v>0.37460937500000674</v>
+        <v>0.36524414062499172</v>
       </c>
     </row>
     <row r="1000" spans="4:14" x14ac:dyDescent="0.2">
@@ -24685,7 +24790,7 @@
       </c>
       <c r="N1000" s="1">
         <f t="shared" si="64"/>
-        <v>0.37539062500000675</v>
+        <v>0.36600585937499169</v>
       </c>
     </row>
     <row r="1001" spans="4:14" x14ac:dyDescent="0.2">
@@ -24709,7 +24814,7 @@
       </c>
       <c r="N1001" s="1">
         <f t="shared" si="64"/>
-        <v>0.37617187500000676</v>
+        <v>0.36676757812499167</v>
       </c>
     </row>
     <row r="1002" spans="4:14" x14ac:dyDescent="0.2">
@@ -24733,7 +24838,7 @@
       </c>
       <c r="N1002" s="1">
         <f t="shared" si="64"/>
-        <v>0.37695312500000677</v>
+        <v>0.36752929687499164</v>
       </c>
     </row>
     <row r="1003" spans="4:14" x14ac:dyDescent="0.2">
@@ -24757,7 +24862,7 @@
       </c>
       <c r="N1003" s="1">
         <f t="shared" si="64"/>
-        <v>0.37773437500000678</v>
+        <v>0.36829101562499161</v>
       </c>
     </row>
     <row r="1004" spans="4:14" x14ac:dyDescent="0.2">
@@ -24781,7 +24886,7 @@
       </c>
       <c r="N1004" s="1">
         <f t="shared" si="64"/>
-        <v>0.37851562500000679</v>
+        <v>0.36905273437499159</v>
       </c>
     </row>
     <row r="1005" spans="4:14" x14ac:dyDescent="0.2">
@@ -24805,7 +24910,7 @@
       </c>
       <c r="N1005" s="1">
         <f t="shared" si="64"/>
-        <v>0.37929687500000681</v>
+        <v>0.36981445312499156</v>
       </c>
     </row>
     <row r="1006" spans="4:14" x14ac:dyDescent="0.2">
@@ -24829,7 +24934,7 @@
       </c>
       <c r="N1006" s="1">
         <f t="shared" si="64"/>
-        <v>0.38007812500000682</v>
+        <v>0.37057617187499153</v>
       </c>
     </row>
     <row r="1007" spans="4:14" x14ac:dyDescent="0.2">
@@ -24853,7 +24958,7 @@
       </c>
       <c r="N1007" s="1">
         <f t="shared" si="64"/>
-        <v>0.38085937500000683</v>
+        <v>0.37133789062499151</v>
       </c>
     </row>
     <row r="1008" spans="4:14" x14ac:dyDescent="0.2">
@@ -24877,7 +24982,7 @@
       </c>
       <c r="N1008" s="1">
         <f t="shared" si="64"/>
-        <v>0.38164062500000684</v>
+        <v>0.37209960937499148</v>
       </c>
     </row>
     <row r="1009" spans="4:14" x14ac:dyDescent="0.2">
@@ -24901,7 +25006,7 @@
       </c>
       <c r="N1009" s="1">
         <f t="shared" si="64"/>
-        <v>0.38242187500000685</v>
+        <v>0.37286132812499145</v>
       </c>
     </row>
     <row r="1010" spans="4:14" x14ac:dyDescent="0.2">
@@ -24925,7 +25030,7 @@
       </c>
       <c r="N1010" s="1">
         <f t="shared" si="64"/>
-        <v>0.38320312500000686</v>
+        <v>0.37362304687499143</v>
       </c>
     </row>
     <row r="1011" spans="4:14" x14ac:dyDescent="0.2">
@@ -24949,7 +25054,7 @@
       </c>
       <c r="N1011" s="1">
         <f t="shared" si="64"/>
-        <v>0.38398437500000687</v>
+        <v>0.3743847656249914</v>
       </c>
     </row>
     <row r="1012" spans="4:14" x14ac:dyDescent="0.2">
@@ -24973,7 +25078,7 @@
       </c>
       <c r="N1012" s="1">
         <f t="shared" si="64"/>
-        <v>0.38476562500000688</v>
+        <v>0.37514648437499137</v>
       </c>
     </row>
     <row r="1013" spans="4:14" x14ac:dyDescent="0.2">
@@ -24997,7 +25102,7 @@
       </c>
       <c r="N1013" s="1">
         <f t="shared" si="64"/>
-        <v>0.38554687500000689</v>
+        <v>0.37590820312499135</v>
       </c>
     </row>
     <row r="1014" spans="4:14" x14ac:dyDescent="0.2">
@@ -25021,7 +25126,7 @@
       </c>
       <c r="N1014" s="1">
         <f t="shared" si="64"/>
-        <v>0.38632812500000691</v>
+        <v>0.37666992187499132</v>
       </c>
     </row>
     <row r="1015" spans="4:14" x14ac:dyDescent="0.2">
@@ -25045,7 +25150,7 @@
       </c>
       <c r="N1015" s="1">
         <f t="shared" si="64"/>
-        <v>0.38710937500000692</v>
+        <v>0.37743164062499129</v>
       </c>
     </row>
     <row r="1016" spans="4:14" x14ac:dyDescent="0.2">
@@ -25069,7 +25174,7 @@
       </c>
       <c r="N1016" s="1">
         <f t="shared" si="64"/>
-        <v>0.38789062500000693</v>
+        <v>0.37819335937499127</v>
       </c>
     </row>
     <row r="1017" spans="4:14" x14ac:dyDescent="0.2">
@@ -25093,7 +25198,7 @@
       </c>
       <c r="N1017" s="1">
         <f t="shared" si="64"/>
-        <v>0.38867187500000694</v>
+        <v>0.37895507812499124</v>
       </c>
     </row>
     <row r="1018" spans="4:14" x14ac:dyDescent="0.2">
@@ -25117,7 +25222,7 @@
       </c>
       <c r="N1018" s="1">
         <f t="shared" si="64"/>
-        <v>0.38945312500000695</v>
+        <v>0.37971679687499121</v>
       </c>
     </row>
     <row r="1019" spans="4:14" x14ac:dyDescent="0.2">
@@ -25141,7 +25246,7 @@
       </c>
       <c r="N1019" s="1">
         <f t="shared" si="64"/>
-        <v>0.39023437500000696</v>
+        <v>0.38047851562499119</v>
       </c>
     </row>
     <row r="1020" spans="4:14" x14ac:dyDescent="0.2">
@@ -25165,7 +25270,7 @@
       </c>
       <c r="N1020" s="1">
         <f t="shared" si="64"/>
-        <v>0.39101562500000697</v>
+        <v>0.38124023437499116</v>
       </c>
     </row>
     <row r="1021" spans="4:14" x14ac:dyDescent="0.2">
@@ -25189,7 +25294,7 @@
       </c>
       <c r="N1021" s="1">
         <f t="shared" si="64"/>
-        <v>0.39179687500000698</v>
+        <v>0.38200195312499113</v>
       </c>
     </row>
     <row r="1022" spans="4:14" x14ac:dyDescent="0.2">
@@ -25213,7 +25318,7 @@
       </c>
       <c r="N1022" s="1">
         <f t="shared" si="64"/>
-        <v>0.39257812500000699</v>
+        <v>0.38276367187499111</v>
       </c>
     </row>
     <row r="1023" spans="4:14" x14ac:dyDescent="0.2">
@@ -25237,7 +25342,7 @@
       </c>
       <c r="N1023" s="1">
         <f t="shared" si="64"/>
-        <v>0.39335937500000701</v>
+        <v>0.38352539062499108</v>
       </c>
     </row>
     <row r="1024" spans="4:14" x14ac:dyDescent="0.2">
@@ -25261,7 +25366,7 @@
       </c>
       <c r="N1024" s="1">
         <f t="shared" si="64"/>
-        <v>0.39414062500000702</v>
+        <v>0.38428710937499105</v>
       </c>
     </row>
     <row r="1025" spans="4:14" x14ac:dyDescent="0.2">
@@ -25285,7 +25390,7 @@
       </c>
       <c r="N1025" s="1">
         <f t="shared" si="64"/>
-        <v>0.39492187500000703</v>
+        <v>0.38504882812499103</v>
       </c>
     </row>
     <row r="1026" spans="4:14" x14ac:dyDescent="0.2">
@@ -25309,7 +25414,7 @@
       </c>
       <c r="N1026" s="1">
         <f t="shared" si="64"/>
-        <v>0.39570312500000704</v>
+        <v>0.385810546874991</v>
       </c>
     </row>
     <row r="1027" spans="4:14" x14ac:dyDescent="0.2">
@@ -25333,7 +25438,7 @@
       </c>
       <c r="N1027" s="1">
         <f t="shared" si="64"/>
-        <v>0.39648437500000705</v>
+        <v>0.38657226562499097</v>
       </c>
     </row>
     <row r="1028" spans="4:14" x14ac:dyDescent="0.2">
@@ -25357,7 +25462,7 @@
       </c>
       <c r="N1028" s="1">
         <f t="shared" si="64"/>
-        <v>0.39726562500000706</v>
+        <v>0.38733398437499095</v>
       </c>
     </row>
     <row r="1029" spans="4:14" x14ac:dyDescent="0.2">
@@ -25381,7 +25486,7 @@
       </c>
       <c r="N1029" s="1">
         <f t="shared" si="64"/>
-        <v>0.39804687500000707</v>
+        <v>0.38809570312499092</v>
       </c>
     </row>
     <row r="1030" spans="4:14" x14ac:dyDescent="0.2">
@@ -25405,7 +25510,7 @@
       </c>
       <c r="N1030" s="1">
         <f t="shared" si="64"/>
-        <v>0.39882812500000708</v>
+        <v>0.38885742187499089</v>
       </c>
     </row>
     <row r="1031" spans="4:14" x14ac:dyDescent="0.2">
@@ -25429,7 +25534,7 @@
       </c>
       <c r="N1031" s="1">
         <f t="shared" si="64"/>
-        <v>0.39960937500000709</v>
+        <v>0.38961914062499087</v>
       </c>
     </row>
   </sheetData>
